--- a/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
+++ b/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\AQSP\forms\inclusao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\inclusao\forms\inclusao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC62FE62-7783-4588-A561-6D72AF6AA526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F976942-3A4C-4E82-B12B-48E11F2F9758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14415" yWindow="15435" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13005" yWindow="14070" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -4245,7 +4245,7 @@
   <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>256</v>

--- a/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
+++ b/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\inclusao\forms\inclusao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F976942-3A4C-4E82-B12B-48E11F2F9758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5F1EB3-2246-40D2-B64C-48B0B510F1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13005" yWindow="14070" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13350" yWindow="14415" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="model" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="271">
   <si>
     <t>type</t>
   </si>
@@ -337,12 +337,6 @@
   </si>
   <si>
     <t>P. Ovale</t>
-  </si>
-  <si>
-    <t>ano_em_mes</t>
-  </si>
-  <si>
-    <t>(data('ano')*12) + data('mes')</t>
   </si>
   <si>
     <t>exclusao</t>
@@ -856,6 +850,33 @@
   </si>
   <si>
     <t>Nome de Acompanhante:</t>
+  </si>
+  <si>
+    <t>visita_id</t>
+  </si>
+  <si>
+    <t>adate.ageInDays(data('date_rastreio'))</t>
+  </si>
+  <si>
+    <t>idade_mes</t>
+  </si>
+  <si>
+    <t>(data('DOB_ou_idade')=='1')?adate.ageInMonths(data('dn')):(12*data('ano')+data('mes'))</t>
+  </si>
+  <si>
+    <t>(calculates.idade_mes()&lt;12)?(data('dose_SP')=='1'):(data('dose_SP')=='2')</t>
+  </si>
+  <si>
+    <t>display.adate.fromYear</t>
+  </si>
+  <si>
+    <t>display.adate.toYear</t>
+  </si>
+  <si>
+    <t>(calculates.idade_mes()&lt;12)?(data('dose_AQ')=='1'):(data('dose_AQ')=='2')</t>
+  </si>
+  <si>
+    <t>A dose selecionada nao corresponde com a do idade da crianca</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1063,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1087,9 +1108,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1581,7 +1599,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1597,7 +1615,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1605,15 +1623,15 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1629,13 +1647,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W131"/>
+  <dimension ref="A1:Y131"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD19"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1649,15 +1667,17 @@
     <col min="7" max="7" width="63" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="29.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="6"/>
-    <col min="12" max="12" width="28.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17" style="2" customWidth="1"/>
-    <col min="14" max="14" width="60" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.75" style="2"/>
+    <col min="10" max="10" width="17.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="6"/>
+    <col min="14" max="14" width="28.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17" style="2" customWidth="1"/>
+    <col min="16" max="16" width="60" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
@@ -1685,50 +1705,56 @@
       <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="7"/>
@@ -1738,9 +1764,11 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
@@ -1748,7 +1776,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
         <v>62</v>
@@ -1758,60 +1786,57 @@
         <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="L8" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
@@ -1819,33 +1844,33 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
@@ -1856,21 +1881,21 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1878,21 +1903,21 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
@@ -1900,17 +1925,17 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
       <c r="D23" s="9" t="s">
         <v>10</v>
@@ -1922,87 +1947,87 @@
         <v>24</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
         <v>94</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
         <v>94</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C27" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="C29" s="8"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="8"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2010,7 +2035,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" s="8"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -2030,10 +2055,10 @@
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -2043,10 +2068,10 @@
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -2056,10 +2081,10 @@
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
@@ -2069,10 +2094,10 @@
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -2080,7 +2105,7 @@
         <v>50</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="9"/>
@@ -2090,12 +2115,12 @@
       <c r="D39" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="21"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
@@ -2103,12 +2128,12 @@
       <c r="D40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="21"/>
+      <c r="E40" s="20"/>
       <c r="F40" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -2131,7 +2156,7 @@
       <c r="C43" s="8"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="22"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
@@ -2148,10 +2173,10 @@
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -2159,12 +2184,12 @@
       <c r="D46" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="21"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -2174,10 +2199,10 @@
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -2209,10 +2234,10 @@
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,10 +2250,10 @@
         <v>47</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2249,13 +2274,13 @@
         <v>10</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2263,13 +2288,13 @@
         <v>10</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2277,13 +2302,13 @@
         <v>10</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2291,13 +2316,13 @@
         <v>10</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2305,13 +2330,13 @@
         <v>10</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2329,13 +2354,13 @@
         <v>10</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2344,16 +2369,16 @@
         <v>10</v>
       </c>
       <c r="E64" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F64" s="9" t="s">
-        <v>163</v>
-      </c>
       <c r="G64" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C65" s="9"/>
       <c r="D65" s="9" t="s">
         <v>10</v>
@@ -2362,13 +2387,13 @@
         <v>47</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C66" s="8"/>
       <c r="D66" s="9" t="s">
         <v>10</v>
@@ -2377,23 +2402,23 @@
         <v>47</v>
       </c>
       <c r="F66" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="C67" s="8" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="12" t="s">
@@ -2401,16 +2426,16 @@
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B69" s="10" t="s">
-        <v>174</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="12"/>
@@ -2418,9 +2443,9 @@
       <c r="F69" s="13"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
-      <c r="K69" s="5"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70" s="2" t="s">
         <v>53</v>
@@ -2428,7 +2453,7 @@
       <c r="D70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="12" t="s">
@@ -2438,27 +2463,27 @@
         <v>47</v>
       </c>
       <c r="F71" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B72" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="G71" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B72" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>183</v>
-      </c>
       <c r="D72" s="13"/>
-      <c r="E72" s="21"/>
+      <c r="E72" s="20"/>
       <c r="F72" s="13"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>52</v>
       </c>
@@ -2469,7 +2494,7 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="12" t="s">
@@ -2477,27 +2502,27 @@
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F75" s="13"/>
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>53</v>
       </c>
@@ -2508,9 +2533,9 @@
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="12"/>
@@ -2519,7 +2544,7 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>52</v>
       </c>
@@ -2530,7 +2555,7 @@
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="12" t="s">
@@ -2538,14 +2563,14 @@
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="12" t="s">
@@ -2553,46 +2578,58 @@
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H80" s="10"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J80" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K80" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H82" s="10"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L82" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="12" t="s">
@@ -2602,37 +2639,37 @@
         <v>47</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D85" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>54</v>
       </c>
@@ -2640,7 +2677,7 @@
       <c r="E86" s="8"/>
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>53</v>
       </c>
@@ -2648,125 +2685,137 @@
       <c r="E87" s="8"/>
       <c r="F87" s="9"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="21" t="s">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C89" s="21"/>
+      <c r="C89" s="20"/>
       <c r="D89" s="13"/>
-      <c r="E89" s="21"/>
+      <c r="E89" s="20"/>
       <c r="F89" s="13"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
       <c r="D90" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E90" s="21"/>
+      <c r="E90" s="20"/>
       <c r="F90" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="G90" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="H90" s="21"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
+      <c r="G90" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="H90" s="20"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
       <c r="D91" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E91" s="21"/>
+      <c r="E91" s="20"/>
       <c r="F91" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="G91" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="J91" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K91" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E92" s="20"/>
+      <c r="F92" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G92" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="H91" s="21"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="13" t="s">
+      <c r="H92" s="20"/>
+    </row>
+    <row r="93" spans="2:13" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G93" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="E92" s="21"/>
-      <c r="F92" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="G92" s="21" t="s">
+      <c r="H93" s="20"/>
+      <c r="L93" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G94" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="H92" s="21"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G93" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="H93" s="21"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="G94" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="H94" s="21"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H94" s="20"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="9"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D96" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>54</v>
       </c>
@@ -2774,7 +2823,7 @@
       <c r="E97" s="8"/>
       <c r="F97" s="9"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>53</v>
       </c>
@@ -2782,103 +2831,103 @@
       <c r="E98" s="8"/>
       <c r="F98" s="9"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="9"/>
     </row>
-    <row r="100" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
+    <row r="100" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
       <c r="D100" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="21" t="s">
+      <c r="E100" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="G100" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="H100" s="21"/>
-    </row>
-    <row r="101" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B101" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="G100" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="H100" s="20"/>
+    </row>
+    <row r="101" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B101" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="D101" s="13"/>
-      <c r="E101" s="21"/>
+      <c r="E101" s="20"/>
       <c r="F101" s="13"/>
-      <c r="G101" s="21"/>
-      <c r="H101" s="21"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B102" s="21" t="s">
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B102" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C102" s="21"/>
+      <c r="C102" s="20"/>
       <c r="D102" s="13"/>
-      <c r="E102" s="21"/>
+      <c r="E102" s="20"/>
       <c r="F102" s="13"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="21"/>
-    </row>
-    <row r="103" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+    </row>
+    <row r="103" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
       <c r="D103" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E103" s="21"/>
+      <c r="E103" s="20"/>
       <c r="F103" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="G103" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="H103" s="21"/>
-    </row>
-    <row r="104" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B104" s="21"/>
-      <c r="C104" s="21"/>
+        <v>217</v>
+      </c>
+      <c r="G103" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="H103" s="20"/>
+    </row>
+    <row r="104" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
       <c r="D104" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="E104" s="20" t="s">
+        <v>213</v>
       </c>
       <c r="F104" s="13"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B105" s="21" t="s">
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B105" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C105" s="21"/>
+      <c r="C105" s="20"/>
       <c r="D105" s="13"/>
-      <c r="E105" s="21"/>
+      <c r="E105" s="20"/>
       <c r="F105" s="13"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
-    </row>
-    <row r="106" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B106" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C106" s="21"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+    </row>
+    <row r="106" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B106" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" s="20"/>
       <c r="D106" s="13"/>
-      <c r="E106" s="21"/>
+      <c r="E106" s="20"/>
       <c r="F106" s="13"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D107" s="8" t="s">
         <v>10</v>
       </c>
@@ -2886,60 +2935,60 @@
         <v>47</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="9"/>
     </row>
-    <row r="109" spans="1:12" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" s="23" t="s">
+    <row r="109" spans="1:14" s="22" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A109" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G109" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="F109" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="G109" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="K109" s="25"/>
-      <c r="L109" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="F110" s="24"/>
-      <c r="K110" s="25"/>
-    </row>
-    <row r="111" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F111" s="24"/>
-      <c r="K111" s="25"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109" s="24"/>
+      <c r="N109" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F110" s="23"/>
+      <c r="M110" s="24"/>
+    </row>
+    <row r="111" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F111" s="23"/>
+      <c r="M111" s="24"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="9"/>
     </row>
-    <row r="113" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>4</v>
@@ -2948,93 +2997,93 @@
         <v>63</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="9"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="9"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="9"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="9"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="9"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="9"/>
     </row>
-    <row r="120" spans="1:11" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="26" t="s">
+    <row r="120" spans="1:13" s="25" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D120" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G120" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D120" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F120" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="G120" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="K120" s="27"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M120" s="26"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="9"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="9"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="9"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="9"/>
@@ -3055,7 +3104,7 @@
       <c r="F131" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
@@ -3356,13 +3405,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3377,35 +3426,35 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3417,46 +3466,46 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B41" s="2">
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B42" s="2">
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B43" s="2">
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3469,7 +3518,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -3480,24 +3529,24 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B47" s="2">
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B48" s="2">
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,7 +3554,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -3516,24 +3565,24 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B52" s="2">
         <v>3</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3544,35 +3593,35 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B56" s="2">
         <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B57" s="2">
         <v>3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3583,24 +3632,24 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B61" s="2">
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3611,24 +3660,24 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B65" s="2">
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4044,91 +4093,91 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>217</v>
+        <v>231</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>215</v>
-      </c>
-      <c r="B3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4205,7 +4254,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4224,15 +4273,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>262</v>
+      </c>
+      <c r="B2" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" t="s">
+        <v>265</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4244,8 +4297,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4267,7 +4320,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4275,7 +4328,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4283,7 +4336,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4291,7 +4344,7 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4299,7 +4352,7 @@
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4307,587 +4360,587 @@
       <c r="B7" s="15"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>238</v>
+      <c r="B9" s="32" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="B51" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+      <c r="B67" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="B82" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="B74" s="32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="32" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B81" s="32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B83" s="32" t="s">
-        <v>107</v>
+      <c r="B83" s="31" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
+++ b/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\inclusao\forms\inclusao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5F1EB3-2246-40D2-B64C-48B0B510F1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64874651-6961-4382-B446-EED66D48B913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="14415" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="1185" windowWidth="15390" windowHeight="9540" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="287">
   <si>
     <t>type</t>
   </si>
@@ -747,17 +747,10 @@
     <t>n_rastreio</t>
   </si>
   <si>
-    <t>Estás a fazer rastreio no Centro de Saúde de {{data.cs}}, no dia {{data.date_rastreio}}
-Número de rasteio: {{data.id_rastreio}}</t>
-  </si>
-  <si>
     <t>date_rastreio</t>
   </si>
   <si>
     <t>nota_dn</t>
-  </si>
-  <si>
-    <t>Data de Nascimento: {{data.dn}}</t>
   </si>
   <si>
     <t>nota_nome</t>
@@ -877,6 +870,61 @@
   </si>
   <si>
     <t>A dose selecionada nao corresponde com a do idade da crianca</t>
+  </si>
+  <si>
+    <t>data('altura')&lt;=160 &amp;&amp; data('altura')&gt;=20</t>
+  </si>
+  <si>
+    <t>data('peso')&lt;=50 &amp;&amp; data('peso')&gt;=2</t>
+  </si>
+  <si>
+    <t>data('tel_mae')&gt;=950000000 &amp;&amp; data('tel_mae')&lt;=969999999</t>
+  </si>
+  <si>
+    <t>data('tel_pai')&gt;=950000000 &amp;&amp; data('tel_pai')&lt;=969999999</t>
+  </si>
+  <si>
+    <t>data('tel_acomp')&gt;=950000000 &amp;&amp; data('tel_acomp')&lt;=969999999</t>
+  </si>
+  <si>
+    <t>O numero de Tel, nao é valido, ou nao é numero da Guine</t>
+  </si>
+  <si>
+    <t>Altura deve ser em centimetros (cm) por favor verifica se nao está em metros (m) ou outra unidade</t>
+  </si>
+  <si>
+    <t>Peso deve ser em Quilogramos (Kg) por favor verifica se nao está em gramos (g) ou em outra unidade</t>
+  </si>
+  <si>
+    <t>nota_lab_dn</t>
+  </si>
+  <si>
+    <t>nota_lab_ano</t>
+  </si>
+  <si>
+    <t>{{data.date_rastreio}}  Idade: {{data.ano}} A e {{data.mes}} M</t>
+  </si>
+  <si>
+    <t>date_rastreio_display</t>
+  </si>
+  <si>
+    <t>Estás a fazer rastreio no Centro de Saúde de {{data.cs}}, no dia {{calculates.date_rastreio_display}}
+Número de rasteio: {{data.id_rastreio}}</t>
+  </si>
+  <si>
+    <t>adate.display(data('dn'))</t>
+  </si>
+  <si>
+    <t>dn_display</t>
+  </si>
+  <si>
+    <t>{{data.date_rastreio}}  Idade: {{calculates.dn_display}}</t>
+  </si>
+  <si>
+    <t>adate.display(calculates.date_rastreio())</t>
+  </si>
+  <si>
+    <t>Data de Nascimento: {{calculates.dn_display}}</t>
   </si>
 </sst>
 </file>
@@ -1576,14 +1624,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1594,7 +1642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1602,7 +1650,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1610,7 +1658,7 @@
         <v>2020061301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1618,7 +1666,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1626,9 +1674,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -1647,16 +1695,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y131"/>
+  <dimension ref="A1:Y140"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1670,14 +1718,14 @@
     <col min="10" max="10" width="17.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="2" customWidth="1"/>
     <col min="12" max="12" width="24.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="6"/>
+    <col min="13" max="13" width="34.25" style="6" customWidth="1"/>
     <col min="14" max="14" width="28.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="17" style="2" customWidth="1"/>
     <col min="16" max="16" width="60" style="2" customWidth="1"/>
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
@@ -1706,10 +1754,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1754,7 +1802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="7"/>
@@ -1768,7 +1816,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
@@ -1776,7 +1824,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
         <v>62</v>
@@ -1786,10 +1834,10 @@
         <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
         <v>59</v>
@@ -1802,7 +1850,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
         <v>59</v>
@@ -1815,7 +1863,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
         <v>59</v>
@@ -1828,7 +1876,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
@@ -1836,7 +1884,7 @@
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
@@ -1844,33 +1892,33 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
@@ -1881,21 +1929,21 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1903,21 +1951,21 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N17" s="8"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
@@ -1925,17 +1973,17 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B20" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C23" s="8"/>
       <c r="D23" s="9" t="s">
         <v>10</v>
@@ -1950,7 +1998,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
         <v>94</v>
@@ -1962,8 +2010,14 @@
       <c r="G24" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L24" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
         <v>94</v>
@@ -1975,8 +2029,14 @@
       <c r="G25" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L25" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
         <v>10</v>
@@ -1991,7 +2051,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B27" s="2" t="s">
         <v>125</v>
       </c>
@@ -2001,7 +2061,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
         <v>59</v>
@@ -2014,7 +2074,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B29" s="2" t="s">
         <v>128</v>
       </c>
@@ -2022,12 +2082,12 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C30" s="8"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2035,12 +2095,12 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C32" s="8"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B33" s="2" t="s">
         <v>52</v>
       </c>
@@ -2048,7 +2108,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C34" s="8"/>
       <c r="D34" s="9" t="s">
         <v>59</v>
@@ -2061,7 +2121,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" ht="63" x14ac:dyDescent="0.5">
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
         <v>5</v>
@@ -2073,8 +2133,14 @@
       <c r="G35" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="L35" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
         <v>59</v>
@@ -2087,7 +2153,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C37" s="8"/>
       <c r="D37" s="9" t="s">
         <v>5</v>
@@ -2099,8 +2165,14 @@
       <c r="G37" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="L37" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B38" s="2" t="s">
         <v>50</v>
       </c>
@@ -2110,7 +2182,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C39" s="8"/>
       <c r="D39" s="9" t="s">
         <v>59</v>
@@ -2120,10 +2192,10 @@
         <v>139</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="63" x14ac:dyDescent="0.5">
       <c r="C40" s="8"/>
       <c r="D40" s="9" t="s">
         <v>5</v>
@@ -2135,8 +2207,14 @@
       <c r="G40" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="L40" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B41" s="2" t="s">
         <v>54</v>
       </c>
@@ -2144,12 +2222,12 @@
       <c r="E41" s="10"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C42" s="9"/>
       <c r="E42" s="10"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B43" s="2" t="s">
         <v>53</v>
       </c>
@@ -2158,7 +2236,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="21"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
@@ -2166,7 +2244,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C45" s="8"/>
       <c r="D45" s="9" t="s">
         <v>59</v>
@@ -2179,7 +2257,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C46" s="8"/>
       <c r="D46" s="9" t="s">
         <v>59</v>
@@ -2192,7 +2270,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C47" s="8"/>
       <c r="D47" s="9" t="s">
         <v>4</v>
@@ -2205,7 +2283,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B48" s="2" t="s">
         <v>53</v>
       </c>
@@ -2213,12 +2291,12 @@
       <c r="E48" s="10"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C49" s="8"/>
       <c r="E49" s="10"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B50" s="2" t="s">
         <v>52</v>
       </c>
@@ -2226,7 +2304,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A51"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9" t="s">
@@ -2234,13 +2312,13 @@
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A52"/>
       <c r="C52" s="8"/>
       <c r="D52" s="9" t="s">
@@ -2250,26 +2328,26 @@
         <v>47</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B55" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D56" s="9" t="s">
         <v>10</v>
       </c>
@@ -2283,7 +2361,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D57" s="9" t="s">
         <v>10</v>
       </c>
@@ -2297,7 +2375,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D58" s="9" t="s">
         <v>10</v>
       </c>
@@ -2311,7 +2389,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D59" s="9" t="s">
         <v>10</v>
       </c>
@@ -2325,7 +2403,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D60" s="9" t="s">
         <v>10</v>
       </c>
@@ -2339,17 +2417,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B61" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B62" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D63" s="9" t="s">
         <v>10</v>
       </c>
@@ -2363,7 +2441,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C64" s="8"/>
       <c r="D64" s="9" t="s">
         <v>10</v>
@@ -2378,7 +2456,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.5">
       <c r="C65" s="9"/>
       <c r="D65" s="9" t="s">
         <v>10</v>
@@ -2393,7 +2471,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.5">
       <c r="C66" s="8"/>
       <c r="D66" s="9" t="s">
         <v>10</v>
@@ -2408,7 +2486,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B67" s="2" t="s">
         <v>168</v>
       </c>
@@ -2418,7 +2496,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="12" t="s">
@@ -2433,7 +2511,7 @@
       </c>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B69" s="10" t="s">
         <v>172</v>
       </c>
@@ -2445,7 +2523,7 @@
       <c r="H69" s="10"/>
       <c r="M69" s="5"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A70"/>
       <c r="B70" s="2" t="s">
         <v>53</v>
@@ -2453,7 +2531,7 @@
       <c r="D70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="12" t="s">
@@ -2466,11 +2544,11 @@
         <v>179</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B72" s="20" t="s">
         <v>180</v>
       </c>
@@ -2483,7 +2561,7 @@
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B73" s="10" t="s">
         <v>52</v>
       </c>
@@ -2494,7 +2572,7 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="12" t="s">
@@ -2509,7 +2587,7 @@
       </c>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="12" t="s">
@@ -2522,7 +2600,7 @@
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B76" s="10" t="s">
         <v>53</v>
       </c>
@@ -2533,7 +2611,7 @@
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B77" s="10" t="s">
         <v>184</v>
       </c>
@@ -2544,7 +2622,7 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B78" s="10" t="s">
         <v>52</v>
       </c>
@@ -2555,7 +2633,7 @@
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="12" t="s">
@@ -2570,7 +2648,7 @@
       </c>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="12" t="s">
@@ -2591,7 +2669,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="12" t="s">
@@ -2606,7 +2684,7 @@
       </c>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="2:13" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="12" t="s">
@@ -2623,13 +2701,13 @@
       </c>
       <c r="H82" s="10"/>
       <c r="L82" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="12" t="s">
@@ -2646,7 +2724,7 @@
       </c>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B84" s="2" t="s">
         <v>50</v>
       </c>
@@ -2657,7 +2735,7 @@
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.5">
       <c r="D85" s="8" t="s">
         <v>187</v>
       </c>
@@ -2669,7 +2747,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B86" s="2" t="s">
         <v>54</v>
       </c>
@@ -2677,7 +2755,7 @@
       <c r="E86" s="8"/>
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B87" s="2" t="s">
         <v>53</v>
       </c>
@@ -2685,12 +2763,12 @@
       <c r="E87" s="8"/>
       <c r="F87" s="9"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.5">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B89" s="20" t="s">
         <v>52</v>
       </c>
@@ -2701,7 +2779,7 @@
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
       <c r="D90" s="13" t="s">
@@ -2716,7 +2794,7 @@
       </c>
       <c r="H90" s="20"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
       <c r="D91" s="13" t="s">
@@ -2737,7 +2815,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
       <c r="D92" s="13" t="s">
@@ -2752,7 +2830,7 @@
       </c>
       <c r="H92" s="20"/>
     </row>
-    <row r="93" spans="2:13" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
       <c r="D93" s="13" t="s">
@@ -2769,13 +2847,13 @@
       </c>
       <c r="H93" s="20"/>
       <c r="L93" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
       <c r="D94" s="13" t="s">
@@ -2792,7 +2870,7 @@
       </c>
       <c r="H94" s="20"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B95" s="2" t="s">
         <v>50</v>
       </c>
@@ -2803,7 +2881,7 @@
       <c r="E95" s="8"/>
       <c r="F95" s="9"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.5">
       <c r="D96" s="8" t="s">
         <v>187</v>
       </c>
@@ -2815,7 +2893,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B97" s="2" t="s">
         <v>54</v>
       </c>
@@ -2823,7 +2901,7 @@
       <c r="E97" s="8"/>
       <c r="F97" s="9"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B98" s="2" t="s">
         <v>53</v>
       </c>
@@ -2831,12 +2909,12 @@
       <c r="E98" s="8"/>
       <c r="F98" s="9"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.5">
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="9"/>
     </row>
-    <row r="100" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
       <c r="D100" s="13" t="s">
@@ -2853,7 +2931,7 @@
       </c>
       <c r="H100" s="20"/>
     </row>
-    <row r="101" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B101" s="20" t="s">
         <v>180</v>
       </c>
@@ -2866,7 +2944,7 @@
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B102" s="20" t="s">
         <v>52</v>
       </c>
@@ -2877,7 +2955,7 @@
       <c r="G102" s="20"/>
       <c r="H102" s="20"/>
     </row>
-    <row r="103" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
       <c r="D103" s="13" t="s">
@@ -2892,7 +2970,7 @@
       </c>
       <c r="H103" s="20"/>
     </row>
-    <row r="104" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
       <c r="D104" s="13" t="s">
@@ -2905,7 +2983,7 @@
       <c r="G104" s="20"/>
       <c r="H104" s="20"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B105" s="20" t="s">
         <v>53</v>
       </c>
@@ -2916,7 +2994,7 @@
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
     </row>
-    <row r="106" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B106" s="20" t="s">
         <v>184</v>
       </c>
@@ -2927,181 +3005,265 @@
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D107" s="8" t="s">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.5">
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.5">
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F108" s="13"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.5">
+      <c r="B109" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.5">
+      <c r="C110" s="9"/>
+      <c r="D110" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="N110" s="8"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.5">
+      <c r="B111" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.5">
+      <c r="C112" s="8"/>
+      <c r="D112" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="N112" s="8"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B114" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="D116" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E116" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="F116" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B108" s="2" t="s">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B117" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="9"/>
-    </row>
-    <row r="109" spans="1:14" s="22" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D109" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G109" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="M109" s="24"/>
-      <c r="N109" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F110" s="23"/>
-      <c r="M110" s="24"/>
-    </row>
-    <row r="111" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F111" s="23"/>
-      <c r="M111" s="24"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="9"/>
-    </row>
-    <row r="113" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="9"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="9"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="9"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="9"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="9"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="9"/>
-    </row>
-    <row r="120" spans="1:13" s="25" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F120" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G120" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="M120" s="26"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" s="22" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A118" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F118" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="M118" s="24"/>
+      <c r="N118" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B119" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F119" s="23"/>
+      <c r="M119" s="24"/>
+    </row>
+    <row r="120" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="F120" s="23"/>
+      <c r="M120" s="24"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="9"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A122" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B124" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="9"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="9"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="9"/>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="9"/>
-    </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" s="25" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A129" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D129" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G129" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="M129" s="26"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.5">
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="9"/>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.5">
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="9"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="9"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="9"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="9"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="9"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="9"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="9"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="9"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="9"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -3124,7 +3286,7 @@
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -3132,7 +3294,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3146,7 +3308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3157,7 +3319,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -3168,7 +3330,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
@@ -3179,7 +3341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>86</v>
       </c>
@@ -3190,11 +3352,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -3205,7 +3367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -3216,15 +3378,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -3235,7 +3397,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -3246,10 +3408,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>81</v>
       </c>
@@ -3263,7 +3425,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>81</v>
       </c>
@@ -3277,7 +3439,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -3291,7 +3453,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>81</v>
       </c>
@@ -3305,7 +3467,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
@@ -3319,7 +3481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -3333,14 +3495,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
@@ -3351,7 +3513,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
@@ -3362,7 +3524,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>91</v>
       </c>
@@ -3373,15 +3535,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
@@ -3392,7 +3554,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>95</v>
       </c>
@@ -3403,7 +3565,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
         <v>100</v>
       </c>
@@ -3414,17 +3576,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -3435,7 +3597,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>113</v>
       </c>
@@ -3446,7 +3608,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
@@ -3457,14 +3619,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>123</v>
       </c>
@@ -3475,7 +3637,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
         <v>123</v>
       </c>
@@ -3486,7 +3648,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
         <v>123</v>
       </c>
@@ -3497,7 +3659,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>123</v>
       </c>
@@ -3508,15 +3670,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
         <v>178</v>
       </c>
@@ -3527,7 +3689,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
         <v>178</v>
       </c>
@@ -3538,7 +3700,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
         <v>178</v>
       </c>
@@ -3549,10 +3711,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
@@ -3563,7 +3725,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
         <v>148</v>
       </c>
@@ -3574,7 +3736,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
         <v>148</v>
       </c>
@@ -3585,13 +3747,13 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>159</v>
       </c>
@@ -3602,7 +3764,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
         <v>159</v>
       </c>
@@ -3613,7 +3775,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1" t="s">
         <v>159</v>
       </c>
@@ -3624,13 +3786,13 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1" t="s">
         <v>193</v>
       </c>
@@ -3641,7 +3803,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1" t="s">
         <v>193</v>
       </c>
@@ -3652,13 +3814,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1" t="s">
         <v>203</v>
       </c>
@@ -3669,7 +3831,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1" t="s">
         <v>203</v>
       </c>
@@ -3680,381 +3842,381 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
@@ -4079,7 +4241,7 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -4093,7 +4255,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="19" t="s">
         <v>43</v>
       </c>
@@ -4128,7 +4290,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -4154,7 +4316,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>213</v>
       </c>
@@ -4195,14 +4357,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="16" t="s">
         <v>56</v>
       </c>
@@ -4216,7 +4378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4230,7 +4392,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -4251,19 +4413,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4271,20 +4433,36 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" t="s">
-        <v>265</v>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4297,17 +4475,17 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A38:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4315,59 +4493,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="32" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="32" t="s">
         <v>59</v>
       </c>
@@ -4375,7 +4553,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="33" t="s">
         <v>10</v>
       </c>
@@ -4383,7 +4561,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="33" t="s">
         <v>10</v>
       </c>
@@ -4391,7 +4569,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="32" t="s">
         <v>4</v>
       </c>
@@ -4399,7 +4577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="32" t="s">
         <v>10</v>
       </c>
@@ -4407,7 +4585,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="32" t="s">
         <v>64</v>
       </c>
@@ -4415,7 +4593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="32" t="s">
         <v>5</v>
       </c>
@@ -4423,7 +4601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="32" t="s">
         <v>5</v>
       </c>
@@ -4431,7 +4609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="32" t="s">
         <v>10</v>
       </c>
@@ -4439,7 +4617,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="32" t="s">
         <v>94</v>
       </c>
@@ -4447,47 +4625,47 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="32" t="s">
         <v>10</v>
       </c>
@@ -4495,31 +4673,31 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="32" t="s">
         <v>62</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="27" t="s">
         <v>62</v>
       </c>
@@ -4527,7 +4705,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="28" t="s">
         <v>59</v>
       </c>
@@ -4535,7 +4713,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="28" t="s">
         <v>59</v>
       </c>
@@ -4543,7 +4721,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="28" t="s">
         <v>59</v>
       </c>
@@ -4551,31 +4729,31 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="30" t="s">
         <v>62</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="30" t="s">
         <v>62</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="30" t="s">
         <v>62</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="27" t="s">
         <v>10</v>
       </c>
@@ -4583,7 +4761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="27" t="s">
         <v>94</v>
       </c>
@@ -4591,7 +4769,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="27" t="s">
         <v>94</v>
       </c>
@@ -4599,7 +4777,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="27" t="s">
         <v>10</v>
       </c>
@@ -4607,7 +4785,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="27" t="s">
         <v>59</v>
       </c>
@@ -4615,7 +4793,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="27" t="s">
         <v>59</v>
       </c>
@@ -4623,7 +4801,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="27" t="s">
         <v>5</v>
       </c>
@@ -4631,7 +4809,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="29" t="s">
         <v>59</v>
       </c>
@@ -4639,7 +4817,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="29" t="s">
         <v>5</v>
       </c>
@@ -4647,7 +4825,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="29" t="s">
         <v>59</v>
       </c>
@@ -4655,7 +4833,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="29" t="s">
         <v>5</v>
       </c>
@@ -4663,7 +4841,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="29" t="s">
         <v>59</v>
       </c>
@@ -4671,7 +4849,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="29" t="s">
         <v>59</v>
       </c>
@@ -4679,7 +4857,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51" s="29" t="s">
         <v>4</v>
       </c>
@@ -4687,23 +4865,23 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" s="31" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="31" t="s">
         <v>10</v>
       </c>
@@ -4711,7 +4889,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="31" t="s">
         <v>10</v>
       </c>
@@ -4719,7 +4897,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="31" t="s">
         <v>10</v>
       </c>
@@ -4727,7 +4905,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" s="31" t="s">
         <v>10</v>
       </c>
@@ -4735,7 +4913,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" s="31" t="s">
         <v>10</v>
       </c>
@@ -4743,7 +4921,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" s="31" t="s">
         <v>10</v>
       </c>
@@ -4751,7 +4929,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60" s="31" t="s">
         <v>10</v>
       </c>
@@ -4759,7 +4937,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="31" t="s">
         <v>10</v>
       </c>
@@ -4767,7 +4945,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" s="31" t="s">
         <v>10</v>
       </c>
@@ -4775,7 +4953,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63" s="31" t="s">
         <v>4</v>
       </c>
@@ -4783,7 +4961,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64" s="31" t="s">
         <v>10</v>
       </c>
@@ -4791,7 +4969,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65" s="31" t="s">
         <v>62</v>
       </c>
@@ -4799,7 +4977,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66" s="31" t="s">
         <v>62</v>
       </c>
@@ -4807,7 +4985,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67" s="31" t="s">
         <v>64</v>
       </c>
@@ -4815,7 +4993,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68" s="31" t="s">
         <v>187</v>
       </c>
@@ -4823,7 +5001,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A69" s="31" t="s">
         <v>10</v>
       </c>
@@ -4831,7 +5009,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A70" s="31" t="s">
         <v>10</v>
       </c>
@@ -4839,7 +5017,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71" s="31" t="s">
         <v>187</v>
       </c>
@@ -4847,7 +5025,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72" s="31" t="s">
         <v>62</v>
       </c>
@@ -4855,7 +5033,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73" s="31" t="s">
         <v>64</v>
       </c>
@@ -4863,7 +5041,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A74" s="31" t="s">
         <v>187</v>
       </c>
@@ -4871,7 +5049,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A75" s="31" t="s">
         <v>10</v>
       </c>
@@ -4879,7 +5057,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A76" s="31" t="s">
         <v>10</v>
       </c>
@@ -4887,7 +5065,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A77" s="31" t="s">
         <v>187</v>
       </c>
@@ -4895,7 +5073,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A78" s="31" t="s">
         <v>10</v>
       </c>
@@ -4903,7 +5081,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79" s="31" t="s">
         <v>62</v>
       </c>
@@ -4911,7 +5089,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A80" s="31" t="s">
         <v>10</v>
       </c>
@@ -4919,7 +5097,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A81" s="31" t="s">
         <v>10</v>
       </c>
@@ -4927,7 +5105,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A82" s="31" t="s">
         <v>4</v>
       </c>
@@ -4935,7 +5113,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A83" s="31" t="s">
         <v>62</v>
       </c>

--- a/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
+++ b/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\inclusao\forms\inclusao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64874651-6961-4382-B446-EED66D48B913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149C009B-22C4-4902-B610-41057135D607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1185" windowWidth="15390" windowHeight="9540" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="305">
   <si>
     <t>type</t>
   </si>
@@ -712,15 +712,6 @@
   </si>
   <si>
     <t>Formulário de inclusão de caso: Dia 0</t>
-  </si>
-  <si>
-    <t>Nº de rastreio:</t>
-  </si>
-  <si>
-    <t>Código de lâmina de verificação:</t>
-  </si>
-  <si>
-    <t>Código de estudo:</t>
   </si>
   <si>
     <t>Lista de outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos)</t>
@@ -878,15 +869,6 @@
     <t>data('peso')&lt;=50 &amp;&amp; data('peso')&gt;=2</t>
   </si>
   <si>
-    <t>data('tel_mae')&gt;=950000000 &amp;&amp; data('tel_mae')&lt;=969999999</t>
-  </si>
-  <si>
-    <t>data('tel_pai')&gt;=950000000 &amp;&amp; data('tel_pai')&lt;=969999999</t>
-  </si>
-  <si>
-    <t>data('tel_acomp')&gt;=950000000 &amp;&amp; data('tel_acomp')&lt;=969999999</t>
-  </si>
-  <si>
     <t>O numero de Tel, nao é valido, ou nao é numero da Guine</t>
   </si>
   <si>
@@ -900,9 +882,6 @@
   </si>
   <si>
     <t>nota_lab_ano</t>
-  </si>
-  <si>
-    <t>{{data.date_rastreio}}  Idade: {{data.ano}} A e {{data.mes}} M</t>
   </si>
   <si>
     <t>date_rastreio_display</t>
@@ -918,13 +897,98 @@
     <t>dn_display</t>
   </si>
   <si>
-    <t>{{data.date_rastreio}}  Idade: {{calculates.dn_display}}</t>
-  </si>
-  <si>
-    <t>adate.display(calculates.date_rastreio())</t>
-  </si>
-  <si>
     <t>Data de Nascimento: {{calculates.dn_display}}</t>
+  </si>
+  <si>
+    <t>acompanhante_info</t>
+  </si>
+  <si>
+    <t>calculates.acompanhante_info()</t>
+  </si>
+  <si>
+    <t>{{calculates.date_rastreio_display}}  DOB: {{calculates.dn_display}}</t>
+  </si>
+  <si>
+    <t>{{calculates.date_rastreio_display}}  Idade: {{data.ano}} A e {{data.mes}} M</t>
+  </si>
+  <si>
+    <t>(data('tel_mae')==88) || sc.isGbPhone(data('tel_mae'))</t>
+  </si>
+  <si>
+    <t>adate.display(data('date_rastreio'))</t>
+  </si>
+  <si>
+    <t>label_codigo</t>
+  </si>
+  <si>
+    <t>data('cs')=='bafata'?'BA':data('cs')=='bambadinca'?'KN':data('cs')=='cosse'?'CS':data('cs')=='gabu'?'GU':data('cs')=='mafanco'?'MF':data('cs')=='pitche'?'PT':''</t>
+  </si>
+  <si>
+    <t>codigos_csv</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>"banco.csv"</t>
+  </si>
+  <si>
+    <t>_.chain(context)
+.map(function(place){
+    return {
+        data_value:place.lista, 
+        region: place.region,
+        cs: place.cs,
+        lista: place.lista,
+               display:{title: {text: place.lista} }
+    } 
+    })
+.value()</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>Introduza o codigo que aparece no  papel de Analise</t>
+  </si>
+  <si>
+    <t>Confirma o codigo introduzido</t>
+  </si>
+  <si>
+    <t>choice_item.region === data('region') &amp;&amp; choice_item.cs===data('cs') &amp;&amp; choice_item.lista== data('codigo').toUpperCase()</t>
+  </si>
+  <si>
+    <t>Se não aparecer o codigo, é porque o código introduzido não consta na lista de código para este Centro de saúde</t>
+  </si>
+  <si>
+    <t>""+ data('id_estudo') + "X" + calculates.visita_id()</t>
+  </si>
+  <si>
+    <t>Código de lâmina de verificação: {{calculates.id_lamina}}</t>
+  </si>
+  <si>
+    <t>nota_id_lamina</t>
+  </si>
+  <si>
+    <t>(data('tel_pai')==88) || sc.isGbPhone(data('tel_pai'))</t>
+  </si>
+  <si>
+    <t>nao_tel</t>
+  </si>
+  <si>
+    <t>!calculates.acompanhante_info() ||(data('tel_acomp')==88) ||sc.isGbPhone(data('tel_acomp'))</t>
+  </si>
+  <si>
+    <t>(data('tel_mae')=='88' &amp;&amp; data('tel_pai') == '88') &amp;&amp; data('tel_acomp') == '88'</t>
+  </si>
+  <si>
+    <t>calculates.nao_tel()</t>
+  </si>
+  <si>
+    <t>Por favor introduza pelo menos um numero de contacto para facilitar sua localizacao durante o seguimento</t>
+  </si>
+  <si>
+    <t>se nao souber 88</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1175,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1197,6 +1261,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1624,14 +1691,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1642,7 +1709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1650,7 +1717,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1658,7 +1725,7 @@
         <v>2020061301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1666,7 +1733,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1674,9 +1741,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -1695,16 +1762,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y140"/>
+  <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1725,7 +1792,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
@@ -1754,10 +1821,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1802,7 +1869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="7"/>
@@ -1816,7 +1883,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
@@ -1824,7 +1891,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
         <v>62</v>
@@ -1834,409 +1901,416 @@
         <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="B8" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="B9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="C11" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="D12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="D13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>87</v>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="F14" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="8"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B20" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="C23" s="8"/>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+      <c r="D20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+      <c r="D22" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>94</v>
+        <v>124</v>
+      </c>
+      <c r="N23" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="B27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>229</v>
-      </c>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="8"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C28" s="8"/>
-      <c r="D28" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="B29" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C29" s="8"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C30" s="8"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B31" s="2" t="s">
-        <v>53</v>
-      </c>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" s="8"/>
+      <c r="D31" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.5">
+      <c r="F31" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C32" s="8"/>
+      <c r="D32" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B33" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="F32" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C33" s="8"/>
+      <c r="D33" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="F33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C34" s="8"/>
       <c r="D34" s="9" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="63" x14ac:dyDescent="0.5">
-      <c r="C35" s="8"/>
-      <c r="D35" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="I34" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" ht="47.25" x14ac:dyDescent="0.5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="78.75" x14ac:dyDescent="0.25">
       <c r="C37" s="8"/>
       <c r="D37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="I37" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="L37" s="2" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" ht="47.25" x14ac:dyDescent="0.5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>230</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C38" s="8"/>
       <c r="E38" s="10"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C39" s="8"/>
-      <c r="D39" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" ht="63" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C40" s="8"/>
-      <c r="D40" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C42" s="8"/>
+      <c r="D42" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B43" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C43" s="8"/>
-      <c r="E43" s="9"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="21"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>52</v>
       </c>
@@ -2244,7 +2318,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
       <c r="D45" s="9" t="s">
         <v>59</v>
@@ -2257,7 +2331,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C46" s="8"/>
       <c r="D46" s="9" t="s">
         <v>59</v>
@@ -2270,7 +2344,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C47" s="8"/>
       <c r="D47" s="9" t="s">
         <v>4</v>
@@ -2283,7 +2357,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>53</v>
       </c>
@@ -2291,12 +2365,12 @@
       <c r="E48" s="10"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C49" s="8"/>
       <c r="E49" s="10"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>52</v>
       </c>
@@ -2304,7 +2378,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9" t="s">
@@ -2312,13 +2386,13 @@
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="C52" s="8"/>
       <c r="D52" s="9" t="s">
@@ -2328,26 +2402,26 @@
         <v>47</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D56" s="9" t="s">
         <v>10</v>
       </c>
@@ -2361,7 +2435,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D57" s="9" t="s">
         <v>10</v>
       </c>
@@ -2375,35 +2449,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D58" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D59" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D60" s="9" t="s">
         <v>10</v>
       </c>
@@ -2411,159 +2467,153 @@
         <v>148</v>
       </c>
       <c r="F60" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D61" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D62" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B61" s="2" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="B62" s="2" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D63" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="C64" s="8"/>
-      <c r="D64" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="C65" s="9"/>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D65" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>163</v>
+      <c r="E65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C66" s="8"/>
       <c r="D66" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C69" s="9"/>
+      <c r="D69" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F69" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C70" s="8"/>
+      <c r="D70" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="B67" s="2" t="s">
+    <row r="71" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="12" t="s">
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="13" t="s">
+      <c r="E72" s="10"/>
+      <c r="F72" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G72" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="1:13" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="B69" s="10" t="s">
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="M69" s="5"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A70"/>
-      <c r="B70" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:13" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B72" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B73" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="12"/>
@@ -2571,49 +2621,49 @@
       <c r="F73" s="13"/>
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="M73" s="5"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+      <c r="B74" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="12" t="s">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="E75" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="10"/>
+      <c r="G75" s="10" t="s">
+        <v>255</v>
+      </c>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B76" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="10"/>
+    <row r="76" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B76" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D76" s="13"/>
+      <c r="E76" s="20"/>
       <c r="F76" s="13"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="12"/>
@@ -2622,381 +2672,381 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B78" s="10" t="s">
-        <v>52</v>
-      </c>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="10"/>
       <c r="C78" s="10"/>
-      <c r="D78" s="12"/>
+      <c r="D78" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="E78" s="10"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="10"/>
+      <c r="F78" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>185</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F79" s="13"/>
+      <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B80" s="10"/>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C80" s="10"/>
-      <c r="D80" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="D80" s="12"/>
       <c r="E80" s="10"/>
-      <c r="F80" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>186</v>
-      </c>
+      <c r="F80" s="13"/>
+      <c r="G80" s="10"/>
       <c r="H80" s="10"/>
-      <c r="J80" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K80" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B81" s="10"/>
+    </row>
+    <row r="81" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B81" s="10" t="s">
+        <v>184</v>
+      </c>
       <c r="C81" s="10"/>
-      <c r="D81" s="12" t="s">
-        <v>187</v>
-      </c>
+      <c r="D81" s="12"/>
       <c r="E81" s="10"/>
-      <c r="F81" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>188</v>
-      </c>
+      <c r="F81" s="13"/>
+      <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="2:13" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="B82" s="10"/>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="C82" s="10"/>
-      <c r="D82" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>189</v>
-      </c>
+      <c r="D82" s="12"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="10"/>
       <c r="H82" s="10"/>
-      <c r="L82" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="M82" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H84" s="10"/>
+      <c r="J84" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K84" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H85" s="10"/>
+    </row>
+    <row r="86" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E86" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H86" s="10"/>
+      <c r="L86" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F87" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="G87" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="H83" s="10"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B84" s="2" t="s">
+      <c r="H87" s="10"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="9"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="D85" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B86" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="9"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B87" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="9"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.5">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B89" s="20" t="s">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D89" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E90" s="20"/>
-      <c r="F90" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="G90" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="H90" s="20"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E91" s="20"/>
-      <c r="F91" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="G91" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="H91" s="20"/>
-      <c r="J91" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K91" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E92" s="20"/>
-      <c r="F92" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="G92" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="H92" s="20"/>
-    </row>
-    <row r="93" spans="2:13" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="B93" s="20"/>
       <c r="C93" s="20"/>
-      <c r="D93" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="G93" s="20" t="s">
-        <v>189</v>
-      </c>
+      <c r="D93" s="13"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="20"/>
       <c r="H93" s="20"/>
-      <c r="L93" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="M93" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
       <c r="D94" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" s="20"/>
+      <c r="F94" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="H94" s="20"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="20"/>
+      <c r="F95" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G95" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="J95" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K95" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E96" s="20"/>
+      <c r="F96" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="H96" s="20"/>
+    </row>
+    <row r="97" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E97" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G97" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="L97" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F94" s="13" t="s">
+      <c r="F98" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="G94" s="20" t="s">
+      <c r="G98" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="H94" s="20"/>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B95" s="2" t="s">
+      <c r="H98" s="20"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="9"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="D96" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B97" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="9"/>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B98" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="9"/>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.5">
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="9"/>
     </row>
-    <row r="100" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="G100" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="H100" s="20"/>
-    </row>
-    <row r="101" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B101" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D101" s="13"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20"/>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B102" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C102" s="20"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-    </row>
-    <row r="103" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E103" s="20"/>
-      <c r="F103" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="G103" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="H103" s="20"/>
-    </row>
-    <row r="104" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D100" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E100" s="8"/>
+      <c r="F100" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
       <c r="D104" s="13" t="s">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="E104" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="F104" s="13"/>
-      <c r="G104" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G104" s="20" t="s">
+        <v>216</v>
+      </c>
       <c r="H104" s="20"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B105" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C105" s="20"/>
+        <v>180</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="D105" s="13"/>
       <c r="E105" s="20"/>
       <c r="F105" s="13"/>
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
     </row>
-    <row r="106" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B106" s="20" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="C106" s="20"/>
       <c r="D106" s="13"/>
@@ -3005,265 +3055,395 @@
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
-      <c r="D107" s="13"/>
+      <c r="D107" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="E107" s="20"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="20"/>
+      <c r="F107" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G107" s="20" t="s">
+        <v>224</v>
+      </c>
       <c r="H107" s="20"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
-      <c r="D108" s="13"/>
+      <c r="D108" s="13" t="s">
+        <v>214</v>
+      </c>
       <c r="E108" s="20" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="F108" s="13"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B109" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="C110" s="9"/>
-      <c r="D110" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="N110" s="8"/>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B111" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C111" s="8"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="C112" s="8"/>
-      <c r="D112" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="N112" s="8"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B114" s="2" t="s">
-        <v>54</v>
-      </c>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B109" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="20"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+    </row>
+    <row r="110" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B110" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C110" s="20"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D112" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112" t="s">
+        <v>290</v>
+      </c>
+      <c r="G112" t="s">
+        <v>291</v>
+      </c>
+      <c r="H112"/>
+      <c r="J112" s="6"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+    </row>
+    <row r="113" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="D113" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F113" t="s">
+        <v>116</v>
+      </c>
+      <c r="G113" t="s">
+        <v>292</v>
+      </c>
+      <c r="H113" t="s">
+        <v>293</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="J113" s="6"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C114" s="8"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D116" s="8" t="s">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C116" s="8"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C117" s="8"/>
+      <c r="D117" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C120" s="9"/>
+      <c r="D120" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="N120" s="8"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+    </row>
+    <row r="122" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C122" s="8"/>
+      <c r="D122" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="N122" s="8"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D125" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E125" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="F125" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B117" s="2" t="s">
+      <c r="G125" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B126" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C126" s="20"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="9"/>
-    </row>
-    <row r="118" spans="1:14" s="22" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A118" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F118" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="M118" s="24"/>
-      <c r="N118" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B119" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F119" s="23"/>
-      <c r="M119" s="24"/>
-    </row>
-    <row r="120" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="F120" s="23"/>
-      <c r="M120" s="24"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="9"/>
-    </row>
-    <row r="122" spans="1:14" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A122" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="9"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B124" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="9"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="9"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="9"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="9"/>
-    </row>
-    <row r="129" spans="1:13" s="25" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A129" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D129" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F129" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G129" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="M129" s="26"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="9"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:17" s="22" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A128" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="M128" s="24"/>
+      <c r="N128" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F129" s="23"/>
+      <c r="M129" s="24"/>
+    </row>
+    <row r="130" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F130" s="23"/>
+      <c r="M130" s="24"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="9"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="9"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B134" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="9"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="9"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="9"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="9"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="9"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="9"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:13" s="25" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D139" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F139" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G139" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="M139" s="26"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="9"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="9"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="9"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="9"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="9"/>
+    </row>
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="9"/>
+    </row>
+    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="9"/>
+    </row>
+    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="9"/>
+    </row>
+    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="9"/>
+    </row>
+    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -3280,13 +3460,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:E237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="A12" sqref="A12:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -3294,7 +3474,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3307,8 +3487,11 @@
       <c r="D1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="E1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3319,7 +3502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -3330,7 +3513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>86</v>
       </c>
@@ -3341,7 +3524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>86</v>
       </c>
@@ -3352,11 +3535,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -3367,7 +3550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -3378,15 +3561,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -3397,7 +3580,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -3408,10 +3591,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>81</v>
       </c>
@@ -3425,7 +3608,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>81</v>
       </c>
@@ -3439,7 +3622,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>81</v>
       </c>
@@ -3453,7 +3636,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>81</v>
       </c>
@@ -3467,7 +3650,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
@@ -3481,7 +3664,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -3495,14 +3678,14 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
@@ -3513,7 +3696,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
@@ -3524,7 +3707,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>91</v>
       </c>
@@ -3535,15 +3718,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
@@ -3554,7 +3737,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>95</v>
       </c>
@@ -3565,7 +3748,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>100</v>
       </c>
@@ -3576,17 +3759,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -3597,7 +3780,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>113</v>
       </c>
@@ -3608,7 +3791,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
@@ -3619,14 +3802,14 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>123</v>
       </c>
@@ -3637,7 +3820,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>123</v>
       </c>
@@ -3648,7 +3831,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>123</v>
       </c>
@@ -3659,7 +3842,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>123</v>
       </c>
@@ -3670,15 +3853,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>178</v>
       </c>
@@ -3689,7 +3872,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>178</v>
       </c>
@@ -3700,7 +3883,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>178</v>
       </c>
@@ -3711,10 +3894,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
@@ -3725,7 +3908,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>148</v>
       </c>
@@ -3736,7 +3919,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>148</v>
       </c>
@@ -3747,13 +3930,13 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>159</v>
       </c>
@@ -3764,7 +3947,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>159</v>
       </c>
@@ -3775,7 +3958,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>159</v>
       </c>
@@ -3786,13 +3969,13 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>193</v>
       </c>
@@ -3803,7 +3986,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>193</v>
       </c>
@@ -3814,13 +3997,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>203</v>
       </c>
@@ -3831,7 +4014,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>203</v>
       </c>
@@ -3842,381 +4025,381 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
@@ -4234,14 +4417,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C574FB-861C-4A83-BA50-230986D05032}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -4255,7 +4438,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>43</v>
       </c>
@@ -4290,7 +4473,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -4307,16 +4490,16 @@
         <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>213</v>
       </c>
@@ -4333,13 +4516,27 @@
         <v>218</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="J4" t="s">
+        <v>288</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4357,14 +4554,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>56</v>
       </c>
@@ -4378,7 +4575,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4392,7 +4589,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -4413,19 +4610,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4433,36 +4630,68 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" t="s">
         <v>260</v>
       </c>
-      <c r="B2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" t="s">
-        <v>282</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4475,17 +4704,17 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4493,67 +4722,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>10</v>
       </c>
@@ -4561,7 +4790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>10</v>
       </c>
@@ -4569,7 +4798,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>4</v>
       </c>
@@ -4577,7 +4806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>10</v>
       </c>
@@ -4585,7 +4814,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>64</v>
       </c>
@@ -4593,7 +4822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>5</v>
       </c>
@@ -4601,7 +4830,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>5</v>
       </c>
@@ -4609,7 +4838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>10</v>
       </c>
@@ -4617,7 +4846,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>94</v>
       </c>
@@ -4625,47 +4854,47 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>10</v>
       </c>
@@ -4673,31 +4902,31 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>62</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>62</v>
       </c>
@@ -4705,15 +4934,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>59</v>
       </c>
@@ -4721,7 +4950,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>59</v>
       </c>
@@ -4729,31 +4958,31 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>62</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>62</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>62</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="27" t="s">
         <v>10</v>
       </c>
@@ -4761,7 +4990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>94</v>
       </c>
@@ -4769,7 +4998,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
         <v>94</v>
       </c>
@@ -4777,7 +5006,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>10</v>
       </c>
@@ -4785,7 +5014,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>59</v>
       </c>
@@ -4793,7 +5022,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>59</v>
       </c>
@@ -4801,7 +5030,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>5</v>
       </c>
@@ -4809,7 +5038,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>59</v>
       </c>
@@ -4817,7 +5046,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>5</v>
       </c>
@@ -4825,7 +5054,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>59</v>
       </c>
@@ -4833,7 +5062,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>5</v>
       </c>
@@ -4841,7 +5070,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>59</v>
       </c>
@@ -4849,7 +5078,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>59</v>
       </c>
@@ -4857,7 +5086,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>4</v>
       </c>
@@ -4865,23 +5094,23 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>10</v>
       </c>
@@ -4889,7 +5118,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>10</v>
       </c>
@@ -4897,7 +5126,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>10</v>
       </c>
@@ -4905,7 +5134,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>10</v>
       </c>
@@ -4913,7 +5142,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>10</v>
       </c>
@@ -4921,7 +5150,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>10</v>
       </c>
@@ -4929,7 +5158,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>10</v>
       </c>
@@ -4937,7 +5166,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>10</v>
       </c>
@@ -4945,7 +5174,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>10</v>
       </c>
@@ -4953,7 +5182,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>4</v>
       </c>
@@ -4961,7 +5190,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>10</v>
       </c>
@@ -4969,7 +5198,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>62</v>
       </c>
@@ -4977,7 +5206,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
         <v>62</v>
       </c>
@@ -4985,7 +5214,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
         <v>64</v>
       </c>
@@ -4993,7 +5222,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
         <v>187</v>
       </c>
@@ -5001,7 +5230,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
         <v>10</v>
       </c>
@@ -5009,7 +5238,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
         <v>10</v>
       </c>
@@ -5017,7 +5246,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>187</v>
       </c>
@@ -5025,7 +5254,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
         <v>62</v>
       </c>
@@ -5033,7 +5262,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
         <v>64</v>
       </c>
@@ -5041,7 +5270,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
         <v>187</v>
       </c>
@@ -5049,7 +5278,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>10</v>
       </c>
@@ -5057,7 +5286,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
         <v>10</v>
       </c>
@@ -5065,7 +5294,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
         <v>187</v>
       </c>
@@ -5073,7 +5302,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>10</v>
       </c>
@@ -5081,7 +5310,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
         <v>62</v>
       </c>
@@ -5089,7 +5318,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
         <v>10</v>
       </c>
@@ -5097,7 +5326,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
         <v>10</v>
       </c>
@@ -5105,7 +5334,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
         <v>4</v>
       </c>
@@ -5113,7 +5342,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
         <v>62</v>
       </c>

--- a/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
+++ b/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\inclusao\forms\inclusao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149C009B-22C4-4902-B610-41057135D607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD60FB9E-0618-4CD2-9164-F0E846D84720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="304">
   <si>
     <t>type</t>
   </si>
@@ -195,9 +195,6 @@
     <t>if</t>
   </si>
   <si>
-    <t>else</t>
-  </si>
-  <si>
     <t>begin screen</t>
   </si>
   <si>
@@ -303,9 +300,6 @@
     <t>DOB_ou_idade</t>
   </si>
   <si>
-    <t>data('DOB_ou_idade')=='1'</t>
-  </si>
-  <si>
     <t>cabezado</t>
   </si>
   <si>
@@ -348,30 +342,9 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Agradeça os pais ou encarregados da criança, e exlpica com a base em algumas respostas dadas ou resultados dos analises e/ou exame fisico medico a criança não reune as condições para participar no estudo.</t>
-  </si>
-  <si>
-    <t>goto ending</t>
-  </si>
-  <si>
-    <t>ending</t>
-  </si>
-  <si>
     <t>survey_complete</t>
   </si>
   <si>
-    <t>A exibição agora está completa, por favor, vá para a próxima página para finalizar suas respostas.</t>
-  </si>
-  <si>
-    <t>recusa</t>
-  </si>
-  <si>
-    <t>Eu entendo que você não quer participar deste estudo. Você poderia me dizer porque você não gostaria de participar?</t>
-  </si>
-  <si>
-    <t>data('TDR')=='2'</t>
-  </si>
-  <si>
     <t>Febre causada por outra doença</t>
   </si>
   <si>
@@ -802,9 +775,6 @@
   </si>
   <si>
     <t>O nome da criança é {{data.nome}}</t>
-  </si>
-  <si>
-    <t>Tem {{data.ano}} anos e {{data.mes}} meses</t>
   </si>
   <si>
     <r>
@@ -881,9 +851,6 @@
     <t>nota_lab_dn</t>
   </si>
   <si>
-    <t>nota_lab_ano</t>
-  </si>
-  <si>
     <t>date_rastreio_display</t>
   </si>
   <si>
@@ -897,19 +864,10 @@
     <t>dn_display</t>
   </si>
   <si>
-    <t>Data de Nascimento: {{calculates.dn_display}}</t>
-  </si>
-  <si>
     <t>acompanhante_info</t>
   </si>
   <si>
     <t>calculates.acompanhante_info()</t>
-  </si>
-  <si>
-    <t>{{calculates.date_rastreio_display}}  DOB: {{calculates.dn_display}}</t>
-  </si>
-  <si>
-    <t>{{calculates.date_rastreio_display}}  Idade: {{data.ano}} A e {{data.mes}} M</t>
   </si>
   <si>
     <t>(data('tel_mae')==88) || sc.isGbPhone(data('tel_mae'))</t>
@@ -964,9 +922,6 @@
     <t>""+ data('id_estudo') + "X" + calculates.visita_id()</t>
   </si>
   <si>
-    <t>Código de lâmina de verificação: {{calculates.id_lamina}}</t>
-  </si>
-  <si>
     <t>nota_id_lamina</t>
   </si>
   <si>
@@ -979,16 +934,58 @@
     <t>!calculates.acompanhante_info() ||(data('tel_acomp')==88) ||sc.isGbPhone(data('tel_acomp'))</t>
   </si>
   <si>
-    <t>(data('tel_mae')=='88' &amp;&amp; data('tel_pai') == '88') &amp;&amp; data('tel_acomp') == '88'</t>
-  </si>
-  <si>
     <t>calculates.nao_tel()</t>
   </si>
   <si>
-    <t>Por favor introduza pelo menos um numero de contacto para facilitar sua localizacao durante o seguimento</t>
-  </si>
-  <si>
     <t>se nao souber 88</t>
+  </si>
+  <si>
+    <t>Por favor introduza pelo menos um numero de contacto para facilitar a localizacão da criança durante o seguimento</t>
+  </si>
+  <si>
+    <t>dn_idade_display</t>
+  </si>
+  <si>
+    <t>data('DOB_ou_idade')=='1' ? ("Data de nascimento é " + calculates.dn_display() ) : ("Tem " +data('ano')+" anos e " + data('mes') + " meses")</t>
+  </si>
+  <si>
+    <t>data('DOB_ou_idade')=='1' ? ("DOB " + calculates.dn_display() ) : ("Tem " +data('ano')+" A e " + data('mes') + " M")</t>
+  </si>
+  <si>
+    <t>{{calculates.date_rastreio_display}} | {{calculates.dn_idade_display}}</t>
+  </si>
+  <si>
+    <t>coment_inclusao</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Código: {{calculates.id_lamina}}</t>
+  </si>
+  <si>
+    <t>!adate.hasUncertainty(data('date_AQ'))</t>
+  </si>
+  <si>
+    <t>!adate.hasUncertainty(data('date_SP'))</t>
+  </si>
+  <si>
+    <t>nao_tel_acomp</t>
+  </si>
+  <si>
+    <t>!data('tel_acomp') ||data('tel_acomp') == '88'</t>
+  </si>
+  <si>
+    <t>data('tel_mae')=='88' &amp;&amp; data('tel_pai') == '88' &amp;&amp; calculates.nao_tel_acomp()</t>
+  </si>
+  <si>
+    <t>calculates</t>
+  </si>
+  <si>
+    <t>dn_idade_display_longo</t>
+  </si>
+  <si>
+    <t>{{calculates.dn_idade_display_longo}}</t>
   </si>
 </sst>
 </file>
@@ -1085,24 +1082,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1175,7 +1160,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1228,42 +1213,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1714,7 +1685,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,7 +1701,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1738,15 +1709,15 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1762,13 +1733,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y150"/>
+  <dimension ref="A1:Y132"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E92" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1794,7 +1765,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -1821,10 +1792,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1885,7 +1856,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="9"/>
@@ -1894,19 +1865,19 @@
     <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="2"/>
@@ -1914,7 +1885,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="8"/>
       <c r="E6" s="9"/>
@@ -1923,14 +1894,14 @@
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1947,170 +1918,152 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>87</v>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="C12" s="8"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
       <c r="D20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N20" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="F21" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>269</v>
+        <v>115</v>
+      </c>
+      <c r="N21" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C22" s="8"/>
-      <c r="D22" s="9" t="s">
-        <v>94</v>
+      <c r="B22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
       <c r="D23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>123</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N23" s="2" t="b">
-        <v>1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>226</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C24" s="8"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
-      <c r="D25" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="C26" s="8"/>
       <c r="E26" s="9"/>
@@ -2123,7 +2076,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="8"/>
       <c r="E28" s="9"/>
@@ -2131,28 +2084,50 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C29" s="8"/>
+      <c r="D29" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="F29" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C30" s="8"/>
+      <c r="D30" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -2162,301 +2137,294 @@
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C33" s="8"/>
-      <c r="D33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C34" s="8"/>
       <c r="D34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="8"/>
+      <c r="D35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="9"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C36" s="8"/>
-      <c r="D36" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="8"/>
-      <c r="D37" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>268</v>
-      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" s="8"/>
-      <c r="E38" s="10"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="9"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C39" s="9"/>
-      <c r="E39" s="10"/>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E39" s="20"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>53</v>
-      </c>
+    <row r="40" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="21"/>
+      <c r="D40" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>302</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C41" s="8"/>
       <c r="E41" s="20"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C42" s="8"/>
-      <c r="D42" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>303</v>
-      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C43" s="8"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C44" s="8"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
       <c r="D45" s="9" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C47" s="8"/>
-      <c r="D47" s="9" t="s">
-        <v>4</v>
-      </c>
       <c r="E47" s="10"/>
-      <c r="F47" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="8"/>
-      <c r="E48" s="10"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49"/>
       <c r="C49" s="8"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="9"/>
+      <c r="D49" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+      <c r="A50"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54"/>
+      <c r="D54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
+      <c r="D55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D56" s="9" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D58" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D57" s="9" t="s">
+      <c r="E58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D59" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>52</v>
+      <c r="E59" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2464,245 +2432,239 @@
         <v>10</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F60" s="8" t="s">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D63" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="8"/>
+      <c r="D64" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G60" s="2" t="s">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C67" s="9"/>
+      <c r="D67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D61" s="9" t="s">
+      <c r="G67" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C68" s="8"/>
+      <c r="D68" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D62" s="9" t="s">
+      <c r="E68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B71" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72"/>
+      <c r="B72" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D65" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C66" s="8"/>
-      <c r="D66" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="9"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="D69" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="10" t="s">
+      <c r="E73" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F69" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C70" s="8"/>
-      <c r="D70" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="13" t="s">
+      <c r="F73" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G73" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B74" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B73" s="10" t="s">
+      <c r="C74" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="M73" s="5"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74"/>
-      <c r="B74" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B75" s="10"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="C75" s="10"/>
-      <c r="D75" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>255</v>
-      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B76" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="B77" s="10"/>
       <c r="C77" s="10"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="10"/>
+      <c r="D77" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="F77" s="13"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="10"/>
+      <c r="B78" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="C78" s="10"/>
-      <c r="D78" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="D78" s="12"/>
       <c r="E78" s="10"/>
-      <c r="F78" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>183</v>
-      </c>
+      <c r="F78" s="13"/>
+      <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="10"/>
+    <row r="79" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B79" s="10" t="s">
+        <v>175</v>
+      </c>
       <c r="C79" s="10"/>
-      <c r="D79" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>179</v>
-      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="10"/>
       <c r="F79" s="13"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="12"/>
@@ -2711,382 +2673,386 @@
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B81" s="10" t="s">
-        <v>184</v>
-      </c>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="10"/>
       <c r="C81" s="10"/>
-      <c r="D81" s="12"/>
+      <c r="D81" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="E81" s="10"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="10"/>
+      <c r="F81" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="10" t="s">
-        <v>52</v>
-      </c>
+    <row r="82" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B82" s="10"/>
       <c r="C82" s="10"/>
-      <c r="D82" s="12"/>
+      <c r="D82" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="E82" s="10"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="10"/>
+      <c r="F82" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="H82" s="10"/>
+      <c r="J82" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K82" s="2">
+        <v>2020</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="12" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="13" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E84" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>184</v>
+      </c>
       <c r="F84" s="13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H84" s="10"/>
-      <c r="J84" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K84" s="2">
-        <v>2020</v>
+      <c r="L84" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E85" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="F85" s="13" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="H86" s="10"/>
-      <c r="L86" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="M86" s="6" t="s">
-        <v>265</v>
-      </c>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="9"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="H87" s="10"/>
+      <c r="D87" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="9"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D89" s="8" t="s">
-        <v>187</v>
-      </c>
+      <c r="B89" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D89" s="8"/>
       <c r="E89" s="8"/>
-      <c r="F89" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>192</v>
-      </c>
+      <c r="F89" s="9"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="9"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="9"/>
+      <c r="B91" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="20"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="9"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E92" s="20"/>
+      <c r="F92" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="H92" s="20"/>
+    </row>
+    <row r="93" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B93" s="20"/>
       <c r="C93" s="20"/>
-      <c r="D93" s="13"/>
+      <c r="D93" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="E93" s="20"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="20"/>
+      <c r="F93" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>177</v>
+      </c>
       <c r="H93" s="20"/>
+      <c r="J93" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K93" s="2">
+        <v>2020</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
       <c r="D94" s="13" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="13" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="H94" s="20"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
       <c r="D95" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E95" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="F95" s="13" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H95" s="20"/>
-      <c r="J95" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K95" s="2">
-        <v>2020</v>
+      <c r="L95" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
       <c r="D96" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="E96" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="F96" s="13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H96" s="20"/>
     </row>
-    <row r="97" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="G97" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="H97" s="20"/>
-      <c r="L97" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="M97" s="6" t="s">
-        <v>265</v>
-      </c>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="9"/>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="G98" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="H98" s="20"/>
+      <c r="D98" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="9"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D100" s="8" t="s">
-        <v>187</v>
-      </c>
+      <c r="B100" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D100" s="8"/>
       <c r="E100" s="8"/>
-      <c r="F100" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>209</v>
-      </c>
+      <c r="F100" s="9"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="9"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B102" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="9"/>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="9"/>
-    </row>
-    <row r="104" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B104" s="20"/>
+    <row r="102" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G102" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="H102" s="20"/>
+    </row>
+    <row r="103" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B103" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B104" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C104" s="20"/>
-      <c r="D104" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="G104" s="20" t="s">
-        <v>216</v>
-      </c>
+      <c r="D104" s="13"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="20"/>
       <c r="H104" s="20"/>
     </row>
     <row r="105" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B105" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D105" s="13"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="E105" s="20"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="20"/>
+      <c r="F105" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G105" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="H105" s="20"/>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B106" s="20" t="s">
-        <v>52</v>
-      </c>
+    <row r="106" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B106" s="20"/>
       <c r="C106" s="20"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="20"/>
+      <c r="D106" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>204</v>
+      </c>
       <c r="F106" s="13"/>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
     </row>
-    <row r="107" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B107" s="20"/>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B107" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C107" s="20"/>
-      <c r="D107" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="D107" s="13"/>
       <c r="E107" s="20"/>
-      <c r="F107" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="G107" s="20" t="s">
-        <v>224</v>
-      </c>
+      <c r="F107" s="13"/>
+      <c r="G107" s="20"/>
       <c r="H107" s="20"/>
     </row>
     <row r="108" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B108" s="20"/>
+      <c r="B108" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="C108" s="20"/>
-      <c r="D108" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E108" s="20" t="s">
-        <v>213</v>
-      </c>
+      <c r="D108" s="13"/>
+      <c r="E108" s="20"/>
       <c r="F108" s="13"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
     </row>
     <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B109" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="B109" s="20"/>
       <c r="C109" s="20"/>
       <c r="D109" s="13"/>
       <c r="E109" s="20"/>
@@ -3094,356 +3060,200 @@
       <c r="G109" s="20"/>
       <c r="H109" s="20"/>
     </row>
-    <row r="110" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B110" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C110" s="20"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20"/>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D110" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110" t="s">
+        <v>276</v>
+      </c>
+      <c r="G110" t="s">
+        <v>277</v>
+      </c>
+      <c r="H110"/>
+      <c r="J110" s="6"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+    </row>
+    <row r="111" spans="2:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="D111" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F111" t="s">
+        <v>107</v>
+      </c>
+      <c r="G111" t="s">
+        <v>278</v>
+      </c>
+      <c r="H111" t="s">
+        <v>279</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J111" s="6"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D112" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E112"/>
-      <c r="F112" t="s">
-        <v>290</v>
-      </c>
-      <c r="G112" t="s">
-        <v>291</v>
-      </c>
-      <c r="H112"/>
-      <c r="J112" s="6"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O112"/>
-      <c r="P112"/>
-      <c r="Q112"/>
-    </row>
-    <row r="113" spans="1:17" ht="63" x14ac:dyDescent="0.25">
-      <c r="D113" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F113" t="s">
-        <v>116</v>
-      </c>
-      <c r="G113" t="s">
-        <v>292</v>
-      </c>
-      <c r="H113" t="s">
-        <v>293</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="J113" s="6"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O113"/>
-      <c r="P113"/>
-      <c r="Q113"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C112" s="8"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C114" s="8"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="2" t="s">
-        <v>52</v>
-      </c>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C115" s="8"/>
+      <c r="D115" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C116" s="8"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C117" s="8"/>
+      <c r="F115" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C117" s="9"/>
       <c r="D117" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B118" s="20"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="20"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B119" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C120" s="9"/>
-      <c r="D120" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="N120" s="8"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B121" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C121" s="8"/>
-      <c r="E121" s="9"/>
+        <v>261</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="N117" s="8"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D119" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" s="20"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C122" s="8"/>
-      <c r="D122" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E122" s="9"/>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D122" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" s="8"/>
       <c r="F122" s="9" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="N122" s="8"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B124" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C124" s="8"/>
-      <c r="E124" s="9"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="9"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
       <c r="F124" s="9"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D125" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B126" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C126" s="20"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B127" s="2" t="s">
-        <v>103</v>
-      </c>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="9"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="9"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="1:17" s="22" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A128" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D128" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F128" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="G128" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="M128" s="24"/>
-      <c r="N128" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F129" s="23"/>
-      <c r="M129" s="24"/>
-    </row>
-    <row r="130" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F130" s="23"/>
-      <c r="M130" s="24"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="9"/>
+    </row>
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="9"/>
+    </row>
+    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="9"/>
+    </row>
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="9"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B134" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="9"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="9"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="9"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="9"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="9"/>
-    </row>
-    <row r="139" spans="1:13" s="25" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D139" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F139" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G139" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="M139" s="26"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="9"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="9"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="9"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="9"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="9"/>
-    </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="9"/>
-    </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="9"/>
-    </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="9"/>
-    </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="9"/>
-    </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="9"/>
-    </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="9"/>
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -3488,7 +3298,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3515,7 +3325,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -3526,7 +3336,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -3574,10 +3384,10 @@
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3585,10 +3395,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3596,86 +3406,86 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
         <v>73</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3687,35 +3497,35 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3728,35 +3538,35 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3771,35 +3581,35 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3811,46 +3621,46 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B41" s="2">
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B42" s="2">
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B43" s="2">
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3863,7 +3673,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -3874,24 +3684,24 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B47" s="2">
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B48" s="2">
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3899,7 +3709,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -3910,24 +3720,24 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B52" s="2">
         <v>3</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3938,35 +3748,35 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B56" s="2">
         <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B57" s="2">
         <v>3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3977,24 +3787,24 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B61" s="2">
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4005,24 +3815,24 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B65" s="2">
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4446,25 +4256,25 @@
         <v>42</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>72</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>41</v>
@@ -4475,68 +4285,68 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="J4" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4563,44 +4373,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4610,10 +4420,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4632,66 +4442,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4702,10 +4536,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4724,42 +4558,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4767,587 +4601,659 @@
       <c r="B7" s="15"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>232</v>
+      <c r="A9" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>115</v>
+      <c r="B10" s="27" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>81</v>
+      <c r="B12" s="29" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="B32" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="B43" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="B52" s="26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="B53" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="B54" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="B55" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B56" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="32" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="31" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="B74" s="31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>105</v>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B93" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
+++ b/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\inclusao\forms\inclusao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD60FB9E-0618-4CD2-9164-F0E846D84720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE33E20-B56F-4218-8EED-159FC608A408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="304">
   <si>
     <t>type</t>
   </si>
@@ -876,12 +876,6 @@
     <t>adate.display(data('date_rastreio'))</t>
   </si>
   <si>
-    <t>label_codigo</t>
-  </si>
-  <si>
-    <t>data('cs')=='bafata'?'BA':data('cs')=='bambadinca'?'KN':data('cs')=='cosse'?'CS':data('cs')=='gabu'?'GU':data('cs')=='mafanco'?'MF':data('cs')=='pitche'?'PT':''</t>
-  </si>
-  <si>
     <t>codigos_csv</t>
   </si>
   <si>
@@ -949,9 +943,6 @@
     <t>data('DOB_ou_idade')=='1' ? ("Data de nascimento é " + calculates.dn_display() ) : ("Tem " +data('ano')+" anos e " + data('mes') + " meses")</t>
   </si>
   <si>
-    <t>data('DOB_ou_idade')=='1' ? ("DOB " + calculates.dn_display() ) : ("Tem " +data('ano')+" A e " + data('mes') + " M")</t>
-  </si>
-  <si>
     <t>{{calculates.date_rastreio_display}} | {{calculates.dn_idade_display}}</t>
   </si>
   <si>
@@ -979,13 +970,22 @@
     <t>data('tel_mae')=='88' &amp;&amp; data('tel_pai') == '88' &amp;&amp; calculates.nao_tel_acomp()</t>
   </si>
   <si>
-    <t>calculates</t>
-  </si>
-  <si>
     <t>dn_idade_display_longo</t>
   </si>
   <si>
     <t>{{calculates.dn_idade_display_longo}}</t>
+  </si>
+  <si>
+    <t>id_visita</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>codigo_lamina</t>
+  </si>
+  <si>
+    <t>data('DOB_ou_idade')=='1' ? ("DOB " + calculates.dn_display() ) : (data('ano')+" A e " + data('mes') + " M")</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1160,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1234,7 +1234,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1733,13 +1732,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y132"/>
+  <dimension ref="A1:Y134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1876,503 +1875,505 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="P5" t="s">
+        <v>248</v>
+      </c>
+      <c r="W5" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>244</v>
-      </c>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
+      <c r="D8" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="8"/>
-      <c r="D18" s="9" t="s">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+      <c r="D19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="N18" s="2" t="b">
+      <c r="N19" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
     <row r="20" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="8"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+      <c r="D21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M21" s="6" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="2" t="b">
+      <c r="N22" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C23" s="8"/>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+      <c r="D24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+    <row r="25" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C26" s="8"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C27" s="8"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C28" s="8"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="8"/>
       <c r="D30" s="9" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C33" s="8"/>
+      <c r="D33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M32" s="6" t="s">
+      <c r="I33" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C34" s="8"/>
-      <c r="D34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E34" s="10"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+      <c r="D36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="L35" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="M35" s="6" t="s">
+      <c r="L36" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="M36" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C37" s="9"/>
+      <c r="C37" s="8"/>
       <c r="E37" s="10"/>
       <c r="F37" s="9"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="E38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C41" s="8"/>
+      <c r="D41" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C40" s="8"/>
-      <c r="D40" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C43" s="8"/>
-      <c r="D43" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="E43" s="10"/>
-      <c r="F43" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C44" s="8"/>
       <c r="D44" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="20"/>
+      <c r="E44" s="10"/>
       <c r="F44" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
       <c r="D45" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C46" s="8"/>
+      <c r="D46" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="9" t="s">
+      <c r="E46" s="10"/>
+      <c r="F46" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C47" s="8"/>
       <c r="E47" s="10"/>
       <c r="F47" s="9"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="8"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="E49" s="9"/>
-      <c r="F49" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>229</v>
-      </c>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="C50" s="8"/>
       <c r="D50" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F51" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-    </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D54" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2380,37 +2381,37 @@
         <v>10</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F56" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D58" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2421,10 +2422,10 @@
         <v>139</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2435,225 +2436,228 @@
         <v>139</v>
       </c>
       <c r="F60" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D61" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D63" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C64" s="8"/>
       <c r="D64" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C65" s="8"/>
+      <c r="D65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F65" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="9"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C66" s="8"/>
       <c r="E66" s="20"/>
       <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C67" s="9"/>
-      <c r="D67" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="B67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="9"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C68" s="8"/>
+      <c r="C68" s="9"/>
       <c r="D68" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="10" t="s">
         <v>47</v>
       </c>
       <c r="F68" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C69" s="8"/>
+      <c r="D69" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
+    <row r="70" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="12" t="s">
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="13" t="s">
+      <c r="E71" s="10"/>
+      <c r="F71" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G70" s="10" t="s">
+      <c r="G71" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B71" s="10" t="s">
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B72" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="M71" s="5"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72"/>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="10"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="M72" s="5"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73"/>
+      <c r="B73" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D72" s="2"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="10" t="s">
+      <c r="E74" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F74" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="G74" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B74" s="20" t="s">
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B75" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C75" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="10" t="s">
+      <c r="D75" s="13"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="10"/>
       <c r="C76" s="10"/>
-      <c r="D76" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="D76" s="12"/>
       <c r="E76" s="10"/>
-      <c r="F76" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>174</v>
-      </c>
+      <c r="F76" s="13"/>
+      <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E78" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="10"/>
       <c r="F78" s="13"/>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="12"/>
@@ -2662,9 +2666,9 @@
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="12"/>
@@ -2674,375 +2678,375 @@
       <c r="H80" s="10"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="10"/>
+      <c r="B81" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="C81" s="10"/>
-      <c r="D81" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="D81" s="12"/>
       <c r="E81" s="10"/>
-      <c r="F81" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>176</v>
-      </c>
+      <c r="F81" s="13"/>
+      <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="13" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H82" s="10"/>
-      <c r="J82" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K82" s="2">
-        <v>2020</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="12" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H83" s="10"/>
-    </row>
-    <row r="84" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J83" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K83" s="2">
+        <v>2020</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>184</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E84" s="10"/>
       <c r="F84" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H84" s="10"/>
-      <c r="L84" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="M84" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H85" s="10"/>
+      <c r="L85" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F85" s="13" t="s">
+      <c r="F86" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="G86" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="H85" s="10"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="9"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="9"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D88" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="9" t="s">
+      <c r="E88" s="8"/>
+      <c r="F88" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="9"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="9"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="9"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="20" t="s">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="9"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="20"/>
       <c r="C92" s="20"/>
-      <c r="D92" s="13" t="s">
-        <v>61</v>
-      </c>
+      <c r="D92" s="13"/>
       <c r="E92" s="20"/>
-      <c r="F92" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="G92" s="20" t="s">
-        <v>190</v>
-      </c>
+      <c r="F92" s="13"/>
+      <c r="G92" s="20"/>
       <c r="H92" s="20"/>
     </row>
-    <row r="93" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
       <c r="D93" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="13" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="H93" s="20"/>
-      <c r="J93" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K93" s="2">
-        <v>2020</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
       <c r="D94" s="13" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="13" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H94" s="20"/>
-    </row>
-    <row r="95" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J94" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K94" s="2">
+        <v>2020</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
       <c r="D95" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="20" t="s">
-        <v>194</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E95" s="20"/>
       <c r="F95" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H95" s="20"/>
-      <c r="L95" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="M95" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
       <c r="D96" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E96" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="L96" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F96" s="13" t="s">
+      <c r="F97" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="G96" s="20" t="s">
+      <c r="G97" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="H96" s="20"/>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B97" s="2" t="s">
+      <c r="H97" s="20"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="9"/>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="9"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D99" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="9" t="s">
+      <c r="E99" s="8"/>
+      <c r="F99" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B99" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="9"/>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="9"/>
     </row>
     <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="9"/>
     </row>
-    <row r="102" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="13" t="s">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="20" t="s">
+      <c r="E103" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F102" s="13" t="s">
+      <c r="F103" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="G102" s="20" t="s">
+      <c r="G103" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="H102" s="20"/>
-    </row>
-    <row r="103" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B103" s="20" t="s">
+      <c r="H103" s="20"/>
+    </row>
+    <row r="104" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B104" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="C104" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="D103" s="13"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B104" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C104" s="20"/>
       <c r="D104" s="13"/>
       <c r="E104" s="20"/>
       <c r="F104" s="13"/>
       <c r="G104" s="20"/>
       <c r="H104" s="20"/>
     </row>
-    <row r="105" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B105" s="20"/>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B105" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C105" s="20"/>
-      <c r="D105" s="13" t="s">
-        <v>61</v>
-      </c>
+      <c r="D105" s="13"/>
       <c r="E105" s="20"/>
-      <c r="F105" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="G105" s="20" t="s">
-        <v>215</v>
-      </c>
+      <c r="F105" s="13"/>
+      <c r="G105" s="20"/>
       <c r="H105" s="20"/>
     </row>
     <row r="106" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
       <c r="D106" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E106" s="20"/>
+      <c r="F106" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G106" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H106" s="20"/>
+    </row>
+    <row r="107" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="E106" s="20" t="s">
+      <c r="E107" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="F106" s="13"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B107" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107" s="20"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="20"/>
       <c r="F107" s="13"/>
       <c r="G107" s="20"/>
       <c r="H107" s="20"/>
     </row>
-    <row r="108" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B108" s="20" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="C108" s="20"/>
       <c r="D108" s="13"/>
@@ -3051,8 +3055,10 @@
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B109" s="20"/>
+    <row r="109" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B109" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="C109" s="20"/>
       <c r="D109" s="13"/>
       <c r="E109" s="20"/>
@@ -3061,45 +3067,26 @@
       <c r="H109" s="20"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D110" s="30" t="s">
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D111" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E110"/>
-      <c r="F110" t="s">
-        <v>276</v>
-      </c>
-      <c r="G110" t="s">
-        <v>277</v>
-      </c>
-      <c r="H110"/>
-      <c r="J110" s="6"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O110"/>
-      <c r="P110"/>
-      <c r="Q110"/>
-    </row>
-    <row r="111" spans="2:17" ht="63" x14ac:dyDescent="0.25">
-      <c r="D111" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="E111"/>
       <c r="F111" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
       <c r="G111" t="s">
-        <v>278</v>
-      </c>
-      <c r="H111" t="s">
-        <v>279</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>280</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="H111"/>
       <c r="J111" s="6"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2" t="b">
@@ -3109,128 +3096,161 @@
       <c r="P111"/>
       <c r="Q111"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C112" s="8"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>51</v>
-      </c>
+    <row r="112" spans="2:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="D112" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F112" t="s">
+        <v>107</v>
+      </c>
+      <c r="G112" t="s">
+        <v>276</v>
+      </c>
+      <c r="H112" t="s">
+        <v>277</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J112" s="6"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+    </row>
+    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C113" s="8"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C114" s="8"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C115" s="8"/>
-      <c r="D115" s="9" t="s">
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+    </row>
+    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C116" s="8"/>
+      <c r="D116" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C117" s="9"/>
-      <c r="D117" s="9" t="s">
+      <c r="E116" s="9"/>
+      <c r="F116" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20"/>
+    </row>
+    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C118" s="9"/>
+      <c r="D118" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9" t="s">
+      <c r="E118" s="9"/>
+      <c r="F118" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="G117" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="N117" s="8"/>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D119" s="8" t="s">
+      <c r="G118" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="N118" s="8"/>
+    </row>
+    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D120" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E120" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F119" s="9" t="s">
+      <c r="F120" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B120" s="20" t="s">
+    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B121" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C120" s="20"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="20"/>
-      <c r="H120" s="20"/>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="9"/>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C121" s="20"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
+    </row>
+    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D122" s="8" t="s">
-        <v>4</v>
+        <v>301</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="P122" t="s">
+        <v>279</v>
+      </c>
+      <c r="W122" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D124" s="8"/>
+    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D124" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E124" s="8"/>
-      <c r="F124" s="9"/>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F124" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="9"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="9"/>
@@ -3254,6 +3274,16 @@
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="9"/>
+    </row>
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="9"/>
+    </row>
+    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -4337,16 +4367,16 @@
     </row>
     <row r="4" spans="1:11" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="s">
+        <v>271</v>
+      </c>
+      <c r="J4" t="s">
         <v>272</v>
       </c>
-      <c r="B4" t="s">
+      <c r="K4" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="J4" t="s">
-        <v>274</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4420,10 +4450,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4482,50 +4512,42 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>108</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>284</v>
+      <c r="A10" t="s">
+        <v>287</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>302</v>
-      </c>
-      <c r="B12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4536,10 +4558,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5176,84 +5198,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
+      <c r="B85" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B93" t="s">
-        <v>289</v>
+      <c r="B86" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
+++ b/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\inclusao\forms\inclusao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE33E20-B56F-4218-8EED-159FC608A408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14A0611-18C7-4692-A92D-10DC1295FBFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="298">
   <si>
     <t>type</t>
   </si>
@@ -342,9 +342,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>survey_complete</t>
-  </si>
-  <si>
     <t>Febre causada por outra doença</t>
   </si>
   <si>
@@ -669,9 +666,6 @@
     <t>outros_medicamentos</t>
   </si>
   <si>
-    <t>id_estudo=?</t>
-  </si>
-  <si>
     <t>250mg/12,5mg Sulfadoxina-Pirimetamina</t>
   </si>
   <si>
@@ -699,12 +693,6 @@
     <t>!selected(data('acompanhante'), '1') &amp;&amp; !selected(data('acompanhante'), '2')</t>
   </si>
   <si>
-    <t>[data('id_estudo')]</t>
-  </si>
-  <si>
-    <t>{id_estudo: data('id_estudo')}</t>
-  </si>
-  <si>
     <t>Colheu-se amostra de sangue para a lâmina?</t>
   </si>
   <si>
@@ -720,9 +708,6 @@
     <t>nota_nome</t>
   </si>
   <si>
-    <t>nota_ano</t>
-  </si>
-  <si>
     <t>febre_history</t>
   </si>
   <si>
@@ -730,21 +715,6 @@
   </si>
   <si>
     <t>Temperatura Axilar é {{data.temperatura}}</t>
-  </si>
-  <si>
-    <t>nota_nomesexo</t>
-  </si>
-  <si>
-    <t>nota_anomes</t>
-  </si>
-  <si>
-    <t>nota_dob</t>
-  </si>
-  <si>
-    <t>nota_acompanhante</t>
-  </si>
-  <si>
-    <t>nota_cs</t>
   </si>
   <si>
     <t>TDR</t>
@@ -986,6 +956,18 @@
   </si>
   <si>
     <t>data('DOB_ou_idade')=='1' ? ("DOB " + calculates.dn_display() ) : (data('ano')+" A e " + data('mes') + " M")</t>
+  </si>
+  <si>
+    <t>rastreioID_completo</t>
+  </si>
+  <si>
+    <t>_id=?</t>
+  </si>
+  <si>
+    <t>[data('_id')]</t>
+  </si>
+  <si>
+    <t>{id_estudo: data('id_estudo'), inclusaoformID: data('_id')}</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1142,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1219,9 +1201,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1684,7 +1663,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1700,7 +1679,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,15 +1687,15 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1735,10 +1714,10 @@
   <dimension ref="A1:Y134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1791,10 +1770,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1871,20 +1850,20 @@
         <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="P5" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="W5" s="2" t="b">
         <v>1</v>
@@ -1913,10 +1892,10 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -1939,10 +1918,10 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="N12" s="8"/>
     </row>
@@ -1978,7 +1957,7 @@
         <v>24</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N19" s="2" t="b">
         <v>1</v>
@@ -1991,16 +1970,16 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="L20" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -2010,16 +1989,16 @@
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="L21" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -2028,13 +2007,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="N22" s="2" t="b">
         <v>1</v>
@@ -2042,10 +2021,10 @@
     </row>
     <row r="23" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -2057,15 +2036,15 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="8"/>
       <c r="E25" s="9"/>
@@ -2104,10 +2083,10 @@
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -2117,19 +2096,19 @@
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="I31" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -2139,10 +2118,10 @@
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
@@ -2152,19 +2131,19 @@
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -2172,7 +2151,7 @@
         <v>50</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="9"/>
@@ -2184,10 +2163,10 @@
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="78.75" x14ac:dyDescent="0.25">
@@ -2197,19 +2176,19 @@
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -2239,7 +2218,7 @@
         <v>50</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="9"/>
@@ -2251,10 +2230,10 @@
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -2280,10 +2259,10 @@
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -2293,10 +2272,10 @@
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -2306,10 +2285,10 @@
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -2341,10 +2320,10 @@
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2357,10 +2336,10 @@
         <v>47</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2381,13 +2360,13 @@
         <v>10</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F55" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2395,13 +2374,13 @@
         <v>10</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F56" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2419,13 +2398,13 @@
         <v>10</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F59" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2433,13 +2412,13 @@
         <v>10</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F60" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2447,13 +2426,13 @@
         <v>10</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2471,13 +2450,13 @@
         <v>10</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F64" s="8" t="s">
-        <v>151</v>
-      </c>
       <c r="G64" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -2486,13 +2465,13 @@
         <v>10</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F65" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -2520,10 +2499,10 @@
         <v>47</v>
       </c>
       <c r="F68" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -2535,18 +2514,18 @@
         <v>47</v>
       </c>
       <c r="F69" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -2559,16 +2538,16 @@
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G71" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="12"/>
@@ -2596,19 +2575,19 @@
         <v>47</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C75" s="20" t="s">
         <v>171</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>172</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="20"/>
@@ -2635,10 +2614,10 @@
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G77" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>174</v>
       </c>
       <c r="H77" s="10"/>
     </row>
@@ -2646,10 +2625,10 @@
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="10"/>
@@ -2668,7 +2647,7 @@
     </row>
     <row r="80" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="12"/>
@@ -2696,10 +2675,10 @@
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H82" s="10"/>
     </row>
@@ -2711,10 +2690,10 @@
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H83" s="10"/>
       <c r="J83" s="2">
@@ -2724,21 +2703,21 @@
         <v>2020</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H84" s="10"/>
     </row>
@@ -2749,20 +2728,20 @@
         <v>10</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H85" s="10"/>
       <c r="L85" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -2775,10 +2754,10 @@
         <v>47</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H86" s="10"/>
     </row>
@@ -2787,7 +2766,7 @@
         <v>50</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -2795,14 +2774,14 @@
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D88" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
@@ -2845,10 +2824,10 @@
       </c>
       <c r="E93" s="20"/>
       <c r="F93" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H93" s="20"/>
     </row>
@@ -2860,10 +2839,10 @@
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H94" s="20"/>
       <c r="J94" s="2">
@@ -2873,21 +2852,21 @@
         <v>2020</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
       <c r="D95" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H95" s="20"/>
     </row>
@@ -2898,20 +2877,20 @@
         <v>10</v>
       </c>
       <c r="E96" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F96" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="F96" s="13" t="s">
-        <v>195</v>
-      </c>
       <c r="G96" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H96" s="20"/>
       <c r="L96" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
@@ -2924,10 +2903,10 @@
         <v>47</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G97" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H97" s="20"/>
     </row>
@@ -2936,7 +2915,7 @@
         <v>50</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -2944,14 +2923,14 @@
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D99" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="2:17" x14ac:dyDescent="0.25">
@@ -2985,19 +2964,19 @@
         <v>47</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H103" s="20"/>
     </row>
     <row r="104" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B104" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="20"/>
@@ -3024,10 +3003,10 @@
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H106" s="20"/>
     </row>
@@ -3035,10 +3014,10 @@
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
       <c r="D107" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E107" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F107" s="13"/>
       <c r="G107" s="20"/>
@@ -3057,7 +3036,7 @@
     </row>
     <row r="109" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B109" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C109" s="20"/>
       <c r="D109" s="13"/>
@@ -3076,15 +3055,15 @@
       <c r="H110" s="20"/>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D111" s="30" t="s">
+      <c r="D111" s="29" t="s">
         <v>58</v>
       </c>
       <c r="E111"/>
       <c r="F111" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G111" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="H111"/>
       <c r="J111" s="6"/>
@@ -3097,23 +3076,23 @@
       <c r="Q111"/>
     </row>
     <row r="112" spans="2:17" ht="63" x14ac:dyDescent="0.25">
-      <c r="D112" s="30" t="s">
+      <c r="D112" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G112" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="H112" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="J112" s="6"/>
       <c r="M112" s="2"/>
@@ -3149,10 +3128,10 @@
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="117" spans="2:23" x14ac:dyDescent="0.25">
@@ -3171,10 +3150,10 @@
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="N118" s="8"/>
     </row>
@@ -3186,10 +3165,10 @@
         <v>47</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121" spans="2:23" x14ac:dyDescent="0.25">
@@ -3205,14 +3184,14 @@
     </row>
     <row r="122" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D122" s="8" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="9" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="P122" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="W122" s="2" t="b">
         <v>1</v>
@@ -3229,10 +3208,10 @@
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="2:23" x14ac:dyDescent="0.25">
@@ -3611,35 +3590,35 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3651,46 +3630,46 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="2">
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" s="2">
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" s="2">
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3703,7 +3682,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -3714,24 +3693,24 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B47" s="2">
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B48" s="2">
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3739,7 +3718,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -3750,24 +3729,24 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B52" s="2">
         <v>3</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3778,35 +3757,35 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B56" s="2">
         <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B57" s="2">
         <v>3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3817,24 +3796,24 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B61" s="2">
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3845,24 +3824,24 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B65" s="2">
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4259,9 +4238,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4315,68 +4294,68 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
         <v>204</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="C3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="J4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4452,8 +4431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4472,82 +4451,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4558,10 +4537,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:B86"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4578,640 +4557,540 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="B21" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="B25" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B26" s="24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="B28" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>241</v>
+      <c r="B29" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="B65" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>300</v>
+      <c r="B73" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
+++ b/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\inclusao\forms\inclusao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14A0611-18C7-4692-A92D-10DC1295FBFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B5ED06-E2D2-4E3C-AD25-8C64DBC5BD00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1875" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="120" windowWidth="12555" windowHeight="11880" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="302">
   <si>
     <t>type</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>outros_medicamentos</t>
+  </si>
+  <si>
+    <t>id_estudo=?</t>
   </si>
   <si>
     <t>250mg/12,5mg Sulfadoxina-Pirimetamina</t>
@@ -961,13 +964,22 @@
     <t>rastreioID_completo</t>
   </si>
   <si>
-    <t>_id=?</t>
-  </si>
-  <si>
-    <t>[data('_id')]</t>
-  </si>
-  <si>
-    <t>{id_estudo: data('id_estudo'), inclusaoformID: data('_id')}</t>
+    <t>{id_estudo: data('id_estudo'), inclusaoformID: opendatakit.getCurrentInstanceId()}</t>
+  </si>
+  <si>
+    <t>[ data('id_estudo') ]</t>
+  </si>
+  <si>
+    <t>data('sexo') == '1' ? 'M' : 'F'</t>
+  </si>
+  <si>
+    <t>sexo_display</t>
+  </si>
+  <si>
+    <t>nota_sexo</t>
+  </si>
+  <si>
+    <t>Sexo: {{calculates.sexo_display}}</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1691,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1692,7 +1704,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
         <v>106</v>
@@ -1713,11 +1725,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H81" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I117" sqref="I117"/>
+      <selection pane="bottomRight" activeCell="A119" sqref="A119:XFD119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1770,10 +1782,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1850,20 +1862,20 @@
         <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W5" s="2" t="b">
         <v>1</v>
@@ -1892,10 +1904,10 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -1918,10 +1930,10 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N12" s="8"/>
     </row>
@@ -1976,10 +1988,10 @@
         <v>110</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -1995,10 +2007,10 @@
         <v>112</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -2024,7 +2036,7 @@
         <v>115</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -2086,7 +2098,7 @@
         <v>123</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -2102,13 +2114,13 @@
         <v>125</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -2137,13 +2149,13 @@
         <v>125</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -2151,7 +2163,7 @@
         <v>50</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="9"/>
@@ -2166,7 +2178,7 @@
         <v>129</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="78.75" x14ac:dyDescent="0.25">
@@ -2182,13 +2194,13 @@
         <v>125</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -2218,7 +2230,7 @@
         <v>50</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="9"/>
@@ -2230,10 +2242,10 @@
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -2320,10 +2332,10 @@
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2336,7 +2348,7 @@
         <v>47</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>137</v>
@@ -2578,7 +2590,7 @@
         <v>169</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H74" s="10"/>
     </row>
@@ -2703,7 +2715,7 @@
         <v>2020</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
@@ -2738,10 +2750,10 @@
       </c>
       <c r="H85" s="10"/>
       <c r="L85" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -2852,7 +2864,7 @@
         <v>2020</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -2887,10 +2899,10 @@
       </c>
       <c r="H96" s="20"/>
       <c r="L96" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
@@ -3006,7 +3018,7 @@
         <v>207</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H106" s="20"/>
     </row>
@@ -3060,10 +3072,10 @@
       </c>
       <c r="E111"/>
       <c r="F111" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G111" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H111"/>
       <c r="J111" s="6"/>
@@ -3080,19 +3092,19 @@
         <v>10</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F112" t="s">
         <v>106</v>
       </c>
       <c r="G112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H112" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J112" s="6"/>
       <c r="M112" s="2"/>
@@ -3128,10 +3140,10 @@
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" spans="2:23" x14ac:dyDescent="0.25">
@@ -3150,12 +3162,23 @@
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N118" s="8"/>
+    </row>
+    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D119" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="120" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D120" s="8" t="s">
@@ -3168,7 +3191,7 @@
         <v>202</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="2:23" x14ac:dyDescent="0.25">
@@ -3184,14 +3207,14 @@
     </row>
     <row r="122" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D122" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P122" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="W122" s="2" t="b">
         <v>1</v>
@@ -3208,10 +3231,10 @@
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="125" spans="2:23" x14ac:dyDescent="0.25">
@@ -3802,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3813,7 +3836,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3830,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3841,7 +3864,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4238,9 +4261,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4306,13 +4329,13 @@
         <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="F2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>296</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>297</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>205</v>
@@ -4332,13 +4355,13 @@
         <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="F3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>296</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>297</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>205</v>
@@ -4346,16 +4369,16 @@
     </row>
     <row r="4" spans="1:11" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4429,10 +4452,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4451,42 +4474,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" t="s">
         <v>255</v>
-      </c>
-      <c r="B5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4494,39 +4517,47 @@
         <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4562,7 +4593,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4650,7 +4681,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4658,7 +4689,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4666,7 +4697,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4674,7 +4705,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4682,7 +4713,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4698,7 +4729,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4706,7 +4737,7 @@
         <v>61</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4714,7 +4745,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4730,7 +4761,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4858,7 +4889,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -5071,18 +5102,18 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -5090,7 +5121,7 @@
         <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
+++ b/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\inclusao\forms\inclusao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B5ED06-E2D2-4E3C-AD25-8C64DBC5BD00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B4678-7C85-4A33-AC46-62D9E7B0A5F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="120" windowWidth="12555" windowHeight="11880" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17596" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="303">
   <si>
     <t>type</t>
   </si>
@@ -369,12 +369,6 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>altura</t>
-  </si>
-  <si>
-    <t>Altura (cm)</t>
-  </si>
-  <si>
     <t>peso</t>
   </si>
   <si>
@@ -567,9 +561,6 @@
     <t>end if // medi_previo</t>
   </si>
   <si>
-    <t xml:space="preserve">sulfadoxina -pirimetamina </t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -609,9 +600,6 @@
     <t>dose_SP</t>
   </si>
   <si>
-    <t>Amodiaquina</t>
-  </si>
-  <si>
     <t>sp</t>
   </si>
   <si>
@@ -712,12 +700,6 @@
   </si>
   <si>
     <t>febre_history</t>
-  </si>
-  <si>
-    <t>nota_temperatura</t>
-  </si>
-  <si>
-    <t>Temperatura Axilar é {{data.temperatura}}</t>
   </si>
   <si>
     <t>TDR</t>
@@ -806,16 +788,10 @@
     <t>A dose selecionada nao corresponde com a do idade da crianca</t>
   </si>
   <si>
-    <t>data('altura')&lt;=160 &amp;&amp; data('altura')&gt;=20</t>
-  </si>
-  <si>
     <t>data('peso')&lt;=50 &amp;&amp; data('peso')&gt;=2</t>
   </si>
   <si>
     <t>O numero de Tel, nao é valido, ou nao é numero da Guine</t>
-  </si>
-  <si>
-    <t>Altura deve ser em centimetros (cm) por favor verifica se nao está em metros (m) ou outra unidade</t>
   </si>
   <si>
     <t>Peso deve ser em Quilogramos (Kg) por favor verifica se nao está em gramos (g) ou em outra unidade</t>
@@ -928,12 +904,6 @@
     <t>Código: {{calculates.id_lamina}}</t>
   </si>
   <si>
-    <t>!adate.hasUncertainty(data('date_AQ'))</t>
-  </si>
-  <si>
-    <t>!adate.hasUncertainty(data('date_SP'))</t>
-  </si>
-  <si>
     <t>nao_tel_acomp</t>
   </si>
   <si>
@@ -980,6 +950,41 @@
   </si>
   <si>
     <t>Sexo: {{calculates.sexo_display}}</t>
+  </si>
+  <si>
+    <t>Perimetro do Braço (mm)</t>
+  </si>
+  <si>
+    <t>MUAC</t>
+  </si>
+  <si>
+    <t>MUAC deve ser em centimetros (cm) por favor verifica se nao está em metros (m) ou outra unidade</t>
+  </si>
+  <si>
+    <t>intensidadeDK</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
+  </si>
+  <si>
+    <t>adate.today()</t>
+  </si>
+  <si>
+    <t>data_form</t>
+  </si>
+  <si>
+    <t>sulfadoxina -pirimetamina 
+Data: {{data.date_SP}}</t>
+  </si>
+  <si>
+    <t>hoje_display</t>
+  </si>
+  <si>
+    <t>adate.display(calculates.data_form())</t>
+  </si>
+  <si>
+    <t>Amodiaquina
+Data: {{calculates.hoje_display}}</t>
   </si>
 </sst>
 </file>
@@ -1652,14 +1657,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1670,7 +1675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1678,7 +1683,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1686,15 +1691,15 @@
         <v>2020061301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1702,9 +1707,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
         <v>106</v>
@@ -1723,16 +1728,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y134"/>
+  <dimension ref="A1:Y133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A119" sqref="A119:XFD119"/>
+      <selection pane="bottomRight" activeCell="A97" sqref="A97:XFD98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1753,7 +1758,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -1782,10 +1787,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1830,7 +1835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="7"/>
@@ -1844,7 +1849,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
@@ -1852,7 +1857,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
         <v>61</v>
@@ -1862,26 +1867,26 @@
         <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="P5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="W5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -1889,7 +1894,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
@@ -1897,67 +1902,67 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C15" s="8"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
         <v>10</v>
@@ -1975,99 +1980,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N22" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B23" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="B25" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C25" s="8"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C26" s="8"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2075,12 +2077,12 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C28" s="8"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
@@ -2088,122 +2090,122 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C30" s="8"/>
       <c r="D30" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B34" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" ht="78.75" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="78.75" x14ac:dyDescent="0.5">
       <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
@@ -2211,12 +2213,12 @@
       <c r="E37" s="10"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
@@ -2225,30 +2227,30 @@
       <c r="F39" s="9"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B40" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C41" s="8"/>
       <c r="D41" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="9" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2256,7 +2258,7 @@
       <c r="E42" s="20"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
@@ -2264,46 +2266,46 @@
       <c r="E43" s="10"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C44" s="8"/>
       <c r="D44" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C45" s="8"/>
       <c r="D45" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C46" s="8"/>
       <c r="D46" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B47" s="2" t="s">
         <v>52</v>
       </c>
@@ -2311,12 +2313,12 @@
       <c r="E47" s="10"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.5">
       <c r="C48" s="8"/>
       <c r="E48" s="10"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
@@ -2324,55 +2326,55 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A50"/>
       <c r="C50" s="8"/>
       <c r="D50" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="F50" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-      <c r="C51" s="8"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D51" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>223</v>
+      <c r="E51" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B54" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D55" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>139</v>
@@ -2381,12 +2383,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D56" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>141</v>
@@ -2395,22 +2397,22 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B57" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B58" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D59" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>143</v>
@@ -2419,247 +2421,271 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D60" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>138</v>
+        <v>295</v>
       </c>
       <c r="F60" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D61" s="9" t="s">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B61" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="B62" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="D63" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F61" s="8" t="s">
+      <c r="E63" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="C64" s="8"/>
       <c r="D64" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F64" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="G64" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="B65" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C65" s="8"/>
-      <c r="D65" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E65" s="20"/>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B66" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="8"/>
       <c r="E66" s="20"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="C67" s="9"/>
+      <c r="D67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="C68" s="8"/>
       <c r="D68" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C69" s="8"/>
-      <c r="D69" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="B69" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:17" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="B71" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A72"/>
+      <c r="B72" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="D73" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" t="s">
+        <v>257</v>
+      </c>
+      <c r="G73" t="s">
+        <v>258</v>
+      </c>
+      <c r="H73"/>
+      <c r="J73" s="6"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+    </row>
+    <row r="74" spans="1:17" ht="63" x14ac:dyDescent="0.5">
+      <c r="D74" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E74" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F74" t="s">
+        <v>106</v>
+      </c>
+      <c r="G74" t="s">
+        <v>259</v>
+      </c>
+      <c r="H74" t="s">
+        <v>260</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J74" s="6"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+    </row>
+    <row r="75" spans="1:17" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F69" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B72" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="M72" s="5"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73"/>
-      <c r="B73" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F74" s="13" t="s">
+      <c r="F75" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B76" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="G74" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B75" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
+      <c r="D76" s="13"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="B77" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="10"/>
       <c r="C77" s="10"/>
-      <c r="D77" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="D77" s="12"/>
       <c r="E77" s="10"/>
-      <c r="F77" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>173</v>
-      </c>
+      <c r="F77" s="13"/>
+      <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>171</v>
+      </c>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="10" t="s">
-        <v>52</v>
-      </c>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="B79" s="10"/>
       <c r="C79" s="10"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="10"/>
+      <c r="D79" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>167</v>
+      </c>
       <c r="F79" s="13"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B80" s="10" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="12"/>
@@ -2668,9 +2694,9 @@
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B81" s="10" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="12"/>
@@ -2679,34 +2705,28 @@
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="10"/>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B82" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="C82" s="10"/>
-      <c r="D82" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="D82" s="12"/>
       <c r="E82" s="10"/>
-      <c r="F82" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>175</v>
-      </c>
+      <c r="F82" s="13"/>
+      <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
-      <c r="D83" s="12" t="s">
-        <v>63</v>
+      <c r="D83" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>176</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="J83" s="2">
         <v>2020</v>
@@ -2714,147 +2734,150 @@
       <c r="K83" s="2">
         <v>2020</v>
       </c>
-      <c r="L83" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P83" t="s">
+        <v>297</v>
+      </c>
+      <c r="W83" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="12" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>178</v>
+        <v>299</v>
       </c>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>183</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E85" s="10"/>
       <c r="F85" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H85" s="10"/>
-      <c r="L85" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="M85" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="2:23" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E86" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H86" s="10"/>
+      <c r="L86" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F86" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="H86" s="10"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
+      <c r="F87" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H87" s="10"/>
+    </row>
+    <row r="88" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B88" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="9"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D88" s="8" t="s">
-        <v>177</v>
-      </c>
+      <c r="C88" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" s="8"/>
       <c r="E88" s="8"/>
-      <c r="F88" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="D89" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B90" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="9"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="9"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B91" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="9"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="20" t="s">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="9"/>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B93" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="20"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="20"/>
       <c r="C93" s="20"/>
-      <c r="D93" s="13" t="s">
-        <v>61</v>
-      </c>
+      <c r="D93" s="13"/>
       <c r="E93" s="20"/>
-      <c r="F93" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="G93" s="20" t="s">
-        <v>189</v>
-      </c>
+      <c r="F93" s="13"/>
+      <c r="G93" s="20"/>
       <c r="H93" s="20"/>
     </row>
-    <row r="94" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
-      <c r="D94" s="13" t="s">
-        <v>63</v>
+      <c r="D94" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="E94" s="20"/>
       <c r="F94" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G94" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H94" s="20"/>
       <c r="J94" s="2">
@@ -2863,192 +2886,199 @@
       <c r="K94" s="2">
         <v>2020</v>
       </c>
-      <c r="L94" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P94" t="s">
+        <v>297</v>
+      </c>
+      <c r="W94" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
       <c r="D95" s="13" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="E95" s="20"/>
       <c r="F95" s="13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>178</v>
+        <v>302</v>
       </c>
       <c r="H95" s="20"/>
     </row>
-    <row r="96" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
       <c r="D96" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E96" s="20" t="s">
-        <v>193</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E96" s="20"/>
       <c r="F96" s="13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H96" s="20"/>
-      <c r="L96" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="M96" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="2:13" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
       <c r="D97" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E97" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G97" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="L97" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F97" s="13" t="s">
+      <c r="F98" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H98" s="20"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B99" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="9"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="D100" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E100" s="8"/>
+      <c r="F100" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G97" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="H97" s="20"/>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B98" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="9"/>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D99" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B100" s="2" t="s">
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B101" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="9"/>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="9"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B102" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="9"/>
     </row>
-    <row r="103" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="13" t="s">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="20" t="s">
+      <c r="E104" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F103" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="G103" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="H103" s="20"/>
-    </row>
-    <row r="104" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B104" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D104" s="13"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="20"/>
+      <c r="F104" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G104" s="20" t="s">
+        <v>202</v>
+      </c>
       <c r="H104" s="20"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B105" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C105" s="20"/>
+        <v>168</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>197</v>
+      </c>
       <c r="D105" s="13"/>
       <c r="E105" s="20"/>
       <c r="F105" s="13"/>
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
     </row>
-    <row r="106" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B106" s="20"/>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B106" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C106" s="20"/>
-      <c r="D106" s="13" t="s">
-        <v>61</v>
-      </c>
+      <c r="D106" s="13"/>
       <c r="E106" s="20"/>
-      <c r="F106" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="G106" s="20" t="s">
-        <v>214</v>
-      </c>
+      <c r="F106" s="13"/>
+      <c r="G106" s="20"/>
       <c r="H106" s="20"/>
     </row>
-    <row r="107" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
       <c r="D107" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="E107" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E107" s="20"/>
+      <c r="F107" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="F107" s="13"/>
-      <c r="G107" s="20"/>
+      <c r="G107" s="20" t="s">
+        <v>210</v>
+      </c>
       <c r="H107" s="20"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B108" s="20" t="s">
-        <v>52</v>
-      </c>
+    <row r="108" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B108" s="20"/>
       <c r="C108" s="20"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="20"/>
+      <c r="D108" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E108" s="20" t="s">
+        <v>199</v>
+      </c>
       <c r="F108" s="13"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
     </row>
-    <row r="109" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.5">
       <c r="B109" s="20" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="C109" s="20"/>
       <c r="D109" s="13"/>
@@ -3057,8 +3087,10 @@
       <c r="G109" s="20"/>
       <c r="H109" s="20"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B110" s="20"/>
+    <row r="110" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B110" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="C110" s="20"/>
       <c r="D110" s="13"/>
       <c r="E110" s="20"/>
@@ -3066,226 +3098,191 @@
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D111" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E111"/>
-      <c r="F111" t="s">
-        <v>265</v>
-      </c>
-      <c r="G111" t="s">
-        <v>266</v>
-      </c>
-      <c r="H111"/>
-      <c r="J111" s="6"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O111"/>
-      <c r="P111"/>
-      <c r="Q111"/>
-    </row>
-    <row r="112" spans="2:17" ht="63" x14ac:dyDescent="0.25">
-      <c r="D112" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F112" t="s">
-        <v>106</v>
-      </c>
-      <c r="G112" t="s">
-        <v>267</v>
-      </c>
-      <c r="H112" t="s">
-        <v>268</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="J112" s="6"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O112"/>
-      <c r="P112"/>
-      <c r="Q112"/>
-    </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="C112" s="8"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+    </row>
+    <row r="113" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B113" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C113" s="8"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B114" s="2" t="s">
-        <v>51</v>
-      </c>
+    <row r="114" spans="2:23" x14ac:dyDescent="0.5">
       <c r="C114" s="8"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.5">
       <c r="C115" s="8"/>
+      <c r="D115" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-    </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C116" s="8"/>
-      <c r="D116" s="9" t="s">
+      <c r="F115" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="116" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
+    </row>
+    <row r="117" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="C117" s="9"/>
+      <c r="D117" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B117" s="20"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="20"/>
-    </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C118" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="N117" s="8"/>
+    </row>
+    <row r="118" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D118" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="N118" s="8"/>
-    </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D119" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>300</v>
+      <c r="F118" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="119" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="D119" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D120" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B121" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="B120" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C121" s="20"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="20"/>
-    </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D122" s="8" t="s">
-        <v>292</v>
-      </c>
+      <c r="C120" s="20"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
+    </row>
+    <row r="121" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="D121" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E121" s="8"/>
+      <c r="F121" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="P121" t="s">
+        <v>262</v>
+      </c>
+      <c r="W121" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="D122" s="8"/>
       <c r="E122" s="8"/>
-      <c r="F122" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="P122" t="s">
-        <v>270</v>
-      </c>
-      <c r="W122" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D123" s="8"/>
+      <c r="F122" s="9"/>
+    </row>
+    <row r="123" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="D123" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="E123" s="8"/>
-      <c r="F123" s="9"/>
-    </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D124" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="F123" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="D124" s="8"/>
       <c r="E124" s="8"/>
-      <c r="F124" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="125" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="F124" s="9"/>
+    </row>
+    <row r="125" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="9"/>
     </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="9"/>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="9"/>
-    </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M129" s="2"/>
+    </row>
+    <row r="130" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="9"/>
-    </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M130" s="2"/>
+    </row>
+    <row r="131" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="9"/>
-    </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M131" s="2"/>
+    </row>
+    <row r="132" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="9"/>
-    </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M132" s="2"/>
+    </row>
+    <row r="133" spans="4:13" x14ac:dyDescent="0.5">
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="9"/>
-    </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="9"/>
+      <c r="M133" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -3304,11 +3301,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD20"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -3316,7 +3313,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3333,7 +3330,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3344,7 +3341,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -3355,7 +3352,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
@@ -3366,7 +3363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>85</v>
       </c>
@@ -3377,11 +3374,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -3392,7 +3389,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -3403,15 +3400,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -3422,7 +3419,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -3433,10 +3430,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>80</v>
       </c>
@@ -3450,7 +3447,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
@@ -3464,7 +3461,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -3478,7 +3475,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
@@ -3492,7 +3489,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -3506,7 +3503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>80</v>
       </c>
@@ -3520,14 +3517,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
@@ -3538,7 +3535,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
@@ -3549,7 +3546,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>89</v>
       </c>
@@ -3560,15 +3557,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
@@ -3579,7 +3576,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>93</v>
       </c>
@@ -3590,7 +3587,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
         <v>98</v>
       </c>
@@ -3601,17 +3598,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>103</v>
       </c>
@@ -3622,7 +3619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
@@ -3633,7 +3630,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>103</v>
       </c>
@@ -3644,68 +3641,68 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B41" s="2">
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B42" s="2">
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B43" s="2">
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -3714,34 +3711,34 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B47" s="2">
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B48" s="2">
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -3750,498 +3747,530 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B52" s="2">
         <v>3</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B56" s="2">
         <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B57" s="2">
         <v>3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B61" s="2">
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B65" s="2">
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A67" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A68" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A69" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B69" s="2">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A70" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B70" s="2">
+        <v>88</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
@@ -4261,26 +4290,25 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="33.875" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="3" max="4" width="24.0625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.375" customWidth="1"/>
+    <col min="7" max="7" width="62.0625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46.5" customWidth="1"/>
     <col min="10" max="10" width="22.125" customWidth="1"/>
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="19" t="s">
         <v>43</v>
       </c>
@@ -4315,70 +4343,70 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" t="s">
         <v>204</v>
       </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" t="s">
-        <v>208</v>
-      </c>
       <c r="F2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" t="s">
         <v>204</v>
       </c>
-      <c r="C3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" t="s">
-        <v>208</v>
-      </c>
       <c r="F3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="173.25" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="173.25" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="J4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4396,14 +4424,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="16" t="s">
         <v>55</v>
       </c>
@@ -4417,7 +4445,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -4431,7 +4459,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -4452,19 +4480,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4472,92 +4500,108 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>238</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>240</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>300</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="B6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B12" t="s">
-        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -4570,17 +4614,17 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4588,15 +4632,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="26" t="s">
         <v>63</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
@@ -4604,7 +4648,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="27" t="s">
         <v>10</v>
       </c>
@@ -4612,7 +4656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="27" t="s">
         <v>10</v>
       </c>
@@ -4620,7 +4664,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="26" t="s">
         <v>4</v>
       </c>
@@ -4628,7 +4672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="26" t="s">
         <v>10</v>
       </c>
@@ -4636,7 +4680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="26" t="s">
         <v>63</v>
       </c>
@@ -4644,7 +4688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="26" t="s">
         <v>5</v>
       </c>
@@ -4652,7 +4696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="26" t="s">
         <v>5</v>
       </c>
@@ -4660,7 +4704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="26" t="s">
         <v>10</v>
       </c>
@@ -4668,7 +4712,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="26" t="s">
         <v>92</v>
       </c>
@@ -4676,47 +4720,47 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="26" t="s">
         <v>10</v>
       </c>
@@ -4724,31 +4768,31 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="26" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="26" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
         <v>61</v>
       </c>
@@ -4756,15 +4800,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="23" t="s">
         <v>58</v>
       </c>
@@ -4772,7 +4816,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
         <v>10</v>
       </c>
@@ -4780,311 +4824,311 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
         <v>92</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="22" t="s">
         <v>92</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67" s="25" t="s">
         <v>10</v>
       </c>
@@ -5092,7 +5136,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68" s="25" t="s">
         <v>4</v>
       </c>
@@ -5100,28 +5144,28 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71" s="8" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72" s="9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
+++ b/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\inclusao\forms\inclusao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B4678-7C85-4A33-AC46-62D9E7B0A5F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2DC913-42B9-4C27-BB8C-C86EB0D34AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17596" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21960" yWindow="16125" windowWidth="16440" windowHeight="4875" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="417">
   <si>
     <t>type</t>
   </si>
@@ -273,12 +273,6 @@
     <t>Bambadinca</t>
   </si>
   <si>
-    <t>Cossé</t>
-  </si>
-  <si>
-    <t>Mafanco</t>
-  </si>
-  <si>
     <t>Pitche</t>
   </si>
   <si>
@@ -288,15 +282,9 @@
     <t>bambadinca</t>
   </si>
   <si>
-    <t>mafanco</t>
-  </si>
-  <si>
     <t>pitche</t>
   </si>
   <si>
-    <t>cosse</t>
-  </si>
-  <si>
     <t>DOB_ou_idade</t>
   </si>
   <si>
@@ -552,9 +540,6 @@
     <t>data('medicacao_previa')=='1'</t>
   </si>
   <si>
-    <t>esp_medi_previo</t>
-  </si>
-  <si>
     <t>Se sim, especifique as medicações</t>
   </si>
   <si>
@@ -633,28 +618,13 @@
     <t>outro_medicamento</t>
   </si>
   <si>
-    <t>data('outro_medicamento')=='1'</t>
-  </si>
-  <si>
     <t>lamina</t>
   </si>
   <si>
-    <t>medicamento_administrado</t>
-  </si>
-  <si>
-    <t>linked_table</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
     <t>Outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos)</t>
   </si>
   <si>
     <t>outros_medicamentos</t>
-  </si>
-  <si>
-    <t>id_estudo=?</t>
   </si>
   <si>
     <t>250mg/12,5mg Sulfadoxina-Pirimetamina</t>
@@ -788,9 +758,6 @@
     <t>A dose selecionada nao corresponde com a do idade da crianca</t>
   </si>
   <si>
-    <t>data('peso')&lt;=50 &amp;&amp; data('peso')&gt;=2</t>
-  </si>
-  <si>
     <t>O numero de Tel, nao é valido, ou nao é numero da Guine</t>
   </si>
   <si>
@@ -892,18 +859,12 @@
     <t>data('DOB_ou_idade')=='1' ? ("Data de nascimento é " + calculates.dn_display() ) : ("Tem " +data('ano')+" anos e " + data('mes') + " meses")</t>
   </si>
   <si>
-    <t>{{calculates.date_rastreio_display}} | {{calculates.dn_idade_display}}</t>
-  </si>
-  <si>
     <t>coment_inclusao</t>
   </si>
   <si>
     <t>Comentario</t>
   </si>
   <si>
-    <t>Código: {{calculates.id_lamina}}</t>
-  </si>
-  <si>
     <t>nao_tel_acomp</t>
   </si>
   <si>
@@ -934,12 +895,6 @@
     <t>rastreioID_completo</t>
   </si>
   <si>
-    <t>{id_estudo: data('id_estudo'), inclusaoformID: opendatakit.getCurrentInstanceId()}</t>
-  </si>
-  <si>
-    <t>[ data('id_estudo') ]</t>
-  </si>
-  <si>
     <t>data('sexo') == '1' ? 'M' : 'F'</t>
   </si>
   <si>
@@ -956,9 +911,6 @@
   </si>
   <si>
     <t>MUAC</t>
-  </si>
-  <si>
-    <t>MUAC deve ser em centimetros (cm) por favor verifica se nao está em metros (m) ou outra unidade</t>
   </si>
   <si>
     <t>intensidadeDK</t>
@@ -985,13 +937,403 @@
   <si>
     <t>Amodiaquina
 Data: {{calculates.hoje_display}}</t>
+  </si>
+  <si>
+    <t>""+ data('id_estudo') + "D" + calculates.visita_id()</t>
+  </si>
+  <si>
+    <t>Nome genérico do medicamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não introduza acentos e sinais especias (~^´`¨) </t>
+  </si>
+  <si>
+    <t>nome_med1</t>
+  </si>
+  <si>
+    <t>Continua tomando?</t>
+  </si>
+  <si>
+    <t>via_adm</t>
+  </si>
+  <si>
+    <t>Via de administração</t>
+  </si>
+  <si>
+    <t>tomando_med1</t>
+  </si>
+  <si>
+    <t>via_med1</t>
+  </si>
+  <si>
+    <t>Quantos medicamento está tomando</t>
+  </si>
+  <si>
+    <t>numero_med</t>
+  </si>
+  <si>
+    <t>data('numero_med')&gt;=1</t>
+  </si>
+  <si>
+    <t>data('numero_med')&gt;=2</t>
+  </si>
+  <si>
+    <t>data('numero_med')&gt;=4</t>
+  </si>
+  <si>
+    <t>data('numero_med')&gt;=3</t>
+  </si>
+  <si>
+    <t>nome_med2</t>
+  </si>
+  <si>
+    <t>tomando_med2</t>
+  </si>
+  <si>
+    <t>via_med2</t>
+  </si>
+  <si>
+    <t>nome_med4</t>
+  </si>
+  <si>
+    <t>via_med4</t>
+  </si>
+  <si>
+    <t>tomando_med4</t>
+  </si>
+  <si>
+    <t>nome_med3</t>
+  </si>
+  <si>
+    <t>tomando_med3</t>
+  </si>
+  <si>
+    <t>via_med3</t>
+  </si>
+  <si>
+    <t>med1</t>
+  </si>
+  <si>
+    <t>Introduza dados do primeiro medicamento</t>
+  </si>
+  <si>
+    <t>Nome genérico do Segundo (2)  medicamento</t>
+  </si>
+  <si>
+    <t>med2</t>
+  </si>
+  <si>
+    <t>Para alem do {{data.nome_med1}}, introduza o 2º medicamento</t>
+  </si>
+  <si>
+    <t>med3</t>
+  </si>
+  <si>
+    <t>Para alem do {{data.nome_med1}} e {{data.nome_med2}}, introduza o 3º medicamento</t>
+  </si>
+  <si>
+    <t>Nome genérico do terceiro (3) medicamento</t>
+  </si>
+  <si>
+    <t>Para alem de {{data.nome_med1}}, {{data.nome_med2}} e {{data.nome_med3}} introduza o 4º medicamento</t>
+  </si>
+  <si>
+    <t>Nome genérico do quarto (4)  medicamento</t>
+  </si>
+  <si>
+    <t>Nome do Medicamento</t>
+  </si>
+  <si>
+    <t>Nº de comprimido</t>
+  </si>
+  <si>
+    <t>Não se admite falta de informação na datas e nem as datas no futuro</t>
+  </si>
+  <si>
+    <t>Por favor verifica verifica de novo a data introduzida</t>
+  </si>
+  <si>
+    <t>med_adm1</t>
+  </si>
+  <si>
+    <t>date_adm1</t>
+  </si>
+  <si>
+    <t>hora_adm1</t>
+  </si>
+  <si>
+    <t>dose_adm1</t>
+  </si>
+  <si>
+    <t>vomitou_adm1</t>
+  </si>
+  <si>
+    <t>hora_vomito_adm1</t>
+  </si>
+  <si>
+    <t>calculates.erro_data1()</t>
+  </si>
+  <si>
+    <t>data('vomitou_adm1')=='1'</t>
+  </si>
+  <si>
+    <t>erro_data1</t>
+  </si>
+  <si>
+    <t>nao_data1</t>
+  </si>
+  <si>
+    <t>nao_futuro1</t>
+  </si>
+  <si>
+    <t>calculates.nao_data1() || calculates.nao_futuro1()&lt;0</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm1'),calculates.hoje())</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm1'))</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data1()</t>
+  </si>
+  <si>
+    <t>med_adm2</t>
+  </si>
+  <si>
+    <t>date_adm2</t>
+  </si>
+  <si>
+    <t>hora_adm2</t>
+  </si>
+  <si>
+    <t>dose_adm2</t>
+  </si>
+  <si>
+    <t>vomitou_adm2</t>
+  </si>
+  <si>
+    <t>data('vomitou_adm2')=='1'</t>
+  </si>
+  <si>
+    <t>hora_vomito_adm2</t>
+  </si>
+  <si>
+    <t>calculates.erro_data2()</t>
+  </si>
+  <si>
+    <t>erro_data2</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data2()</t>
+  </si>
+  <si>
+    <t>nao_data2</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm2'))</t>
+  </si>
+  <si>
+    <t>nao_futuro2</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm2'),calculates.hoje())</t>
+  </si>
+  <si>
+    <t>calculates.nao_data2() || calculates.nao_futuro2()&lt;0</t>
+  </si>
+  <si>
+    <t>nao_data3</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm3'))</t>
+  </si>
+  <si>
+    <t>nao_futuro3</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm3'),calculates.hoje())</t>
+  </si>
+  <si>
+    <t>erro_data3</t>
+  </si>
+  <si>
+    <t>calculates.nao_data3() || calculates.nao_futuro3()&lt;0</t>
+  </si>
+  <si>
+    <t>med_adm3</t>
+  </si>
+  <si>
+    <t>date_adm3</t>
+  </si>
+  <si>
+    <t>hora_adm3</t>
+  </si>
+  <si>
+    <t>dose_adm3</t>
+  </si>
+  <si>
+    <t>vomitou_adm3</t>
+  </si>
+  <si>
+    <t>data('vomitou_adm3')=='1'</t>
+  </si>
+  <si>
+    <t>hora_vomito_adm3</t>
+  </si>
+  <si>
+    <t>calculates.erro_data3()</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data3()</t>
+  </si>
+  <si>
+    <t>med_adm4</t>
+  </si>
+  <si>
+    <t>date_adm4</t>
+  </si>
+  <si>
+    <t>hora_adm4</t>
+  </si>
+  <si>
+    <t>dose_adm4</t>
+  </si>
+  <si>
+    <t>vomitou_adm4</t>
+  </si>
+  <si>
+    <t>data('vomitou_adm4')=='1'</t>
+  </si>
+  <si>
+    <t>hora_vomito_adm4</t>
+  </si>
+  <si>
+    <t>calculates.erro_data4()</t>
+  </si>
+  <si>
+    <t>erro_data4</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data4()</t>
+  </si>
+  <si>
+    <t>nao_data4</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm4'))</t>
+  </si>
+  <si>
+    <t>nao_futuro4</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm4'),calculates.hoje())</t>
+  </si>
+  <si>
+    <t>calculates.nao_data4() || calculates.nao_futuro4()&lt;0</t>
+  </si>
+  <si>
+    <t>{{calculates.date_rastreio_display}}    |    {{calculates.dn_idade_display}}</t>
+  </si>
+  <si>
+    <t>Código: {{data.id_estudo}}    |    D{{calculates.visita_id}}</t>
+  </si>
+  <si>
+    <t>outros_med</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para alem de {{data.med_adm1}} toma outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos) </t>
+  </si>
+  <si>
+    <t>data('outros_med')=='2'</t>
+  </si>
+  <si>
+    <t>goto lab</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>outro_med2</t>
+  </si>
+  <si>
+    <t>data('outro_med2')=='2'</t>
+  </si>
+  <si>
+    <t>outro_med3</t>
+  </si>
+  <si>
+    <t>data('outro_med3')=='2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para alem de {{data.med_adm1}}  e {{data.med_adm2}} toma outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos) </t>
+  </si>
+  <si>
+    <t>outro_med4</t>
+  </si>
+  <si>
+    <t>data('outro_med4')=='2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para alem de {{data.med_adm1}} , {{data.med_adm2}}  e {{data.med_adm3}} toma outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos) </t>
+  </si>
+  <si>
+    <t>yesnodk</t>
+  </si>
+  <si>
+    <t>VO (Oral)</t>
+  </si>
+  <si>
+    <t>IM (Intra-muscular)</t>
+  </si>
+  <si>
+    <t>EV (Intra-venosa)</t>
+  </si>
+  <si>
+    <t>data('numero_med')&gt;0</t>
+  </si>
+  <si>
+    <t>else // outro_medi</t>
+  </si>
+  <si>
+    <t>if // outro_medi</t>
+  </si>
+  <si>
+    <t>end if // outro_medi</t>
+  </si>
+  <si>
+    <t>MUAC deve ser em milimetros (mm) por favor verifica se nao está em centimetros (cm) ou outra unidade</t>
+  </si>
+  <si>
+    <t>se não for medido coloca 888</t>
+  </si>
+  <si>
+    <t>(data('MUAC')&gt;=120 &amp;&amp; data('MUAC')&lt;=180) || data('MUAC')==888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(data('peso')&lt;=35 &amp;&amp; data('peso')&gt;=5) || data('peso')==888 </t>
+  </si>
+  <si>
+    <t>ganmamudo</t>
+  </si>
+  <si>
+    <t>Gã-Mamudo</t>
+  </si>
+  <si>
+    <t>sonaco</t>
+  </si>
+  <si>
+    <t>Sonaco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1051,12 +1393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -1081,7 +1417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1097,6 +1433,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,7 +1507,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1204,12 +1552,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,6 +1576,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1657,14 +2026,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1675,15 +2044,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1691,28 +2060,28 @@
         <v>2020061301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1728,16 +2097,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y133"/>
+  <dimension ref="A1:Y236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E197" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A97" sqref="A97:XFD98"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1758,7 +2127,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -1787,10 +2156,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1835,7 +2204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="7"/>
@@ -1849,7 +2218,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
@@ -1857,36 +2226,36 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="P5" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="W5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -1894,7 +2263,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
@@ -1902,67 +2271,67 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
         <v>10</v>
@@ -1974,102 +2343,111 @@
         <v>24</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N19" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>241</v>
+        <v>412</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N22" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C25" s="8"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C26" s="8"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2077,12 +2455,12 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" s="8"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
@@ -2090,122 +2468,122 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="8"/>
       <c r="D30" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" ht="47.25" x14ac:dyDescent="0.5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="20"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" ht="78.75" x14ac:dyDescent="0.5">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="78.75" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="20"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
@@ -2213,52 +2591,52 @@
       <c r="E37" s="10"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="8"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.5">
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E40" s="20"/>
+        <v>256</v>
+      </c>
+      <c r="E40" s="19"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C41" s="8"/>
       <c r="D41" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="20"/>
+      <c r="E41" s="19"/>
       <c r="F41" s="9" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C42" s="8"/>
-      <c r="E42" s="20"/>
+      <c r="E42" s="19"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
@@ -2266,46 +2644,46 @@
       <c r="E43" s="10"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C44" s="8"/>
       <c r="D44" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
       <c r="D45" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="20"/>
+      <c r="E45" s="19"/>
       <c r="F45" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C46" s="8"/>
       <c r="D46" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>52</v>
       </c>
@@ -2313,12 +2691,12 @@
       <c r="E47" s="10"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C48" s="8"/>
       <c r="E48" s="10"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
@@ -2326,7 +2704,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="C50" s="8"/>
       <c r="D50" s="9" t="s">
@@ -2336,201 +2714,231 @@
         <v>47</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+        <v>131</v>
+      </c>
+      <c r="N50" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D51" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+        <v>134</v>
+      </c>
+      <c r="N51" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D55" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="N55" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D56" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
+        <v>138</v>
+      </c>
+      <c r="N56" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D59" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
+        <v>140</v>
+      </c>
+      <c r="N59" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D60" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
+        <v>141</v>
+      </c>
+      <c r="N60" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D63" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
+        <v>149</v>
+      </c>
+      <c r="N63" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C64" s="8"/>
       <c r="D64" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.5">
+        <v>146</v>
+      </c>
+      <c r="N64" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C65" s="8"/>
-      <c r="E65" s="20"/>
+      <c r="E65" s="19"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C66" s="8"/>
-      <c r="E66" s="20"/>
+      <c r="E66" s="19"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C67" s="9"/>
       <c r="D67" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>47</v>
+        <v>401</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.5">
+        <v>148</v>
+      </c>
+      <c r="N67" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C68" s="8"/>
       <c r="D68" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>401</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" ht="47.25" x14ac:dyDescent="0.5">
+        <v>151</v>
+      </c>
+      <c r="N68" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="12" t="s">
@@ -2538,16 +2946,19 @@
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="1:17" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="N70" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="12"/>
@@ -2557,7 +2968,7 @@
       <c r="H71" s="10"/>
       <c r="M71" s="5"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72" s="2" t="s">
         <v>52</v>
@@ -2565,16 +2976,16 @@
       <c r="D72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="D73" s="29" t="s">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D73" s="28" t="s">
         <v>58</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="G73" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="H73"/>
       <c r="J73" s="6"/>
@@ -2586,24 +2997,24 @@
       <c r="P73"/>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="1:17" ht="63" x14ac:dyDescent="0.5">
-      <c r="D74" s="29" t="s">
+    <row r="74" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="D74" s="28" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F74" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G74" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="H74" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="J74" s="6"/>
       <c r="M74" s="2"/>
@@ -2614,7 +3025,7 @@
       <c r="P74"/>
       <c r="Q74"/>
     </row>
-    <row r="75" spans="1:17" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="12" t="s">
@@ -2624,665 +3035,1789 @@
         <v>47</v>
       </c>
       <c r="F75" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="1:17" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B76" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="M76" s="36"/>
+    </row>
+    <row r="77" spans="1:17" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="G77" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="H77" s="35"/>
+      <c r="I77" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="L77" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="M77" s="36"/>
+    </row>
+    <row r="78" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="M78" s="36"/>
+    </row>
+    <row r="79" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="M79" s="36"/>
+    </row>
+    <row r="80" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="G80" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="H80" s="35"/>
+      <c r="M80" s="36"/>
+    </row>
+    <row r="81" spans="2:14" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G81" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="H81" s="35"/>
+      <c r="I81" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="M81" s="36"/>
+      <c r="N81" s="35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="G82" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="H82" s="35"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="35"/>
+      <c r="D83" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="F83" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="G83" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="H83" s="35"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="M84" s="36"/>
+    </row>
+    <row r="85" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M85" s="36"/>
+    </row>
+    <row r="86" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="M86" s="36"/>
+    </row>
+    <row r="87" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M87" s="36"/>
+    </row>
+    <row r="88" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="G88" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="M88" s="36"/>
+    </row>
+    <row r="89" spans="2:14" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="G89" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="H89" s="35"/>
+      <c r="I89" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="M89" s="36"/>
+      <c r="N89" s="35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="G90" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="H90" s="35"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="35"/>
+      <c r="D91" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="F91" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G91" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="H91" s="35"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="M92" s="36"/>
+    </row>
+    <row r="93" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M93" s="36"/>
+    </row>
+    <row r="94" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="M94" s="36"/>
+    </row>
+    <row r="95" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M95" s="36"/>
+    </row>
+    <row r="96" spans="2:14" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D96" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="G96" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="M96" s="36"/>
+    </row>
+    <row r="97" spans="2:14" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="G97" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="H97" s="35"/>
+      <c r="I97" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="M97" s="36"/>
+      <c r="N97" s="35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F98" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G98" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="H98" s="35"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="35"/>
+      <c r="D99" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="F99" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="G99" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="H99" s="35"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="35"/>
+    </row>
+    <row r="101" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M101" s="36"/>
+    </row>
+    <row r="102" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="M102" s="36"/>
+    </row>
+    <row r="103" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M103" s="36"/>
+    </row>
+    <row r="104" spans="2:14" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D104" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G104" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="M104" s="36"/>
+    </row>
+    <row r="105" spans="2:14" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="G105" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="H105" s="35"/>
+      <c r="I105" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="M105" s="36"/>
+      <c r="N105" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="35"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F106" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G106" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="H106" s="35"/>
+      <c r="M106" s="36"/>
+      <c r="N106" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="35"/>
+      <c r="D107" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="F107" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="G107" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="H107" s="35"/>
+      <c r="M107" s="36"/>
+      <c r="N107" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="35"/>
+      <c r="G108" s="35"/>
+      <c r="H108" s="35"/>
+      <c r="M108" s="36"/>
+    </row>
+    <row r="109" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M109" s="36"/>
+    </row>
+    <row r="110" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M110" s="36"/>
+    </row>
+    <row r="111" spans="2:14" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B111" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="G75" s="10" t="s">
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="M111" s="36"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+    </row>
+    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E113" s="10"/>
+      <c r="F113" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="J113" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K113" s="2">
+        <v>2020</v>
+      </c>
+      <c r="P113" t="s">
+        <v>281</v>
+      </c>
+      <c r="W113" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:23" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H114" s="10"/>
+    </row>
+    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="F115" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H115" s="10"/>
+    </row>
+    <row r="116" spans="2:23" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G116" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H116" s="10"/>
+      <c r="L116" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M116" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B76" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" s="20" t="s">
+    </row>
+    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H117" s="10"/>
+    </row>
+    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="9"/>
+    </row>
+    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D119" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="B77" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F79" s="13"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="B80" s="10" t="s">
+      <c r="E119" s="8"/>
+      <c r="F119" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="9"/>
+    </row>
+    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-    </row>
-    <row r="81" spans="2:23" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B81" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-    </row>
-    <row r="82" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="B82" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-    </row>
-    <row r="83" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="J83" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K83" s="2">
-        <v>2020</v>
-      </c>
-      <c r="P83" t="s">
-        <v>297</v>
-      </c>
-      <c r="W83" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:23" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="H84" s="10"/>
-    </row>
-    <row r="85" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="H85" s="10"/>
-    </row>
-    <row r="86" spans="2:23" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="H86" s="10"/>
-      <c r="L86" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="M86" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="87" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H87" s="10"/>
-    </row>
-    <row r="88" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="B88" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="9"/>
-    </row>
-    <row r="89" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="D89" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="90" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="B90" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="9"/>
-    </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="B91" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="9"/>
-    </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="9"/>
-    </row>
-    <row r="93" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="B93" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" s="20"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-    </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E94" s="20"/>
-      <c r="F94" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="G94" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="H94" s="20"/>
-      <c r="J94" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K94" s="2">
-        <v>2020</v>
-      </c>
-      <c r="P94" t="s">
-        <v>297</v>
-      </c>
-      <c r="W94" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="2:23" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E95" s="20"/>
-      <c r="F95" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G95" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="H95" s="20"/>
-    </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E96" s="20"/>
-      <c r="F96" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="G96" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="H96" s="20"/>
-    </row>
-    <row r="97" spans="2:13" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="G97" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="H97" s="20"/>
-      <c r="L97" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="M97" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="G98" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="H98" s="20"/>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B99" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="9"/>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="D100" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B101" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="9"/>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B102" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="9"/>
-    </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="9"/>
-    </row>
-    <row r="104" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B104" s="20"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G104" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="H104" s="20"/>
-    </row>
-    <row r="105" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B105" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D105" s="13"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-    </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B106" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C106" s="20"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-    </row>
-    <row r="107" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B107" s="20"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E107" s="20"/>
-      <c r="F107" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="G107" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="H107" s="20"/>
-    </row>
-    <row r="108" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B108" s="20"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E108" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="F108" s="13"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="20"/>
-    </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B109" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-    </row>
-    <row r="110" spans="2:13" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B110" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C110" s="20"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20"/>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="B111" s="20"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.5">
-      <c r="C112" s="8"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-    </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="B113" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C113" s="8"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-    </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="C114" s="8"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-    </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="C115" s="8"/>
-      <c r="D115" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
-    </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="C117" s="9"/>
-      <c r="D117" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="N117" s="8"/>
-    </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="D118" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="D119" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="B120" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C120" s="20"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="20"/>
-      <c r="H120" s="20"/>
-    </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="D121" s="8" t="s">
-        <v>282</v>
-      </c>
+      <c r="D121" s="8"/>
       <c r="E121" s="8"/>
-      <c r="F121" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="P121" t="s">
-        <v>262</v>
-      </c>
-      <c r="W121" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.5">
+      <c r="F121" s="9"/>
+    </row>
+    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="9"/>
     </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="D123" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E123" s="8"/>
-      <c r="F123" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="9"/>
-    </row>
-    <row r="125" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="9"/>
-    </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="9"/>
-    </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="9"/>
-    </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.5">
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="9"/>
-    </row>
-    <row r="129" spans="4:13" x14ac:dyDescent="0.5">
+    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B123" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C123" s="19"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+    </row>
+    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E124" s="19"/>
+      <c r="F124" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G124" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H124" s="19"/>
+      <c r="J124" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K124" s="2">
+        <v>2020</v>
+      </c>
+      <c r="P124" t="s">
+        <v>281</v>
+      </c>
+      <c r="W124" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="2:23" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E125" s="19"/>
+      <c r="F125" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G125" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="H125" s="19"/>
+    </row>
+    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E126" s="19"/>
+      <c r="F126" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G126" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="H126" s="19"/>
+    </row>
+    <row r="127" spans="2:23" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="G127" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H127" s="19"/>
+      <c r="L127" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M127" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G128" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H128" s="19"/>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="9"/>
-      <c r="M129" s="2"/>
-    </row>
-    <row r="130" spans="4:13" x14ac:dyDescent="0.5">
-      <c r="D130" s="8"/>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D130" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="E130" s="8"/>
-      <c r="F130" s="9"/>
-      <c r="M130" s="2"/>
-    </row>
-    <row r="131" spans="4:13" x14ac:dyDescent="0.5">
+      <c r="F130" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="9"/>
-      <c r="M131" s="2"/>
-    </row>
-    <row r="132" spans="4:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="9"/>
-      <c r="M132" s="2"/>
-    </row>
-    <row r="133" spans="4:13" x14ac:dyDescent="0.5">
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="9"/>
-      <c r="M133" s="2"/>
+    </row>
+    <row r="134" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="G134" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H134" s="19"/>
+    </row>
+    <row r="135" spans="2:13" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B135" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="C135" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
+      <c r="M135" s="32"/>
+    </row>
+    <row r="136" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="31"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="31"/>
+      <c r="M136" s="32"/>
+    </row>
+    <row r="137" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="31"/>
+      <c r="M137" s="32"/>
+    </row>
+    <row r="138" spans="2:13" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B138" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
+      <c r="M138" s="32"/>
+    </row>
+    <row r="139" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="31"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
+      <c r="M139" s="32"/>
+    </row>
+    <row r="140" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="31"/>
+      <c r="M140" s="32"/>
+    </row>
+    <row r="141" spans="2:13" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B141" s="31"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G141" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="H141" s="31"/>
+      <c r="M141" s="32"/>
+    </row>
+    <row r="142" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="31"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="G142" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="H142" s="31"/>
+      <c r="M142" s="32"/>
+    </row>
+    <row r="143" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="31"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="G143" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H143" s="31"/>
+      <c r="J143" s="30">
+        <v>2020</v>
+      </c>
+      <c r="K143" s="30">
+        <v>2020</v>
+      </c>
+      <c r="M143" s="32"/>
+    </row>
+    <row r="144" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="31"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E144" s="31"/>
+      <c r="F144" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="G144" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H144" s="31"/>
+      <c r="M144" s="32"/>
+    </row>
+    <row r="145" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="31"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" s="31"/>
+      <c r="F145" s="31" t="s">
+        <v>328</v>
+      </c>
+      <c r="G145" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="H145" s="31"/>
+      <c r="M145" s="32"/>
+    </row>
+    <row r="146" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="31"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F146" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="G146" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H146" s="31"/>
+      <c r="M146" s="32"/>
+    </row>
+    <row r="147" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C147" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="M147" s="32"/>
+    </row>
+    <row r="148" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D148" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F148" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="G148" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="M148" s="32"/>
+    </row>
+    <row r="149" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M149" s="32"/>
+    </row>
+    <row r="150" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="M150" s="32"/>
+    </row>
+    <row r="151" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M151" s="32"/>
+    </row>
+    <row r="152" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C152" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="M152" s="32"/>
+    </row>
+    <row r="153" spans="2:13" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D153" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F153" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="G153" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="I153" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="L153" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="M153" s="32"/>
+    </row>
+    <row r="154" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M154" s="32"/>
+    </row>
+    <row r="155" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M155" s="32"/>
+    </row>
+    <row r="156" spans="2:13" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D156" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F156" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="G156" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="M156" s="32"/>
+    </row>
+    <row r="157" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C157" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="M157" s="32"/>
+    </row>
+    <row r="158" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="M158" s="32"/>
+    </row>
+    <row r="159" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="M159" s="32"/>
+    </row>
+    <row r="160" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D161" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F161" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="G161" s="33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D162" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F162" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="G162" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="J162" s="33">
+        <v>2020</v>
+      </c>
+      <c r="K162" s="33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D163" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="F163" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="G163" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D164" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F164" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="G164" s="33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D165" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F165" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="G165" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C166" s="33" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D167" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="F167" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="G167" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="169" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="172" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D172" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F172" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="G172" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="I172" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="L172" s="33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="173" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="174" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M174" s="32"/>
+    </row>
+    <row r="175" spans="2:13" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D175" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F175" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="G175" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="M175" s="32"/>
+    </row>
+    <row r="176" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C176" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="M176" s="32"/>
+    </row>
+    <row r="177" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="M177" s="32"/>
+    </row>
+    <row r="178" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="M178" s="32"/>
+    </row>
+    <row r="179" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M179" s="32"/>
+    </row>
+    <row r="180" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M180" s="32"/>
+    </row>
+    <row r="181" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="182" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D182" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F182" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="G182" s="33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="183" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D183" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F183" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="G183" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="J183" s="33">
+        <v>2020</v>
+      </c>
+      <c r="K183" s="33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="184" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D184" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="F184" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="G184" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="185" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D185" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F185" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="G185" s="33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="186" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D186" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F186" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="G186" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="187" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C187" s="33" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="188" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D188" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="F188" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="G188" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="189" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="190" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="191" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C192" s="33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="193" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D193" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F193" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="G193" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="I193" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="L193" s="33" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="194" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="195" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="2:13" s="30" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D196" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E196" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F196" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="G196" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="M196" s="32"/>
+    </row>
+    <row r="197" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C197" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="M197" s="32"/>
+    </row>
+    <row r="198" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="M198" s="32"/>
+    </row>
+    <row r="199" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="M199" s="32"/>
+    </row>
+    <row r="200" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="203" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D203" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F203" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="G203" s="33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="204" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D204" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F204" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="G204" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="J204" s="33">
+        <v>2020</v>
+      </c>
+      <c r="K204" s="33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="205" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D205" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="F205" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="G205" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="206" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D206" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F206" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="G206" s="33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="207" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D207" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F207" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="G207" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="208" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C208" s="33" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D209" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="F209" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="G209" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C213" s="33" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D214" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F214" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="G214" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="I214" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="L214" s="33" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M216" s="32"/>
+    </row>
+    <row r="217" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="31"/>
+      <c r="C217" s="31"/>
+      <c r="D217" s="31"/>
+      <c r="E217" s="31"/>
+      <c r="F217" s="31"/>
+      <c r="G217" s="31"/>
+      <c r="H217" s="31"/>
+      <c r="M217" s="32"/>
+    </row>
+    <row r="218" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C218" s="31"/>
+      <c r="D218" s="31"/>
+      <c r="E218" s="31"/>
+      <c r="F218" s="31"/>
+      <c r="G218" s="31"/>
+      <c r="H218" s="31"/>
+      <c r="M218" s="32"/>
+    </row>
+    <row r="219" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C219" s="31"/>
+      <c r="D219" s="31"/>
+      <c r="E219" s="31"/>
+      <c r="F219" s="31"/>
+      <c r="G219" s="31"/>
+      <c r="H219" s="31"/>
+      <c r="M219" s="32"/>
+    </row>
+    <row r="220" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C220" s="31"/>
+      <c r="D220" s="31"/>
+      <c r="E220" s="31"/>
+      <c r="F220" s="31"/>
+      <c r="G220" s="31"/>
+      <c r="H220" s="31"/>
+      <c r="M220" s="32"/>
+    </row>
+    <row r="221" spans="1:13" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B221" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="C221" s="31"/>
+      <c r="D221" s="31"/>
+      <c r="E221" s="31"/>
+      <c r="F221" s="31"/>
+      <c r="G221" s="31"/>
+      <c r="H221" s="31"/>
+      <c r="M221" s="32"/>
+    </row>
+    <row r="222" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="31"/>
+      <c r="C222" s="31"/>
+      <c r="D222" s="31"/>
+      <c r="E222" s="31"/>
+      <c r="F222" s="31"/>
+      <c r="G222" s="31"/>
+      <c r="H222" s="31"/>
+      <c r="M222" s="32"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C223" s="8"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="9"/>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C224" s="8"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="9"/>
+    </row>
+    <row r="225" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B225" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C225" s="8"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
+    </row>
+    <row r="226" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C226" s="8"/>
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+    </row>
+    <row r="227" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C227" s="8"/>
+      <c r="D227" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="228" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B228" s="19"/>
+      <c r="C228" s="19"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="19"/>
+      <c r="F228" s="13"/>
+      <c r="G228" s="19"/>
+      <c r="H228" s="19"/>
+    </row>
+    <row r="229" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C229" s="9"/>
+      <c r="D229" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E229" s="9"/>
+      <c r="F229" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G229" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="N229" s="8"/>
+    </row>
+    <row r="230" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D230" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="231" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D231" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="232" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B232" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C232" s="19"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="19"/>
+      <c r="F232" s="13"/>
+      <c r="G232" s="19"/>
+      <c r="H232" s="19"/>
+    </row>
+    <row r="233" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D233" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E233" s="8"/>
+      <c r="F233" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="P233" t="s">
+        <v>251</v>
+      </c>
+      <c r="W233" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D234" s="8"/>
+      <c r="E234" s="8"/>
+      <c r="F234" s="9"/>
+    </row>
+    <row r="235" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D235" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E235" s="8"/>
+      <c r="F235" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="236" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D236" s="8"/>
+      <c r="E236" s="8"/>
+      <c r="F236" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -3299,13 +4834,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E237"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -3313,7 +4848,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3327,10 +4862,10 @@
         <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -3341,7 +4876,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -3352,9 +4887,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -3363,9 +4898,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -3374,11 +4909,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -3389,7 +4924,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -3400,345 +4935,346 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13" s="2">
+        <v>88</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="1" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="2">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A35" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="2">
+      <c r="C35" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A37" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="C40" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="2">
         <v>3</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A40" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="2">
+      <c r="C41" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="2">
         <v>1</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="C44" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="2">
         <v>2</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="2">
+      <c r="C45" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="2">
         <v>3</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="2">
+      <c r="C46" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="2">
         <v>4</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A46" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="2">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A47" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B47" s="2">
-        <v>2</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A48" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B48" s="2">
-        <v>3</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="C47" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A50" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="B50" s="2">
         <v>1</v>
@@ -3747,532 +5283,580 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A51" s="1" t="s">
-        <v>136</v>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A52" s="1" t="s">
-        <v>136</v>
+      <c r="C51" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="B52" s="2">
         <v>3</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B55" s="2">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="2">
+        <v>3</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="2">
+        <v>88</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="2">
         <v>1</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A56" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="C59" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="2">
         <v>2</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A57" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" s="2">
-        <v>3</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A60" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B60" s="2">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A61" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B61" s="2">
-        <v>2</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="2">
+        <v>88</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B65" s="2">
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A67" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B67" s="2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" s="2">
         <v>1</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A68" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B68" s="2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B72" s="2">
         <v>2</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A69" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B69" s="2">
+      <c r="C72" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" s="2">
         <v>3</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A70" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B70" s="2">
+      <c r="C73" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B74" s="2">
         <v>88</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A72" s="1"/>
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A73" s="1"/>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A74" s="1"/>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C74" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A76" s="1"/>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A77" s="1"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A78" s="1"/>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B78" s="2">
+        <v>3</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A136" s="1"/>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A137" s="1"/>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A235" s="1"/>
-      <c r="C235" s="1"/>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A236" s="1"/>
-      <c r="C236" s="1"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A237" s="1"/>
-      <c r="C237" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4288,125 +5872,73 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C574FB-861C-4A83-BA50-230986D05032}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.875" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="4" width="24.0625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.0625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46.5" customWidth="1"/>
     <col min="10" max="10" width="22.125" customWidth="1"/>
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="173.25" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" t="s">
-        <v>254</v>
-      </c>
-      <c r="J4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>256</v>
+        <v>243</v>
+      </c>
+      <c r="J2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4424,14 +5956,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>55</v>
       </c>
@@ -4445,7 +5977,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -4459,7 +5991,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -4480,19 +6012,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -4500,108 +6032,204 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="B6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" t="s">
         <v>265</v>
       </c>
-      <c r="B11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B17" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B29" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4618,13 +6246,13 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4632,540 +6260,540 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="26" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B26" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="27" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="27" t="s">
+      <c r="B31" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="26" t="s">
+      <c r="B42" s="24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="26" t="s">
+      <c r="B52" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="26" t="s">
+      <c r="B53" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="26" t="s">
+      <c r="B54" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" s="26" t="s">
+      <c r="B56" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" s="26" t="s">
+      <c r="B57" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="26" t="s">
+      <c r="B61" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="26" t="s">
+      <c r="B62" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="26" t="s">
+      <c r="B64" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="26" t="s">
+      <c r="B66" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="26" t="s">
+      <c r="B67" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A65" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A66" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A67" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A68" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
+++ b/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\inclusao\forms\inclusao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\inclusao\forms\inclusao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2DC913-42B9-4C27-BB8C-C86EB0D34AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA81E3F2-9F57-4493-8BAA-D4402D473565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21960" yWindow="16125" windowWidth="16440" windowHeight="4875" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="416">
   <si>
     <t>type</t>
   </si>
@@ -814,21 +814,6 @@
 .value()</t>
   </si>
   <si>
-    <t>codigo</t>
-  </si>
-  <si>
-    <t>Introduza o codigo que aparece no  papel de Analise</t>
-  </si>
-  <si>
-    <t>Confirma o codigo introduzido</t>
-  </si>
-  <si>
-    <t>choice_item.region === data('region') &amp;&amp; choice_item.cs===data('cs') &amp;&amp; choice_item.lista== data('codigo').toUpperCase()</t>
-  </si>
-  <si>
-    <t>Se não aparecer o codigo, é porque o código introduzido não consta na lista de código para este Centro de saúde</t>
-  </si>
-  <si>
     <t>""+ data('id_estudo') + "X" + calculates.visita_id()</t>
   </si>
   <si>
@@ -1327,6 +1312,18 @@
   </si>
   <si>
     <t>Sonaco</t>
+  </si>
+  <si>
+    <t>data('outros_med')=='1'</t>
+  </si>
+  <si>
+    <t>data('outros_med2')=='1'</t>
+  </si>
+  <si>
+    <t>data('outros_med3')=='1'</t>
+  </si>
+  <si>
+    <t>data('outros_med4')=='1'</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1504,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1574,9 +1571,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2022,8 +2016,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2057,7 +2051,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2020061301</v>
+        <v>2020071900</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2097,13 +2091,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y236"/>
+  <dimension ref="A1:Y234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E197" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="F220" activeCellId="1" sqref="D139:D220 F139:F220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2242,11 +2236,11 @@
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P5" t="s">
         <v>223</v>
@@ -2307,7 +2301,7 @@
         <v>207</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="N12" s="8"/>
     </row>
@@ -2356,19 +2350,19 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -2384,10 +2378,10 @@
         <v>106</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>232</v>
@@ -2433,6 +2427,9 @@
       <c r="G24" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="N24" s="2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="25" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
@@ -2480,6 +2477,9 @@
       <c r="G30" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="N30" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C31" s="8"/>
@@ -2494,7 +2494,7 @@
         <v>119</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>240</v>
@@ -2515,8 +2515,11 @@
       <c r="G32" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N32" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
         <v>5</v>
@@ -2529,16 +2532,16 @@
         <v>119</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>50</v>
       </c>
@@ -2548,7 +2551,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
         <v>58</v>
@@ -2560,8 +2563,11 @@
       <c r="G35" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="N35" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
         <v>5</v>
@@ -2574,16 +2580,16 @@
         <v>119</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M36" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
@@ -2591,12 +2597,12 @@
       <c r="E37" s="10"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
@@ -2605,30 +2611,30 @@
       <c r="F39" s="9"/>
       <c r="G39" s="20"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C41" s="8"/>
       <c r="D41" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2636,7 +2642,7 @@
       <c r="E42" s="19"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
@@ -2644,7 +2650,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C44" s="8"/>
       <c r="D44" s="9" t="s">
         <v>58</v>
@@ -2656,8 +2662,11 @@
       <c r="G44" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
       <c r="D45" s="9" t="s">
         <v>58</v>
@@ -2669,8 +2678,11 @@
       <c r="G45" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C46" s="8"/>
       <c r="D46" s="9" t="s">
         <v>4</v>
@@ -2682,8 +2694,11 @@
       <c r="G46" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>52</v>
       </c>
@@ -2691,7 +2706,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C48" s="8"/>
       <c r="E48" s="10"/>
       <c r="F48" s="9"/>
@@ -2819,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>142</v>
@@ -2876,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>52</v>
       </c>
@@ -2884,7 +2899,7 @@
       <c r="E65" s="19"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>51</v>
       </c>
@@ -2892,13 +2907,13 @@
       <c r="E66" s="19"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C67" s="9"/>
       <c r="D67" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>147</v>
@@ -2910,13 +2925,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C68" s="8"/>
       <c r="D68" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>150</v>
@@ -2928,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>152</v>
       </c>
@@ -2938,7 +2953,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="12" t="s">
@@ -2956,7 +2971,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>156</v>
       </c>
@@ -2968,7 +2983,7 @@
       <c r="H71" s="10"/>
       <c r="M71" s="5"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72" s="2" t="s">
         <v>52</v>
@@ -2976,1848 +2991,1916 @@
       <c r="D72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D73" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73"/>
-      <c r="F73" t="s">
-        <v>246</v>
-      </c>
-      <c r="G73" t="s">
-        <v>247</v>
-      </c>
-      <c r="H73"/>
-      <c r="J73" s="6"/>
-      <c r="M73" s="2"/>
+    <row r="73" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H73" s="10"/>
       <c r="N73" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
-    </row>
-    <row r="74" spans="1:17" ht="63" x14ac:dyDescent="0.25">
-      <c r="D74" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F74" t="s">
-        <v>102</v>
-      </c>
-      <c r="G74" t="s">
-        <v>248</v>
-      </c>
-      <c r="H74" t="s">
-        <v>249</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="J74" s="6"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2" t="b">
+    </row>
+    <row r="74" spans="1:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B74" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="M74" s="35"/>
+    </row>
+    <row r="75" spans="1:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="G75" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="H75" s="34"/>
+      <c r="I75" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="L75" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="M75" s="35"/>
+      <c r="N75" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="M76" s="35"/>
+    </row>
+    <row r="77" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="M77" s="35"/>
+    </row>
+    <row r="78" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="G78" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="H78" s="34"/>
+      <c r="M78" s="35"/>
+    </row>
+    <row r="79" spans="1:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G79" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="H79" s="34"/>
+      <c r="I79" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="M79" s="35"/>
+      <c r="N79" s="34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="G80" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="H80" s="34"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="34"/>
+      <c r="D81" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="G81" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="H81" s="34"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="M82" s="35"/>
+    </row>
+    <row r="83" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M83" s="35"/>
+    </row>
+    <row r="84" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="M84" s="35"/>
+    </row>
+    <row r="85" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="M85" s="35"/>
+    </row>
+    <row r="86" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D86" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="M86" s="35"/>
+    </row>
+    <row r="87" spans="2:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G87" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="H87" s="34"/>
+      <c r="I87" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="M87" s="35"/>
+      <c r="N87" s="34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G88" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="H88" s="34"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="34"/>
+      <c r="D89" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G89" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="H89" s="34"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="M90" s="35"/>
+    </row>
+    <row r="91" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M91" s="35"/>
+    </row>
+    <row r="92" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="M92" s="35"/>
+    </row>
+    <row r="93" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="M93" s="35"/>
+    </row>
+    <row r="94" spans="2:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D94" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="G94" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="M94" s="35"/>
+    </row>
+    <row r="95" spans="2:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="G95" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="H95" s="34"/>
+      <c r="I95" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="M95" s="35"/>
+      <c r="N95" s="34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F96" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G96" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="H96" s="34"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="34"/>
+      <c r="D97" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="F97" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="G97" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="H97" s="34"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="M98" s="35"/>
+      <c r="N98" s="34"/>
+    </row>
+    <row r="99" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M99" s="35"/>
+    </row>
+    <row r="100" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="M100" s="35"/>
+    </row>
+    <row r="101" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="M101" s="35"/>
+    </row>
+    <row r="102" spans="2:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D102" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G102" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="M102" s="35"/>
+    </row>
+    <row r="103" spans="2:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="G103" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="H103" s="34"/>
+      <c r="I103" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="M103" s="35"/>
+      <c r="N103" s="34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="104" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F104" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="G104" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="H104" s="34"/>
+      <c r="M104" s="35"/>
+      <c r="N104" s="34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="105" spans="2:23" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="34"/>
+      <c r="D105" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="F105" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G105" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="H105" s="34"/>
+      <c r="M105" s="35"/>
+      <c r="N105" s="34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="M106" s="35"/>
+    </row>
+    <row r="107" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="M107" s="35"/>
+    </row>
+    <row r="108" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M108" s="35"/>
+    </row>
+    <row r="109" spans="2:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B109" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="M109" s="35"/>
+    </row>
+    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B110" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+    </row>
+    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="J111" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K111" s="2">
+        <v>2020</v>
+      </c>
+      <c r="P111" t="s">
+        <v>276</v>
+      </c>
+      <c r="W111" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
-    </row>
-    <row r="75" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="1:17" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B76" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="M76" s="36"/>
-    </row>
-    <row r="77" spans="1:17" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="G77" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="H77" s="35"/>
-      <c r="I77" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="L77" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="M77" s="36"/>
-    </row>
-    <row r="78" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="M78" s="36"/>
-    </row>
-    <row r="79" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
-      <c r="M79" s="36"/>
-    </row>
-    <row r="80" spans="1:17" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35" t="s">
+    </row>
+    <row r="112" spans="2:23" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="G80" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="H80" s="35"/>
-      <c r="M80" s="36"/>
-    </row>
-    <row r="81" spans="2:14" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="G81" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="H81" s="35"/>
-      <c r="I81" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="M81" s="36"/>
-      <c r="N81" s="35" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F82" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="G82" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="H82" s="35"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="35" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="35"/>
-      <c r="D83" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="F83" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="G83" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="H83" s="35"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="35" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M84" s="36"/>
-    </row>
-    <row r="85" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="M85" s="36"/>
-    </row>
-    <row r="86" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="M86" s="36"/>
-    </row>
-    <row r="87" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="M87" s="36"/>
-    </row>
-    <row r="88" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D88" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F88" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="G88" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="M88" s="36"/>
-    </row>
-    <row r="89" spans="2:14" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="G89" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="H89" s="35"/>
-      <c r="I89" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="M89" s="36"/>
-      <c r="N89" s="35" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="35"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F90" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="G90" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="H90" s="35"/>
-      <c r="M90" s="36"/>
-      <c r="N90" s="35" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="35"/>
-      <c r="D91" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="F91" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="G91" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="H91" s="35"/>
-      <c r="M91" s="36"/>
-      <c r="N91" s="35" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M92" s="36"/>
-    </row>
-    <row r="93" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="M93" s="36"/>
-    </row>
-    <row r="94" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C94" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="M94" s="36"/>
-    </row>
-    <row r="95" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="M95" s="36"/>
-    </row>
-    <row r="96" spans="2:14" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D96" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F96" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="G96" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="M96" s="36"/>
-    </row>
-    <row r="97" spans="2:14" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="G97" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="H97" s="35"/>
-      <c r="I97" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="M97" s="36"/>
-      <c r="N97" s="35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F98" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="G98" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="H98" s="35"/>
-      <c r="M98" s="36"/>
-      <c r="N98" s="35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="35"/>
-      <c r="D99" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="F99" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="G99" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="H99" s="35"/>
-      <c r="M99" s="36"/>
-      <c r="N99" s="35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="M100" s="36"/>
-      <c r="N100" s="35"/>
-    </row>
-    <row r="101" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="M101" s="36"/>
-    </row>
-    <row r="102" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C102" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
-      <c r="M102" s="36"/>
-    </row>
-    <row r="103" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="M103" s="36"/>
-    </row>
-    <row r="104" spans="2:14" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D104" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="G104" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="M104" s="36"/>
-    </row>
-    <row r="105" spans="2:14" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B105" s="35"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="G105" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="H105" s="35"/>
-      <c r="I105" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="M105" s="36"/>
-      <c r="N105" s="35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="35"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F106" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="G106" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="H106" s="35"/>
-      <c r="M106" s="36"/>
-      <c r="N106" s="35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C107" s="35"/>
-      <c r="D107" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="F107" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="G107" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="H107" s="35"/>
-      <c r="M107" s="36"/>
-      <c r="N107" s="35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C108" s="35"/>
-      <c r="D108" s="35"/>
-      <c r="E108" s="35"/>
-      <c r="F108" s="35"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="35"/>
-      <c r="M108" s="36"/>
-    </row>
-    <row r="109" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="M109" s="36"/>
-    </row>
-    <row r="110" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M110" s="36"/>
-    </row>
-    <row r="111" spans="2:14" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B111" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="35"/>
-      <c r="M111" s="36"/>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B112" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="12"/>
       <c r="E112" s="10"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="10"/>
+      <c r="F112" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="H112" s="10"/>
     </row>
     <row r="113" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
-      <c r="D113" s="8" t="s">
-        <v>269</v>
+      <c r="D113" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="E113" s="10"/>
       <c r="F113" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="G113" s="10"/>
+        <v>179</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="H113" s="10"/>
-      <c r="J113" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K113" s="2">
-        <v>2020</v>
-      </c>
-      <c r="P113" t="s">
-        <v>281</v>
-      </c>
-      <c r="W113" s="2" t="b">
+      <c r="N113" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E114" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>175</v>
+      </c>
       <c r="F114" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G114" s="10" t="s">
-        <v>283</v>
+        <v>171</v>
       </c>
       <c r="H114" s="10"/>
+      <c r="L114" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="N114" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H115" s="10"/>
+      <c r="N115" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="9"/>
+    </row>
+    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D117" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E115" s="10"/>
-      <c r="F115" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="H115" s="10"/>
-    </row>
-    <row r="116" spans="2:23" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F116" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="G116" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H116" s="10"/>
-      <c r="L116" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="M116" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F117" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H117" s="10"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="118" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="9"/>
     </row>
     <row r="119" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D119" s="8" t="s">
-        <v>169</v>
-      </c>
+      <c r="B119" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="8"/>
       <c r="E119" s="8"/>
-      <c r="F119" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="F119" s="9"/>
     </row>
     <row r="120" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B120" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="9"/>
     </row>
     <row r="121" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B121" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="9"/>
+      <c r="B121" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121" s="19"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
     </row>
     <row r="122" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="9"/>
-    </row>
-    <row r="123" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B123" s="19" t="s">
-        <v>51</v>
-      </c>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E122" s="19"/>
+      <c r="F122" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G122" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H122" s="19"/>
+      <c r="J122" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K122" s="2">
+        <v>2020</v>
+      </c>
+      <c r="P122" t="s">
+        <v>276</v>
+      </c>
+      <c r="W122" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:23" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B123" s="19"/>
       <c r="C123" s="19"/>
-      <c r="D123" s="13"/>
+      <c r="D123" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="E123" s="19"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="19"/>
+      <c r="F123" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G123" s="19" t="s">
+        <v>281</v>
+      </c>
       <c r="H123" s="19"/>
     </row>
     <row r="124" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
-      <c r="D124" s="8" t="s">
-        <v>269</v>
+      <c r="D124" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="E124" s="19"/>
       <c r="F124" s="13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H124" s="19"/>
-      <c r="J124" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K124" s="2">
-        <v>2020</v>
-      </c>
-      <c r="P124" t="s">
-        <v>281</v>
-      </c>
-      <c r="W124" s="2" t="b">
+      <c r="N124" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
       <c r="D125" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E125" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>184</v>
+      </c>
       <c r="F125" s="13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="H125" s="19"/>
+      <c r="L125" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="N125" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
       <c r="D126" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G126" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H126" s="19"/>
+      <c r="N126" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="9"/>
+    </row>
+    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D128" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E126" s="19"/>
-      <c r="F126" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="G126" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="H126" s="19"/>
-    </row>
-    <row r="127" spans="2:23" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E127" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="F127" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="G127" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="L127" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="M127" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F128" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="G128" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H128" s="19"/>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E128" s="8"/>
+      <c r="F128" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="9"/>
-    </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D130" s="8" t="s">
-        <v>169</v>
-      </c>
+      <c r="N129" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B130" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D130" s="8"/>
       <c r="E130" s="8"/>
-      <c r="F130" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="F130" s="9"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B132" s="2" t="s">
+    <row r="132" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="G132" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H132" s="19"/>
+      <c r="N132" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B133" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="C133" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30"/>
+      <c r="M133" s="31"/>
+    </row>
+    <row r="134" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="30"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="30"/>
+      <c r="M134" s="31"/>
+    </row>
+    <row r="135" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="30"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="30"/>
+      <c r="M135" s="31"/>
+    </row>
+    <row r="136" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B136" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30"/>
+      <c r="M136" s="31"/>
+    </row>
+    <row r="137" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
+      <c r="M137" s="31"/>
+    </row>
+    <row r="138" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="30"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="30"/>
+      <c r="M138" s="31"/>
+    </row>
+    <row r="139" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B139" s="30"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E139" s="30"/>
+      <c r="F139" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="G139" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="H139" s="30"/>
+      <c r="M139" s="31"/>
+    </row>
+    <row r="140" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="G140" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="H140" s="30"/>
+      <c r="M140" s="31"/>
+      <c r="N140" s="30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="30"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E141" s="30"/>
+      <c r="F141" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="G141" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="H141" s="30"/>
+      <c r="J141" s="29">
+        <v>2020</v>
+      </c>
+      <c r="K141" s="29">
+        <v>2020</v>
+      </c>
+      <c r="M141" s="31"/>
+      <c r="N141" s="30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="E142" s="30"/>
+      <c r="F142" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="G142" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="H142" s="30"/>
+      <c r="M142" s="31"/>
+      <c r="N142" s="30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E143" s="30"/>
+      <c r="F143" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="G143" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="H143" s="30"/>
+      <c r="M143" s="31"/>
+      <c r="N143" s="30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="30"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F144" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="G144" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="H144" s="30"/>
+      <c r="M144" s="31"/>
+      <c r="N144" s="30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C145" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="M145" s="31"/>
+      <c r="N145" s="30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D146" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F146" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="G146" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="M146" s="31"/>
+    </row>
+    <row r="147" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="M147" s="31"/>
+      <c r="N147" s="29" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="9"/>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="9"/>
-    </row>
-    <row r="134" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E134" s="19" t="s">
+      <c r="M148" s="31"/>
+    </row>
+    <row r="149" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M149" s="31"/>
+    </row>
+    <row r="150" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C150" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="M150" s="31"/>
+    </row>
+    <row r="151" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D151" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F151" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="G151" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="I151" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="L151" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="M151" s="31"/>
+    </row>
+    <row r="152" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="M152" s="31"/>
+    </row>
+    <row r="153" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M153" s="31"/>
+    </row>
+    <row r="154" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D154" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F134" s="13" t="s">
+      <c r="F154" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="G154" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="M154" s="31"/>
+      <c r="N154" s="30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C155" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="M155" s="31"/>
+    </row>
+    <row r="156" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="M156" s="31"/>
+    </row>
+    <row r="157" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="G134" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="H134" s="19"/>
-    </row>
-    <row r="135" spans="2:13" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B135" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="C135" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="D135" s="31"/>
-      <c r="E135" s="31"/>
-      <c r="F135" s="31"/>
-      <c r="G135" s="31"/>
-      <c r="H135" s="31"/>
-      <c r="M135" s="32"/>
-    </row>
-    <row r="136" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="31" t="s">
+      <c r="M157" s="31"/>
+    </row>
+    <row r="158" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D159" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F159" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="G159" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="N159" s="30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D160" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F160" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="G160" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J160" s="32">
+        <v>2020</v>
+      </c>
+      <c r="K160" s="32">
+        <v>2020</v>
+      </c>
+      <c r="N160" s="30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D161" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F161" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="G161" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="N161" s="30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D162" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F162" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="G162" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="N162" s="30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D163" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F163" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="G163" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="N163" s="30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C164" s="32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D165" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F165" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="G165" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="N165" s="32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C169" s="32" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D170" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F170" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="G170" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="I170" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="L170" s="32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M172" s="31"/>
+    </row>
+    <row r="173" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D173" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F173" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="C136" s="31"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="31"/>
-      <c r="F136" s="31"/>
-      <c r="G136" s="31"/>
-      <c r="H136" s="31"/>
-      <c r="M136" s="32"/>
-    </row>
-    <row r="137" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="31"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="31"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="31"/>
-      <c r="H137" s="31"/>
-      <c r="M137" s="32"/>
-    </row>
-    <row r="138" spans="2:13" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B138" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="C138" s="31"/>
-      <c r="D138" s="31"/>
-      <c r="E138" s="31"/>
-      <c r="F138" s="31"/>
-      <c r="G138" s="31"/>
-      <c r="H138" s="31"/>
-      <c r="M138" s="32"/>
-    </row>
-    <row r="139" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="31"/>
-      <c r="C139" s="31"/>
-      <c r="D139" s="31"/>
-      <c r="E139" s="31"/>
-      <c r="F139" s="31"/>
-      <c r="G139" s="31"/>
-      <c r="H139" s="31"/>
-      <c r="M139" s="32"/>
-    </row>
-    <row r="140" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="31" t="s">
+      <c r="G173" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="M173" s="31"/>
+      <c r="N173" s="30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C174" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="M174" s="31"/>
+    </row>
+    <row r="175" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="M175" s="31"/>
+    </row>
+    <row r="176" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="M176" s="31"/>
+    </row>
+    <row r="177" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M177" s="31"/>
+    </row>
+    <row r="178" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M178" s="31"/>
+    </row>
+    <row r="179" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C140" s="31"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="31"/>
-      <c r="F140" s="31"/>
-      <c r="G140" s="31"/>
-      <c r="H140" s="31"/>
-      <c r="M140" s="32"/>
-    </row>
-    <row r="141" spans="2:13" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B141" s="31"/>
-      <c r="C141" s="31"/>
-      <c r="D141" s="31" t="s">
+    </row>
+    <row r="180" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D180" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F180" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="G180" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="N180" s="30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D181" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F181" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="G181" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J181" s="32">
+        <v>2020</v>
+      </c>
+      <c r="K181" s="32">
+        <v>2020</v>
+      </c>
+      <c r="N181" s="30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D182" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F182" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="G182" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="N182" s="30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D183" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="G183" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="N183" s="30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D184" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F184" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="G184" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="N184" s="30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C185" s="32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D186" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F186" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="G186" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="N186" s="32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C190" s="32" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D191" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E141" s="31"/>
-      <c r="F141" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="G141" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="H141" s="31"/>
-      <c r="M141" s="32"/>
-    </row>
-    <row r="142" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="31"/>
-      <c r="C142" s="31"/>
-      <c r="D142" s="31" t="s">
+      <c r="F191" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="G191" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="I191" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="L191" s="32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="2:14" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D194" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F194" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="G194" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="M194" s="31"/>
+      <c r="N194" s="30" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C195" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="M195" s="31"/>
+    </row>
+    <row r="196" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="M196" s="31"/>
+    </row>
+    <row r="197" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="M197" s="31"/>
+    </row>
+    <row r="198" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D201" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="E142" s="31"/>
-      <c r="F142" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="G142" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="H142" s="31"/>
-      <c r="M142" s="32"/>
-    </row>
-    <row r="143" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
-      <c r="D143" s="31" t="s">
+      <c r="F201" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="G201" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="N201" s="30" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D202" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E143" s="31"/>
-      <c r="F143" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="G143" s="31" t="s">
+      <c r="F202" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="G202" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="H143" s="31"/>
-      <c r="J143" s="30">
+      <c r="J202" s="32">
         <v>2020</v>
       </c>
-      <c r="K143" s="30">
+      <c r="K202" s="32">
         <v>2020</v>
       </c>
-      <c r="M143" s="32"/>
-    </row>
-    <row r="144" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="31"/>
-      <c r="C144" s="31"/>
-      <c r="D144" s="31" t="s">
+      <c r="N202" s="30" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D203" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="E144" s="31"/>
-      <c r="F144" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="G144" s="31" t="s">
+      <c r="F203" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="G203" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="H144" s="31"/>
-      <c r="M144" s="32"/>
-    </row>
-    <row r="145" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="31"/>
-      <c r="C145" s="31"/>
-      <c r="D145" s="31" t="s">
+      <c r="N203" s="30" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D204" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E145" s="31"/>
-      <c r="F145" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="G145" s="31" t="s">
-        <v>322</v>
-      </c>
-      <c r="H145" s="31"/>
-      <c r="M145" s="32"/>
-    </row>
-    <row r="146" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146" s="31" t="s">
+      <c r="F204" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G204" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="N204" s="30" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D205" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="F146" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="G146" s="31" t="s">
+      <c r="F205" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="G205" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="H146" s="31"/>
-      <c r="M146" s="32"/>
-    </row>
-    <row r="147" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="30" t="s">
+      <c r="N205" s="30" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C147" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="M147" s="32"/>
-    </row>
-    <row r="148" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D148" s="30" t="s">
+      <c r="C206" s="32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D207" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="F148" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="G148" s="30" t="s">
+      <c r="F207" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="G207" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="M148" s="32"/>
-    </row>
-    <row r="149" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="30" t="s">
+      <c r="N207" s="32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="M149" s="32"/>
-    </row>
-    <row r="150" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="30" t="s">
+    </row>
+    <row r="209" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="M150" s="32"/>
-    </row>
-    <row r="151" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M151" s="32"/>
-    </row>
-    <row r="152" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="30" t="s">
+    </row>
+    <row r="210" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C152" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="M152" s="32"/>
-    </row>
-    <row r="153" spans="2:13" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D153" s="30" t="s">
+      <c r="C211" s="32" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D212" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F153" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="G153" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="I153" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="L153" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="M153" s="32"/>
-    </row>
-    <row r="154" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="30" t="s">
+      <c r="F212" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="G212" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="I212" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="L212" s="32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="M154" s="32"/>
-    </row>
-    <row r="155" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M155" s="32"/>
-    </row>
-    <row r="156" spans="2:13" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D156" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E156" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F156" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="G156" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="M156" s="32"/>
-    </row>
-    <row r="157" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C157" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="M157" s="32"/>
-    </row>
-    <row r="158" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="M158" s="32"/>
-    </row>
-    <row r="159" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="M159" s="32"/>
-    </row>
-    <row r="160" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="33" t="s">
+    </row>
+    <row r="214" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M214" s="31"/>
+    </row>
+    <row r="215" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="30"/>
+      <c r="C215" s="30"/>
+      <c r="D215" s="30"/>
+      <c r="E215" s="30"/>
+      <c r="F215" s="30"/>
+      <c r="G215" s="30"/>
+      <c r="H215" s="30"/>
+      <c r="M215" s="31"/>
+    </row>
+    <row r="216" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C216" s="30"/>
+      <c r="D216" s="30"/>
+      <c r="E216" s="30"/>
+      <c r="F216" s="30"/>
+      <c r="G216" s="30"/>
+      <c r="H216" s="30"/>
+      <c r="M216" s="31"/>
+    </row>
+    <row r="217" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C217" s="30"/>
+      <c r="D217" s="30"/>
+      <c r="E217" s="30"/>
+      <c r="F217" s="30"/>
+      <c r="G217" s="30"/>
+      <c r="H217" s="30"/>
+      <c r="M217" s="31"/>
+    </row>
+    <row r="218" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C218" s="30"/>
+      <c r="D218" s="30"/>
+      <c r="E218" s="30"/>
+      <c r="F218" s="30"/>
+      <c r="G218" s="30"/>
+      <c r="H218" s="30"/>
+      <c r="M218" s="31"/>
+    </row>
+    <row r="219" spans="1:13" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B219" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="C219" s="30"/>
+      <c r="D219" s="30"/>
+      <c r="E219" s="30"/>
+      <c r="F219" s="30"/>
+      <c r="G219" s="30"/>
+      <c r="H219" s="30"/>
+      <c r="M219" s="31"/>
+    </row>
+    <row r="220" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="30"/>
+      <c r="C220" s="30"/>
+      <c r="D220" s="30"/>
+      <c r="E220" s="30"/>
+      <c r="F220" s="30"/>
+      <c r="G220" s="30"/>
+      <c r="H220" s="30"/>
+      <c r="M220" s="31"/>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C221" s="8"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C222" s="8"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B223" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="161" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D161" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F161" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="G161" s="33" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="162" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D162" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F162" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="G162" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="J162" s="33">
-        <v>2020</v>
-      </c>
-      <c r="K162" s="33">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="163" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D163" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="F163" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="G163" s="33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="164" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D164" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F164" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="G164" s="33" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="165" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D165" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E165" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F165" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="G165" s="33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="166" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C166" s="33" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="167" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D167" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="F167" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="G167" s="33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="168" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="169" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="170" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C171" s="33" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="172" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D172" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F172" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="G172" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="I172" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="L172" s="33" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="173" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="174" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M174" s="32"/>
-    </row>
-    <row r="175" spans="2:13" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D175" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E175" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F175" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="G175" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="M175" s="32"/>
-    </row>
-    <row r="176" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C176" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="M176" s="32"/>
-    </row>
-    <row r="177" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="M177" s="32"/>
-    </row>
-    <row r="178" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="M178" s="32"/>
-    </row>
-    <row r="179" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M179" s="32"/>
-    </row>
-    <row r="180" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M180" s="32"/>
-    </row>
-    <row r="181" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="182" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D182" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F182" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="G182" s="33" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="183" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D183" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F183" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="G183" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="J183" s="33">
-        <v>2020</v>
-      </c>
-      <c r="K183" s="33">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="184" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D184" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="F184" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="G184" s="33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="185" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D185" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F185" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="G185" s="33" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="186" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D186" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E186" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F186" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="G186" s="33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="187" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C187" s="33" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="188" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D188" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="F188" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="G188" s="33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="189" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="190" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="191" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C192" s="33" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="193" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D193" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F193" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="G193" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="I193" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="L193" s="33" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="194" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="195" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="2:13" s="30" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="D196" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E196" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F196" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="G196" s="30" t="s">
-        <v>400</v>
-      </c>
-      <c r="M196" s="32"/>
-    </row>
-    <row r="197" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C197" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="M197" s="32"/>
-    </row>
-    <row r="198" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="M198" s="32"/>
-    </row>
-    <row r="199" spans="2:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="M199" s="32"/>
-    </row>
-    <row r="200" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="203" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D203" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F203" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="G203" s="33" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="204" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D204" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F204" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="G204" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="J204" s="33">
-        <v>2020</v>
-      </c>
-      <c r="K204" s="33">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="205" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D205" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="F205" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="G205" s="33" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="206" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D206" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F206" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="G206" s="33" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="207" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D207" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E207" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F207" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="G207" s="33" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="208" spans="2:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C208" s="33" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D209" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="F209" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="G209" s="33" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C213" s="33" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D214" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F214" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="G214" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="I214" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="L214" s="33" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="M216" s="32"/>
-    </row>
-    <row r="217" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="31"/>
-      <c r="C217" s="31"/>
-      <c r="D217" s="31"/>
-      <c r="E217" s="31"/>
-      <c r="F217" s="31"/>
-      <c r="G217" s="31"/>
-      <c r="H217" s="31"/>
-      <c r="M217" s="32"/>
-    </row>
-    <row r="218" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C218" s="31"/>
-      <c r="D218" s="31"/>
-      <c r="E218" s="31"/>
-      <c r="F218" s="31"/>
-      <c r="G218" s="31"/>
-      <c r="H218" s="31"/>
-      <c r="M218" s="32"/>
-    </row>
-    <row r="219" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C219" s="31"/>
-      <c r="D219" s="31"/>
-      <c r="E219" s="31"/>
-      <c r="F219" s="31"/>
-      <c r="G219" s="31"/>
-      <c r="H219" s="31"/>
-      <c r="M219" s="32"/>
-    </row>
-    <row r="220" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C220" s="31"/>
-      <c r="D220" s="31"/>
-      <c r="E220" s="31"/>
-      <c r="F220" s="31"/>
-      <c r="G220" s="31"/>
-      <c r="H220" s="31"/>
-      <c r="M220" s="32"/>
-    </row>
-    <row r="221" spans="1:13" s="30" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B221" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="C221" s="31"/>
-      <c r="D221" s="31"/>
-      <c r="E221" s="31"/>
-      <c r="F221" s="31"/>
-      <c r="G221" s="31"/>
-      <c r="H221" s="31"/>
-      <c r="M221" s="32"/>
-    </row>
-    <row r="222" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="31"/>
-      <c r="C222" s="31"/>
-      <c r="D222" s="31"/>
-      <c r="E222" s="31"/>
-      <c r="F222" s="31"/>
-      <c r="G222" s="31"/>
-      <c r="H222" s="31"/>
-      <c r="M222" s="32"/>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C223" s="8"/>
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="C224" s="8"/>
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
     </row>
     <row r="225" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B225" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C225" s="8"/>
+      <c r="D225" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="E225" s="9"/>
-      <c r="F225" s="9"/>
+      <c r="F225" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="226" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C226" s="8"/>
-      <c r="E226" s="9"/>
-      <c r="F226" s="9"/>
+      <c r="B226" s="19"/>
+      <c r="C226" s="19"/>
+      <c r="D226" s="13"/>
+      <c r="E226" s="19"/>
+      <c r="F226" s="13"/>
+      <c r="G226" s="19"/>
+      <c r="H226" s="19"/>
     </row>
     <row r="227" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C227" s="8"/>
+      <c r="C227" s="9"/>
       <c r="D227" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E227" s="9"/>
       <c r="F227" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>386</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="G227" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="N227" s="8"/>
     </row>
     <row r="228" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B228" s="19"/>
-      <c r="C228" s="19"/>
-      <c r="D228" s="13"/>
-      <c r="E228" s="19"/>
-      <c r="F228" s="13"/>
-      <c r="G228" s="19"/>
-      <c r="H228" s="19"/>
+      <c r="D228" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F228" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="229" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C229" s="9"/>
-      <c r="D229" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E229" s="9"/>
+      <c r="D229" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="F229" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G229" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="N229" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="230" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D230" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F230" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G230" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="B230" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C230" s="19"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="19"/>
+      <c r="F230" s="13"/>
+      <c r="G230" s="19"/>
+      <c r="H230" s="19"/>
     </row>
     <row r="231" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D231" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E231" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="E231" s="8"/>
       <c r="F231" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G231" s="2" t="s">
-        <v>204</v>
+        <v>265</v>
+      </c>
+      <c r="P231" t="s">
+        <v>246</v>
+      </c>
+      <c r="W231" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B232" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C232" s="19"/>
-      <c r="D232" s="13"/>
-      <c r="E232" s="19"/>
-      <c r="F232" s="13"/>
-      <c r="G232" s="19"/>
-      <c r="H232" s="19"/>
+      <c r="D232" s="8"/>
+      <c r="E232" s="8"/>
+      <c r="F232" s="9"/>
     </row>
     <row r="233" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D233" s="8" t="s">
-        <v>269</v>
+        <v>4</v>
       </c>
       <c r="E233" s="8"/>
       <c r="F233" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="P233" t="s">
-        <v>251</v>
-      </c>
-      <c r="W233" s="2" t="b">
-        <v>1</v>
+        <v>256</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
       <c r="F234" s="9"/>
-    </row>
-    <row r="235" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D235" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E235" s="8"/>
-      <c r="F235" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="236" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
-      <c r="F236" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -4941,7 +5024,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -4952,7 +5035,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -4963,13 +5046,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B13" s="2">
         <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5038,10 +5121,10 @@
         <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D21" t="s">
         <v>73</v>
@@ -5066,10 +5149,10 @@
         <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D23" t="s">
         <v>74</v>
@@ -5349,7 +5432,7 @@
         <v>88</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5396,7 +5479,7 @@
         <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -5457,7 +5540,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B71" s="2">
         <v>1</v>
@@ -5468,7 +5551,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B72" s="2">
         <v>2</v>
@@ -5479,7 +5562,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B73" s="2">
         <v>3</v>
@@ -5490,13 +5573,13 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B74" s="2">
         <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -5504,35 +5587,35 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B77" s="2">
         <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B78" s="2">
         <v>3</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6034,18 +6117,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6093,143 +6176,143 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>337</v>
+        <v>330</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B17" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>353</v>
+        <v>347</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B21" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>358</v>
+        <v>352</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B25" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>383</v>
+        <v>377</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B29" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -6240,10 +6323,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:XFD121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6457,7 +6540,7 @@
         <v>88</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -6774,18 +6857,18 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -6793,7 +6876,327 @@
         <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>272</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>58</v>
+      </c>
+      <c r="B104" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>169</v>
+      </c>
+      <c r="B106" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>169</v>
+      </c>
+      <c r="B109" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>169</v>
+      </c>
+      <c r="B113" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>169</v>
+      </c>
+      <c r="B116" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
+++ b/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\inclusao\forms\inclusao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\inclusao\forms\inclusao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA81E3F2-9F57-4493-8BAA-D4402D473565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820A6D5A-6F88-48CC-81DA-21FC30401BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="415">
   <si>
     <t>type</t>
   </si>
@@ -898,9 +898,6 @@
     <t>MUAC</t>
   </si>
   <si>
-    <t>intensidadeDK</t>
-  </si>
-  <si>
     <t>Não sabe</t>
   </si>
   <si>
@@ -1071,9 +1068,6 @@
     <t>nao_futuro1</t>
   </si>
   <si>
-    <t>calculates.nao_data1() || calculates.nao_futuro1()&lt;0</t>
-  </si>
-  <si>
     <t>adate.diffInDays(data('date_adm1'),calculates.hoje())</t>
   </si>
   <si>
@@ -1125,9 +1119,6 @@
     <t>adate.diffInDays(data('date_adm2'),calculates.hoje())</t>
   </si>
   <si>
-    <t>calculates.nao_data2() || calculates.nao_futuro2()&lt;0</t>
-  </si>
-  <si>
     <t>nao_data3</t>
   </si>
   <si>
@@ -1143,9 +1134,6 @@
     <t>erro_data3</t>
   </si>
   <si>
-    <t>calculates.nao_data3() || calculates.nao_futuro3()&lt;0</t>
-  </si>
-  <si>
     <t>med_adm3</t>
   </si>
   <si>
@@ -1215,9 +1203,6 @@
     <t>adate.diffInDays(data('date_adm4'),calculates.hoje())</t>
   </si>
   <si>
-    <t>calculates.nao_data4() || calculates.nao_futuro4()&lt;0</t>
-  </si>
-  <si>
     <t>{{calculates.date_rastreio_display}}    |    {{calculates.dn_idade_display}}</t>
   </si>
   <si>
@@ -1324,6 +1309,18 @@
   </si>
   <si>
     <t>data('outros_med4')=='1'</t>
+  </si>
+  <si>
+    <t>(calculates.nao_data1() || calculates.nao_futuro1()&lt;0) &amp;&amp; data('outros_med')=='1'</t>
+  </si>
+  <si>
+    <t>(calculates.nao_data2() || calculates.nao_futuro2()&lt;0) &amp;&amp; data('outros_med2')=='1'</t>
+  </si>
+  <si>
+    <t>(calculates.nao_data3() || calculates.nao_futuro3()&lt;0) &amp;&amp; data('outros_med3')=='1'</t>
+  </si>
+  <si>
+    <t>(calculates.nao_data4() || calculates.nao_futuro4()&lt;0) &amp;&amp; data('outros_med4')=='1'</t>
   </si>
 </sst>
 </file>
@@ -2016,18 +2013,18 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2038,7 +2035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2046,7 +2043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2054,7 +2051,7 @@
         <v>2020071900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2062,7 +2059,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2070,7 +2067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>218</v>
       </c>
@@ -2093,14 +2090,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y234"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E134" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F220" activeCellId="1" sqref="D139:D220 F139:F220"/>
+      <selection pane="bottomRight" activeCell="A110" sqref="A110:XFD110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -2121,7 +2118,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -2198,7 +2195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="7"/>
@@ -2212,7 +2209,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
@@ -2220,7 +2217,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
         <v>61</v>
@@ -2233,7 +2230,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
         <v>264</v>
@@ -2249,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -2257,7 +2254,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
@@ -2265,7 +2262,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
         <v>61</v>
@@ -2278,20 +2275,20 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
         <v>61</v>
@@ -2305,27 +2302,27 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C15" s="8"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
         <v>10</v>
@@ -2343,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
         <v>88</v>
@@ -2356,16 +2353,16 @@
         <v>272</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
         <v>88</v>
@@ -2378,16 +2375,16 @@
         <v>106</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
         <v>10</v>
@@ -2405,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B23" s="2" t="s">
         <v>109</v>
       </c>
@@ -2415,7 +2412,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
         <v>58</v>
@@ -2431,7 +2428,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B25" s="2" t="s">
         <v>112</v>
       </c>
@@ -2439,12 +2436,12 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C26" s="8"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2452,12 +2449,12 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C28" s="8"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
@@ -2465,7 +2462,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C30" s="8"/>
       <c r="D30" s="9" t="s">
         <v>58</v>
@@ -2481,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
         <v>5</v>
@@ -2503,7 +2500,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
         <v>58</v>
@@ -2519,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
         <v>5</v>
@@ -2541,7 +2538,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B34" s="2" t="s">
         <v>50</v>
       </c>
@@ -2551,7 +2548,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
         <v>58</v>
@@ -2567,7 +2564,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" ht="78.75" x14ac:dyDescent="0.5">
       <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
         <v>5</v>
@@ -2589,7 +2586,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
@@ -2597,12 +2594,12 @@
       <c r="E37" s="10"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
@@ -2611,7 +2608,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="20"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B40" s="2" t="s">
         <v>50</v>
       </c>
@@ -2621,7 +2618,7 @@
       <c r="E40" s="19"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C41" s="8"/>
       <c r="D41" s="9" t="s">
         <v>61</v>
@@ -2634,7 +2631,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2642,7 +2639,7 @@
       <c r="E42" s="19"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
@@ -2650,7 +2647,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C44" s="8"/>
       <c r="D44" s="9" t="s">
         <v>58</v>
@@ -2666,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C45" s="8"/>
       <c r="D45" s="9" t="s">
         <v>58</v>
@@ -2682,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C46" s="8"/>
       <c r="D46" s="9" t="s">
         <v>4</v>
@@ -2698,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B47" s="2" t="s">
         <v>52</v>
       </c>
@@ -2706,12 +2703,12 @@
       <c r="E47" s="10"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C48" s="8"/>
       <c r="E48" s="10"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
@@ -2719,14 +2716,14 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A50"/>
       <c r="C50" s="8"/>
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>47</v>
+        <v>391</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>209</v>
@@ -2738,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D51" s="9" t="s">
         <v>10</v>
       </c>
@@ -2755,20 +2752,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B54" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D55" s="9" t="s">
         <v>10</v>
       </c>
@@ -2785,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D56" s="9" t="s">
         <v>10</v>
       </c>
@@ -2802,17 +2799,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B57" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B58" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D59" s="9" t="s">
         <v>10</v>
       </c>
@@ -2829,12 +2826,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D60" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>274</v>
+        <v>132</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>142</v>
@@ -2846,17 +2843,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B61" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B62" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D63" s="9" t="s">
         <v>10</v>
       </c>
@@ -2873,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.5">
       <c r="C64" s="8"/>
       <c r="D64" s="9" t="s">
         <v>10</v>
@@ -2891,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B65" s="2" t="s">
         <v>52</v>
       </c>
@@ -2899,7 +2896,7 @@
       <c r="E65" s="19"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B66" s="2" t="s">
         <v>51</v>
       </c>
@@ -2907,13 +2904,13 @@
       <c r="E66" s="19"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.5">
       <c r="C67" s="9"/>
       <c r="D67" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>147</v>
@@ -2925,13 +2922,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.5">
       <c r="C68" s="8"/>
       <c r="D68" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>150</v>
@@ -2943,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B69" s="2" t="s">
         <v>152</v>
       </c>
@@ -2953,7 +2950,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="12" t="s">
@@ -2971,7 +2968,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B71" s="10" t="s">
         <v>156</v>
       </c>
@@ -2983,7 +2980,7 @@
       <c r="H71" s="10"/>
       <c r="M71" s="5"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A72"/>
       <c r="B72" s="2" t="s">
         <v>52</v>
@@ -2991,14 +2988,14 @@
       <c r="D72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>163</v>
@@ -3011,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B74" s="34" t="s">
         <v>164</v>
       </c>
@@ -3025,7 +3022,7 @@
       <c r="H74" s="34"/>
       <c r="M74" s="35"/>
     </row>
-    <row r="75" spans="1:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B75" s="34"/>
       <c r="C75" s="34"/>
       <c r="D75" s="34" t="s">
@@ -3033,29 +3030,29 @@
       </c>
       <c r="E75" s="34"/>
       <c r="F75" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G75" s="34" t="s">
         <v>166</v>
       </c>
       <c r="H75" s="34"/>
       <c r="I75" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L75" s="33" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M75" s="35"/>
       <c r="N75" s="34" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B76" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D76" s="34"/>
       <c r="E76" s="34"/>
@@ -3064,7 +3061,7 @@
       <c r="H76" s="34"/>
       <c r="M76" s="35"/>
     </row>
-    <row r="77" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B77" s="34" t="s">
         <v>51</v>
       </c>
@@ -3076,7 +3073,7 @@
       <c r="H77" s="34"/>
       <c r="M77" s="35"/>
     </row>
-    <row r="78" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B78" s="34"/>
       <c r="C78" s="34"/>
       <c r="D78" s="34" t="s">
@@ -3084,15 +3081,15 @@
       </c>
       <c r="E78" s="34"/>
       <c r="F78" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="G78" s="34" t="s">
         <v>306</v>
-      </c>
-      <c r="G78" s="34" t="s">
-        <v>307</v>
       </c>
       <c r="H78" s="34"/>
       <c r="M78" s="35"/>
     </row>
-    <row r="79" spans="1:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
       <c r="D79" s="34" t="s">
@@ -3100,21 +3097,21 @@
       </c>
       <c r="E79" s="34"/>
       <c r="F79" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H79" s="34"/>
       <c r="I79" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M79" s="35"/>
       <c r="N79" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B80" s="34"/>
       <c r="C80" s="34"/>
       <c r="D80" s="34" t="s">
@@ -3124,55 +3121,55 @@
         <v>47</v>
       </c>
       <c r="F80" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H80" s="34"/>
       <c r="M80" s="35"/>
       <c r="N80" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C81" s="34"/>
       <c r="D81" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E81" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="G81" s="34" t="s">
         <v>287</v>
-      </c>
-      <c r="F81" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="G81" s="34" t="s">
-        <v>288</v>
       </c>
       <c r="H81" s="34"/>
       <c r="M81" s="35"/>
       <c r="N81" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B82" s="33" t="s">
         <v>52</v>
       </c>
       <c r="M82" s="35"/>
     </row>
-    <row r="83" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B83" s="33" t="s">
         <v>53</v>
       </c>
       <c r="M83" s="35"/>
     </row>
-    <row r="84" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B84" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D84" s="34"/>
       <c r="E84" s="34"/>
@@ -3181,25 +3178,25 @@
       <c r="H84" s="34"/>
       <c r="M84" s="35"/>
     </row>
-    <row r="85" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B85" s="33" t="s">
         <v>51</v>
       </c>
       <c r="M85" s="35"/>
     </row>
-    <row r="86" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D86" s="33" t="s">
         <v>61</v>
       </c>
       <c r="F86" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="G86" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="G86" s="33" t="s">
-        <v>310</v>
-      </c>
       <c r="M86" s="35"/>
     </row>
-    <row r="87" spans="2:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
       <c r="D87" s="34" t="s">
@@ -3207,21 +3204,21 @@
       </c>
       <c r="E87" s="34"/>
       <c r="F87" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G87" s="34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H87" s="34"/>
       <c r="I87" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M87" s="35"/>
       <c r="N87" s="34" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
       <c r="D88" s="34" t="s">
@@ -3231,55 +3228,55 @@
         <v>47</v>
       </c>
       <c r="F88" s="34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G88" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H88" s="34"/>
       <c r="M88" s="35"/>
       <c r="N88" s="34" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C89" s="34"/>
       <c r="D89" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E89" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G89" s="34" t="s">
         <v>287</v>
-      </c>
-      <c r="F89" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="G89" s="34" t="s">
-        <v>288</v>
       </c>
       <c r="H89" s="34"/>
       <c r="M89" s="35"/>
       <c r="N89" s="34" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B90" s="33" t="s">
         <v>52</v>
       </c>
       <c r="M90" s="35"/>
     </row>
-    <row r="91" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B91" s="33" t="s">
         <v>53</v>
       </c>
       <c r="M91" s="35"/>
     </row>
-    <row r="92" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B92" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D92" s="34"/>
       <c r="E92" s="34"/>
@@ -3288,25 +3285,25 @@
       <c r="H92" s="34"/>
       <c r="M92" s="35"/>
     </row>
-    <row r="93" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B93" s="33" t="s">
         <v>51</v>
       </c>
       <c r="M93" s="35"/>
     </row>
-    <row r="94" spans="2:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D94" s="33" t="s">
         <v>61</v>
       </c>
       <c r="F94" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="G94" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="G94" s="33" t="s">
-        <v>312</v>
-      </c>
       <c r="M94" s="35"/>
     </row>
-    <row r="95" spans="2:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
       <c r="D95" s="34" t="s">
@@ -3314,21 +3311,21 @@
       </c>
       <c r="E95" s="34"/>
       <c r="F95" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H95" s="34"/>
       <c r="I95" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M95" s="35"/>
       <c r="N95" s="34" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
       <c r="D96" s="34" t="s">
@@ -3338,38 +3335,38 @@
         <v>47</v>
       </c>
       <c r="F96" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H96" s="34"/>
       <c r="M96" s="35"/>
       <c r="N96" s="34" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="97" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="97" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C97" s="34"/>
       <c r="D97" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E97" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="F97" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G97" s="34" t="s">
         <v>287</v>
-      </c>
-      <c r="F97" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="G97" s="34" t="s">
-        <v>288</v>
       </c>
       <c r="H97" s="34"/>
       <c r="M97" s="35"/>
       <c r="N97" s="34" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="98" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B98" s="33" t="s">
         <v>52</v>
       </c>
@@ -3382,18 +3379,18 @@
       <c r="M98" s="35"/>
       <c r="N98" s="34"/>
     </row>
-    <row r="99" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B99" s="33" t="s">
         <v>53</v>
       </c>
       <c r="M99" s="35"/>
     </row>
-    <row r="100" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B100" s="34" t="s">
         <v>50</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D100" s="34"/>
       <c r="E100" s="34"/>
@@ -3402,22 +3399,22 @@
       <c r="H100" s="34"/>
       <c r="M100" s="35"/>
     </row>
-    <row r="101" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B101" s="33" t="s">
         <v>51</v>
       </c>
       <c r="M101" s="35"/>
     </row>
-    <row r="102" spans="2:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D102" s="33" t="s">
         <v>61</v>
       </c>
       <c r="G102" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M102" s="35"/>
     </row>
-    <row r="103" spans="2:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
       <c r="D103" s="34" t="s">
@@ -3425,21 +3422,21 @@
       </c>
       <c r="E103" s="34"/>
       <c r="F103" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G103" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H103" s="34"/>
       <c r="I103" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M103" s="35"/>
       <c r="N103" s="34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="104" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="104" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B104" s="34"/>
       <c r="C104" s="34"/>
       <c r="D104" s="34" t="s">
@@ -3449,38 +3446,38 @@
         <v>47</v>
       </c>
       <c r="F104" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G104" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H104" s="34"/>
       <c r="M104" s="35"/>
       <c r="N104" s="34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="105" spans="2:23" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="105" spans="2:23" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C105" s="34"/>
       <c r="D105" s="34" t="s">
         <v>10</v>
       </c>
       <c r="E105" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="F105" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="G105" s="34" t="s">
         <v>287</v>
-      </c>
-      <c r="F105" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="G105" s="34" t="s">
-        <v>288</v>
       </c>
       <c r="H105" s="34"/>
       <c r="M105" s="35"/>
       <c r="N105" s="34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="106" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B106" s="34" t="s">
         <v>52</v>
       </c>
@@ -3492,16 +3489,16 @@
       <c r="H106" s="34"/>
       <c r="M106" s="35"/>
     </row>
-    <row r="107" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B107" s="33" t="s">
         <v>53</v>
       </c>
       <c r="M107" s="35"/>
     </row>
-    <row r="108" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M108" s="35"/>
     </row>
-    <row r="109" spans="2:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B109" s="34" t="s">
         <v>167</v>
       </c>
@@ -3513,7 +3510,7 @@
       <c r="H109" s="34"/>
       <c r="M109" s="35"/>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B110" s="10" t="s">
         <v>51</v>
       </c>
@@ -3524,7 +3521,7 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="8" t="s">
@@ -3543,13 +3540,13 @@
         <v>2020</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W111" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="12" t="s">
@@ -3560,11 +3557,11 @@
         <v>181</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="12" t="s">
@@ -3582,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:23" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="12" t="s">
@@ -3608,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="12" t="s">
@@ -3628,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B116" s="2" t="s">
         <v>50</v>
       </c>
@@ -3639,7 +3636,7 @@
       <c r="E116" s="8"/>
       <c r="F116" s="9"/>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D117" s="8" t="s">
         <v>169</v>
       </c>
@@ -3654,7 +3651,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B118" s="2" t="s">
         <v>53</v>
       </c>
@@ -3662,7 +3659,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="9"/>
     </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B119" s="2" t="s">
         <v>52</v>
       </c>
@@ -3670,12 +3667,12 @@
       <c r="E119" s="8"/>
       <c r="F119" s="9"/>
     </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="9"/>
     </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B121" s="19" t="s">
         <v>51</v>
       </c>
@@ -3686,7 +3683,7 @@
       <c r="G121" s="19"/>
       <c r="H121" s="19"/>
     </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
       <c r="D122" s="8" t="s">
@@ -3707,13 +3704,13 @@
         <v>2020</v>
       </c>
       <c r="P122" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W122" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:23" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
       <c r="D123" s="13" t="s">
@@ -3724,11 +3721,11 @@
         <v>182</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H123" s="19"/>
     </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
       <c r="D124" s="13" t="s">
@@ -3746,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:23" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
       <c r="D125" s="13" t="s">
@@ -3772,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
       <c r="D126" s="13" t="s">
@@ -3792,7 +3789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B127" s="2" t="s">
         <v>50</v>
       </c>
@@ -3803,7 +3800,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D128" s="8" t="s">
         <v>169</v>
       </c>
@@ -3815,7 +3812,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B129" s="2" t="s">
         <v>53</v>
       </c>
@@ -3826,7 +3823,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B130" s="2" t="s">
         <v>52</v>
       </c>
@@ -3834,12 +3831,12 @@
       <c r="E130" s="8"/>
       <c r="F130" s="9"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.5">
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
       <c r="D132" s="13" t="s">
@@ -3849,7 +3846,7 @@
         <v>47</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G132" s="19" t="s">
         <v>193</v>
@@ -3859,12 +3856,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B133" s="30" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D133" s="30"/>
       <c r="E133" s="30"/>
@@ -3873,9 +3870,9 @@
       <c r="H133" s="30"/>
       <c r="M133" s="31"/>
     </row>
-    <row r="134" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B134" s="30" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C134" s="30"/>
       <c r="D134" s="30"/>
@@ -3885,7 +3882,7 @@
       <c r="H134" s="30"/>
       <c r="M134" s="31"/>
     </row>
-    <row r="135" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B135" s="30"/>
       <c r="C135" s="30"/>
       <c r="D135" s="30"/>
@@ -3895,9 +3892,9 @@
       <c r="H135" s="30"/>
       <c r="M135" s="31"/>
     </row>
-    <row r="136" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B136" s="30" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C136" s="30"/>
       <c r="D136" s="30"/>
@@ -3907,7 +3904,7 @@
       <c r="H136" s="30"/>
       <c r="M136" s="31"/>
     </row>
-    <row r="137" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B137" s="30"/>
       <c r="C137" s="30"/>
       <c r="D137" s="30"/>
@@ -3917,7 +3914,7 @@
       <c r="H137" s="30"/>
       <c r="M137" s="31"/>
     </row>
-    <row r="138" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B138" s="30" t="s">
         <v>51</v>
       </c>
@@ -3929,7 +3926,7 @@
       <c r="H138" s="30"/>
       <c r="M138" s="31"/>
     </row>
-    <row r="139" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B139" s="30"/>
       <c r="C139" s="30"/>
       <c r="D139" s="30" t="s">
@@ -3945,7 +3942,7 @@
       <c r="H139" s="30"/>
       <c r="M139" s="31"/>
     </row>
-    <row r="140" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B140" s="30"/>
       <c r="C140" s="30"/>
       <c r="D140" s="30" t="s">
@@ -3953,18 +3950,18 @@
       </c>
       <c r="E140" s="30"/>
       <c r="F140" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G140" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H140" s="30"/>
       <c r="M140" s="31"/>
       <c r="N140" s="30" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B141" s="30"/>
       <c r="C141" s="30"/>
       <c r="D141" s="30" t="s">
@@ -3972,7 +3969,7 @@
       </c>
       <c r="E141" s="30"/>
       <c r="F141" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G141" s="30" t="s">
         <v>168</v>
@@ -3986,10 +3983,10 @@
       </c>
       <c r="M141" s="31"/>
       <c r="N141" s="30" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B142" s="30"/>
       <c r="C142" s="30"/>
       <c r="D142" s="30" t="s">
@@ -3997,7 +3994,7 @@
       </c>
       <c r="E142" s="30"/>
       <c r="F142" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G142" s="30" t="s">
         <v>170</v>
@@ -4005,10 +4002,10 @@
       <c r="H142" s="30"/>
       <c r="M142" s="31"/>
       <c r="N142" s="30" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B143" s="30"/>
       <c r="C143" s="30"/>
       <c r="D143" s="30" t="s">
@@ -4016,18 +4013,18 @@
       </c>
       <c r="E143" s="30"/>
       <c r="F143" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G143" s="30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H143" s="30"/>
       <c r="M143" s="31"/>
       <c r="N143" s="30" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B144" s="30"/>
       <c r="C144" s="30"/>
       <c r="D144" s="30" t="s">
@@ -4037,7 +4034,7 @@
         <v>47</v>
       </c>
       <c r="F144" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G144" s="30" t="s">
         <v>172</v>
@@ -4045,88 +4042,88 @@
       <c r="H144" s="30"/>
       <c r="M144" s="31"/>
       <c r="N144" s="30" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B145" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C145" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M145" s="31"/>
       <c r="N145" s="30" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D146" s="29" t="s">
         <v>169</v>
       </c>
       <c r="F146" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G146" s="29" t="s">
         <v>174</v>
       </c>
       <c r="M146" s="31"/>
     </row>
-    <row r="147" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B147" s="29" t="s">
         <v>53</v>
       </c>
       <c r="M147" s="31"/>
       <c r="N147" s="29" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B148" s="29" t="s">
         <v>52</v>
       </c>
       <c r="M148" s="31"/>
     </row>
-    <row r="149" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M149" s="31"/>
     </row>
-    <row r="150" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B150" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C150" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M150" s="31"/>
     </row>
-    <row r="151" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D151" s="29" t="s">
         <v>61</v>
       </c>
       <c r="F151" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G151" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="I151" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="I151" s="29" t="s">
-        <v>319</v>
-      </c>
       <c r="L151" s="29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M151" s="31"/>
     </row>
-    <row r="152" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B152" s="29" t="s">
         <v>53</v>
       </c>
       <c r="M152" s="31"/>
     </row>
-    <row r="153" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M153" s="31"/>
     </row>
-    <row r="154" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D154" s="29" t="s">
         <v>10</v>
       </c>
@@ -4134,62 +4131,62 @@
         <v>47</v>
       </c>
       <c r="F154" s="29" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G154" s="29" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="M154" s="31"/>
       <c r="N154" s="30" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B155" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M155" s="31"/>
     </row>
-    <row r="156" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B156" s="29" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M156" s="31"/>
     </row>
-    <row r="157" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B157" s="29" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M157" s="31"/>
     </row>
-    <row r="158" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B158" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D159" s="32" t="s">
         <v>58</v>
       </c>
       <c r="F159" s="32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N159" s="30" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D160" s="32" t="s">
         <v>63</v>
       </c>
       <c r="F160" s="32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G160" s="32" t="s">
         <v>168</v>
@@ -4201,38 +4198,38 @@
         <v>2020</v>
       </c>
       <c r="N160" s="30" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D161" s="32" t="s">
         <v>169</v>
       </c>
       <c r="F161" s="32" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G161" s="32" t="s">
         <v>170</v>
       </c>
       <c r="N161" s="30" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D162" s="32" t="s">
         <v>4</v>
       </c>
       <c r="F162" s="32" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N162" s="30" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="163" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D163" s="32" t="s">
         <v>10</v>
       </c>
@@ -4240,82 +4237,82 @@
         <v>47</v>
       </c>
       <c r="F163" s="32" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G163" s="32" t="s">
         <v>172</v>
       </c>
       <c r="N163" s="30" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="164" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B164" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="165" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D165" s="32" t="s">
         <v>169</v>
       </c>
       <c r="F165" s="32" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G165" s="32" t="s">
         <v>174</v>
       </c>
       <c r="N165" s="32" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B166" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="167" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B167" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="169" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B169" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D170" s="32" t="s">
         <v>61</v>
       </c>
       <c r="F170" s="32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G170" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="I170" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="I170" s="32" t="s">
-        <v>319</v>
-      </c>
       <c r="L170" s="32" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B171" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M172" s="31"/>
     </row>
-    <row r="173" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D173" s="29" t="s">
         <v>10</v>
       </c>
@@ -4323,68 +4320,68 @@
         <v>47</v>
       </c>
       <c r="F173" s="29" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G173" s="29" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M173" s="31"/>
       <c r="N173" s="30" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="174" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B174" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C174" s="29" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="M174" s="31"/>
     </row>
-    <row r="175" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B175" s="29" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M175" s="31"/>
     </row>
-    <row r="176" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B176" s="29" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M176" s="31"/>
     </row>
-    <row r="177" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M177" s="31"/>
     </row>
-    <row r="178" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M178" s="31"/>
     </row>
-    <row r="179" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B179" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D180" s="32" t="s">
         <v>58</v>
       </c>
       <c r="F180" s="32" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G180" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N180" s="30" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="181" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D181" s="32" t="s">
         <v>63</v>
       </c>
       <c r="F181" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G181" s="32" t="s">
         <v>168</v>
@@ -4396,38 +4393,38 @@
         <v>2020</v>
       </c>
       <c r="N181" s="30" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D182" s="32" t="s">
         <v>169</v>
       </c>
       <c r="F182" s="32" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G182" s="32" t="s">
         <v>170</v>
       </c>
       <c r="N182" s="30" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D183" s="32" t="s">
         <v>4</v>
       </c>
       <c r="F183" s="32" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G183" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N183" s="30" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="184" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D184" s="32" t="s">
         <v>10</v>
       </c>
@@ -4435,80 +4432,80 @@
         <v>47</v>
       </c>
       <c r="F184" s="32" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G184" s="32" t="s">
         <v>172</v>
       </c>
       <c r="N184" s="30" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="185" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B185" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="186" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D186" s="32" t="s">
         <v>169</v>
       </c>
       <c r="F186" s="32" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G186" s="32" t="s">
         <v>174</v>
       </c>
       <c r="N186" s="32" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="187" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B187" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="188" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B188" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="189" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="190" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B190" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="191" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D191" s="32" t="s">
         <v>61</v>
       </c>
       <c r="F191" s="32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G191" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="I191" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="I191" s="32" t="s">
-        <v>319</v>
-      </c>
       <c r="L191" s="32" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="192" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B192" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="193" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="2:14" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="194" spans="2:14" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
       <c r="D194" s="29" t="s">
         <v>10</v>
       </c>
@@ -4516,64 +4513,64 @@
         <v>47</v>
       </c>
       <c r="F194" s="29" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G194" s="29" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="M194" s="31"/>
       <c r="N194" s="30" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="195" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B195" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C195" s="29" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M195" s="31"/>
     </row>
-    <row r="196" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B196" s="29" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M196" s="31"/>
     </row>
-    <row r="197" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B197" s="29" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M197" s="31"/>
     </row>
-    <row r="198" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="199" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="200" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B200" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D201" s="32" t="s">
         <v>58</v>
       </c>
       <c r="F201" s="32" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G201" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N201" s="30" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="202" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D202" s="32" t="s">
         <v>63</v>
       </c>
       <c r="F202" s="32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G202" s="32" t="s">
         <v>168</v>
@@ -4585,38 +4582,38 @@
         <v>2020</v>
       </c>
       <c r="N202" s="30" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="203" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D203" s="32" t="s">
         <v>169</v>
       </c>
       <c r="F203" s="32" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G203" s="32" t="s">
         <v>170</v>
       </c>
       <c r="N203" s="30" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="204" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D204" s="32" t="s">
         <v>4</v>
       </c>
       <c r="F204" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G204" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N204" s="30" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="205" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D205" s="32" t="s">
         <v>10</v>
       </c>
@@ -4624,82 +4621,82 @@
         <v>47</v>
       </c>
       <c r="F205" s="32" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G205" s="32" t="s">
         <v>172</v>
       </c>
       <c r="N205" s="30" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="206" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B206" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="207" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D207" s="32" t="s">
         <v>169</v>
       </c>
       <c r="F207" s="32" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G207" s="32" t="s">
         <v>174</v>
       </c>
       <c r="N207" s="32" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="208" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B208" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="209" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B209" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="210" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="211" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B211" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D212" s="32" t="s">
         <v>61</v>
       </c>
       <c r="F212" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G212" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="I212" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="I212" s="32" t="s">
-        <v>319</v>
-      </c>
       <c r="L212" s="32" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B213" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="214" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M214" s="31"/>
     </row>
-    <row r="215" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B215" s="30"/>
       <c r="C215" s="30"/>
       <c r="D215" s="30"/>
@@ -4709,7 +4706,7 @@
       <c r="H215" s="30"/>
       <c r="M215" s="31"/>
     </row>
-    <row r="216" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B216" s="30" t="s">
         <v>53</v>
       </c>
@@ -4721,7 +4718,7 @@
       <c r="H216" s="30"/>
       <c r="M216" s="31"/>
     </row>
-    <row r="217" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B217" s="30" t="s">
         <v>53</v>
       </c>
@@ -4733,7 +4730,7 @@
       <c r="H217" s="30"/>
       <c r="M217" s="31"/>
     </row>
-    <row r="218" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B218" s="30" t="s">
         <v>53</v>
       </c>
@@ -4745,9 +4742,9 @@
       <c r="H218" s="30"/>
       <c r="M218" s="31"/>
     </row>
-    <row r="219" spans="1:13" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B219" s="30" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C219" s="30"/>
       <c r="D219" s="30"/>
@@ -4757,7 +4754,7 @@
       <c r="H219" s="30"/>
       <c r="M219" s="31"/>
     </row>
-    <row r="220" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B220" s="30"/>
       <c r="C220" s="30"/>
       <c r="D220" s="30"/>
@@ -4767,20 +4764,20 @@
       <c r="H220" s="30"/>
       <c r="M220" s="31"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.5">
       <c r="C221" s="8"/>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A222" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C222" s="8"/>
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B223" s="2" t="s">
         <v>51</v>
       </c>
@@ -4788,12 +4785,12 @@
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.5">
       <c r="C224" s="8"/>
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
     </row>
-    <row r="225" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:23" x14ac:dyDescent="0.5">
       <c r="C225" s="8"/>
       <c r="D225" s="9" t="s">
         <v>61</v>
@@ -4803,10 +4800,10 @@
         <v>247</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="226" spans="2:23" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="226" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B226" s="19"/>
       <c r="C226" s="19"/>
       <c r="D226" s="13"/>
@@ -4815,7 +4812,7 @@
       <c r="G226" s="19"/>
       <c r="H226" s="19"/>
     </row>
-    <row r="227" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:23" x14ac:dyDescent="0.5">
       <c r="C227" s="9"/>
       <c r="D227" s="9" t="s">
         <v>61</v>
@@ -4825,11 +4822,11 @@
         <v>233</v>
       </c>
       <c r="G227" s="9" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="N227" s="8"/>
     </row>
-    <row r="228" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D228" s="9" t="s">
         <v>61</v>
       </c>
@@ -4840,7 +4837,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="229" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D229" s="8" t="s">
         <v>10</v>
       </c>
@@ -4854,7 +4851,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="230" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:23" x14ac:dyDescent="0.5">
       <c r="B230" s="19" t="s">
         <v>52</v>
       </c>
@@ -4865,7 +4862,7 @@
       <c r="G230" s="19"/>
       <c r="H230" s="19"/>
     </row>
-    <row r="231" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D231" s="8" t="s">
         <v>264</v>
       </c>
@@ -4880,12 +4877,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
       <c r="F232" s="9"/>
     </row>
-    <row r="233" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D233" s="8" t="s">
         <v>4</v>
       </c>
@@ -4897,7 +4894,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="234" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:23" x14ac:dyDescent="0.5">
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
       <c r="F234" s="9"/>
@@ -4917,13 +4914,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E234"/>
+  <dimension ref="A1:E231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A72" sqref="A72:XFD75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -4931,7 +4928,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4948,7 +4945,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4959,7 +4956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -4970,7 +4967,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
@@ -4981,7 +4978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -4992,11 +4989,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -5007,7 +5004,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -5018,13 +5015,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -5033,9 +5030,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -5044,26 +5041,26 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B13" s="2">
         <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -5074,7 +5071,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -5085,10 +5082,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
@@ -5102,7 +5099,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -5116,21 +5113,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>78</v>
       </c>
@@ -5144,21 +5141,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
@@ -5172,14 +5169,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>85</v>
       </c>
@@ -5190,7 +5187,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>85</v>
       </c>
@@ -5201,7 +5198,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -5212,15 +5209,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -5231,7 +5228,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
@@ -5242,7 +5239,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
@@ -5253,17 +5250,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>99</v>
       </c>
@@ -5274,7 +5271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>99</v>
       </c>
@@ -5285,7 +5282,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
         <v>99</v>
       </c>
@@ -5296,14 +5293,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
@@ -5314,7 +5311,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
         <v>107</v>
       </c>
@@ -5325,7 +5322,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
         <v>107</v>
       </c>
@@ -5336,7 +5333,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
         <v>107</v>
       </c>
@@ -5347,15 +5344,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
         <v>162</v>
       </c>
@@ -5366,7 +5363,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="2" t="s">
         <v>162</v>
       </c>
@@ -5377,7 +5374,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="2" t="s">
         <v>162</v>
       </c>
@@ -5388,558 +5385,525 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="2">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="2">
+        <v>88</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B55" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B56" s="2">
-        <v>3</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B57" s="2">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="2">
         <v>88</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="2">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B60" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B61" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B62" s="2">
+        <v>3</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="2">
         <v>88</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B64" s="2">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="2">
         <v>2</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B68" s="2">
-        <v>1</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" s="2">
         <v>2</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B71" s="2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A73" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="2">
         <v>1</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B72" s="2">
+      <c r="C73" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A74" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B74" s="2">
         <v>2</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B73" s="2">
+      <c r="C74" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A75" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B75" s="2">
         <v>3</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B74" s="2">
-        <v>88</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B76" s="2">
-        <v>1</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B77" s="2">
-        <v>2</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B78" s="2">
-        <v>3</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A78" s="1"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
-      <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A208" s="1"/>
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A209" s="1"/>
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A210" s="1"/>
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A211" s="1"/>
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A212" s="1"/>
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A213" s="1"/>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="C232" s="1"/>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-      <c r="C233" s="1"/>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-      <c r="C234" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5962,7 +5926,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="33.875" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -5975,7 +5939,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="18" t="s">
         <v>43</v>
       </c>
@@ -6010,7 +5974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="173.25" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -6039,14 +6003,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="16" t="s">
         <v>55</v>
       </c>
@@ -6060,7 +6024,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -6074,7 +6038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -6097,17 +6061,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -6115,23 +6079,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" t="s">
         <v>279</v>
       </c>
-      <c r="B3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>222</v>
       </c>
@@ -6139,7 +6103,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>224</v>
       </c>
@@ -6147,7 +6111,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>234</v>
       </c>
@@ -6155,7 +6119,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>237</v>
       </c>
@@ -6163,7 +6127,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>238</v>
       </c>
@@ -6171,15 +6135,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>258</v>
       </c>
@@ -6187,7 +6151,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>249</v>
       </c>
@@ -6195,7 +6159,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -6203,7 +6167,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>261</v>
       </c>
@@ -6211,7 +6175,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>269</v>
       </c>
@@ -6219,100 +6183,100 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="28" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B23" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="B25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B29" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -6329,13 +6293,13 @@
       <selection activeCell="A117" sqref="A117:XFD121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6343,7 +6307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="25" t="s">
         <v>63</v>
       </c>
@@ -6351,7 +6315,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
@@ -6359,7 +6323,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="26" t="s">
         <v>10</v>
       </c>
@@ -6367,7 +6331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
@@ -6375,7 +6339,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="25" t="s">
         <v>4</v>
       </c>
@@ -6383,7 +6347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="25" t="s">
         <v>10</v>
       </c>
@@ -6391,7 +6355,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="25" t="s">
         <v>63</v>
       </c>
@@ -6399,7 +6363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="25" t="s">
         <v>5</v>
       </c>
@@ -6407,7 +6371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="25" t="s">
         <v>5</v>
       </c>
@@ -6415,7 +6379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="25" t="s">
         <v>10</v>
       </c>
@@ -6423,7 +6387,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="25" t="s">
         <v>88</v>
       </c>
@@ -6431,7 +6395,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="25" t="s">
         <v>10</v>
       </c>
@@ -6439,7 +6403,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="25" t="s">
         <v>10</v>
       </c>
@@ -6447,7 +6411,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="25" t="s">
         <v>10</v>
       </c>
@@ -6455,7 +6419,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="25" t="s">
         <v>10</v>
       </c>
@@ -6463,7 +6427,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="25" t="s">
         <v>10</v>
       </c>
@@ -6471,7 +6435,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="25" t="s">
         <v>10</v>
       </c>
@@ -6479,7 +6443,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="25" t="s">
         <v>4</v>
       </c>
@@ -6487,7 +6451,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="25" t="s">
         <v>61</v>
       </c>
@@ -6495,7 +6459,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="25" t="s">
         <v>10</v>
       </c>
@@ -6503,7 +6467,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="21" t="s">
         <v>61</v>
       </c>
@@ -6511,7 +6475,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="22" t="s">
         <v>5</v>
       </c>
@@ -6519,7 +6483,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
         <v>58</v>
       </c>
@@ -6527,7 +6491,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="21" t="s">
         <v>10</v>
       </c>
@@ -6535,7 +6499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="21" t="s">
         <v>88</v>
       </c>
@@ -6543,7 +6507,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="21" t="s">
         <v>88</v>
       </c>
@@ -6551,7 +6515,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="21" t="s">
         <v>10</v>
       </c>
@@ -6559,7 +6523,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="21" t="s">
         <v>58</v>
       </c>
@@ -6567,7 +6531,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="21" t="s">
         <v>58</v>
       </c>
@@ -6575,7 +6539,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="21" t="s">
         <v>5</v>
       </c>
@@ -6583,7 +6547,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="23" t="s">
         <v>58</v>
       </c>
@@ -6591,7 +6555,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="23" t="s">
         <v>5</v>
       </c>
@@ -6599,7 +6563,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="23" t="s">
         <v>58</v>
       </c>
@@ -6607,7 +6571,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="23" t="s">
         <v>5</v>
       </c>
@@ -6615,7 +6579,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="23" t="s">
         <v>58</v>
       </c>
@@ -6623,7 +6587,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="23" t="s">
         <v>58</v>
       </c>
@@ -6631,7 +6595,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="23" t="s">
         <v>4</v>
       </c>
@@ -6639,7 +6603,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="24" t="s">
         <v>10</v>
       </c>
@@ -6647,7 +6611,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="24" t="s">
         <v>10</v>
       </c>
@@ -6655,7 +6619,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="24" t="s">
         <v>10</v>
       </c>
@@ -6663,7 +6627,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="24" t="s">
         <v>10</v>
       </c>
@@ -6671,7 +6635,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="24" t="s">
         <v>10</v>
       </c>
@@ -6679,7 +6643,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="24" t="s">
         <v>10</v>
       </c>
@@ -6687,7 +6651,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="24" t="s">
         <v>10</v>
       </c>
@@ -6695,7 +6659,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="24" t="s">
         <v>10</v>
       </c>
@@ -6703,7 +6667,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="24" t="s">
         <v>10</v>
       </c>
@@ -6711,7 +6675,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51" s="24" t="s">
         <v>10</v>
       </c>
@@ -6719,7 +6683,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" s="24" t="s">
         <v>4</v>
       </c>
@@ -6727,7 +6691,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="24" t="s">
         <v>10</v>
       </c>
@@ -6735,7 +6699,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="24" t="s">
         <v>63</v>
       </c>
@@ -6743,7 +6707,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="24" t="s">
         <v>169</v>
       </c>
@@ -6751,7 +6715,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="24" t="s">
         <v>10</v>
       </c>
@@ -6759,7 +6723,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" s="24" t="s">
         <v>10</v>
       </c>
@@ -6767,7 +6731,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" s="24" t="s">
         <v>169</v>
       </c>
@@ -6775,7 +6739,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" s="24" t="s">
         <v>63</v>
       </c>
@@ -6783,7 +6747,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60" s="24" t="s">
         <v>169</v>
       </c>
@@ -6791,7 +6755,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="24" t="s">
         <v>10</v>
       </c>
@@ -6799,7 +6763,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" s="24" t="s">
         <v>10</v>
       </c>
@@ -6807,7 +6771,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63" s="24" t="s">
         <v>169</v>
       </c>
@@ -6815,7 +6779,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64" s="24" t="s">
         <v>10</v>
       </c>
@@ -6823,7 +6787,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65" s="24" t="s">
         <v>61</v>
       </c>
@@ -6831,7 +6795,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66" s="24" t="s">
         <v>10</v>
       </c>
@@ -6839,7 +6803,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67" s="24" t="s">
         <v>10</v>
       </c>
@@ -6847,7 +6811,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68" s="24" t="s">
         <v>4</v>
       </c>
@@ -6855,7 +6819,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71" s="8" t="s">
         <v>264</v>
       </c>
@@ -6863,7 +6827,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72" s="9" t="s">
         <v>264</v>
       </c>
@@ -6871,7 +6835,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>58</v>
       </c>
@@ -6879,324 +6843,324 @@
         <v>267</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>10</v>
       </c>
       <c r="B79" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>58</v>
       </c>
       <c r="B81" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>10</v>
-      </c>
-      <c r="B83" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>58</v>
       </c>
       <c r="B84" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>58</v>
       </c>
       <c r="B87" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>58</v>
       </c>
       <c r="B90" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>63</v>
       </c>
       <c r="B91" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>169</v>
       </c>
       <c r="B92" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>88</v>
       </c>
       <c r="B93" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>169</v>
       </c>
       <c r="B95" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>58</v>
       </c>
       <c r="B97" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
         <v>63</v>
       </c>
       <c r="B98" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
         <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>169</v>
       </c>
       <c r="B102" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
         <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
         <v>63</v>
       </c>
       <c r="B105" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>169</v>
       </c>
       <c r="B106" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>169</v>
       </c>
       <c r="B109" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
         <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
         <v>63</v>
       </c>
       <c r="B112" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
         <v>169</v>
       </c>
       <c r="B113" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
         <v>169</v>
       </c>
       <c r="B116" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
+++ b/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\inclusao\forms\inclusao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\inclusao\forms\inclusao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820A6D5A-6F88-48CC-81DA-21FC30401BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7A5BEE-EEDE-4EF4-BF26-ACBA5ED85A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="415">
   <si>
     <t>type</t>
   </si>
@@ -1263,9 +1263,6 @@
     <t>EV (Intra-venosa)</t>
   </si>
   <si>
-    <t>data('numero_med')&gt;0</t>
-  </si>
-  <si>
     <t>else // outro_medi</t>
   </si>
   <si>
@@ -1321,6 +1318,9 @@
   </si>
   <si>
     <t>(calculates.nao_data4() || calculates.nao_futuro4()&lt;0) &amp;&amp; data('outros_med4')=='1'</t>
+  </si>
+  <si>
+    <t>hoje</t>
   </si>
 </sst>
 </file>
@@ -2017,14 +2017,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>2020071900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>218</v>
       </c>
@@ -2090,14 +2090,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E90" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="H75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A110" sqref="A110:XFD110"/>
+      <selection pane="bottomRight" activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -2118,7 +2118,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="7"/>
@@ -2209,7 +2209,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
@@ -2217,7 +2217,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:25" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
         <v>61</v>
@@ -2230,7 +2230,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
         <v>264</v>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
         <v>61</v>
@@ -2275,20 +2275,20 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
         <v>61</v>
@@ -2302,27 +2302,27 @@
       </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
         <v>10</v>
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
         <v>88</v>
@@ -2353,16 +2353,16 @@
         <v>272</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="M20" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
         <v>88</v>
@@ -2375,16 +2375,16 @@
         <v>106</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
         <v>10</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>109</v>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
         <v>58</v>
@@ -2428,7 +2428,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>112</v>
       </c>
@@ -2436,12 +2436,12 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C26" s="8"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2449,12 +2449,12 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" s="8"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="8"/>
       <c r="D30" s="9" t="s">
         <v>58</v>
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
         <v>5</v>
@@ -2500,7 +2500,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
         <v>58</v>
@@ -2516,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
         <v>5</v>
@@ -2538,7 +2538,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>50</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
         <v>58</v>
@@ -2564,7 +2564,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="C36" s="8"/>
       <c r="D36" s="9" t="s">
         <v>5</v>
@@ -2586,7 +2586,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
@@ -2594,12 +2594,12 @@
       <c r="E37" s="10"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
@@ -2608,7 +2608,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="20"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>50</v>
       </c>
@@ -2618,7 +2618,7 @@
       <c r="E40" s="19"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C41" s="8"/>
       <c r="D41" s="9" t="s">
         <v>61</v>
@@ -2631,7 +2631,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
@@ -2639,7 +2639,7 @@
       <c r="E42" s="19"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
@@ -2647,7 +2647,7 @@
       <c r="E43" s="10"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C44" s="8"/>
       <c r="D44" s="9" t="s">
         <v>58</v>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
       <c r="D45" s="9" t="s">
         <v>58</v>
@@ -2679,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C46" s="8"/>
       <c r="D46" s="9" t="s">
         <v>4</v>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>52</v>
       </c>
@@ -2703,12 +2703,12 @@
       <c r="E47" s="10"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C48" s="8"/>
       <c r="E48" s="10"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="C50" s="8"/>
       <c r="D50" s="9" t="s">
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D51" s="9" t="s">
         <v>10</v>
       </c>
@@ -2752,20 +2752,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D55" s="9" t="s">
         <v>10</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D56" s="9" t="s">
         <v>10</v>
       </c>
@@ -2799,17 +2799,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D59" s="9" t="s">
         <v>10</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D60" s="9" t="s">
         <v>10</v>
       </c>
@@ -2843,17 +2843,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D63" s="9" t="s">
         <v>10</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C64" s="8"/>
       <c r="D64" s="9" t="s">
         <v>10</v>
@@ -2888,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>52</v>
       </c>
@@ -2896,7 +2896,7 @@
       <c r="E65" s="19"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>51</v>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="E66" s="19"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C67" s="9"/>
       <c r="D67" s="9" t="s">
         <v>10</v>
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C68" s="8"/>
       <c r="D68" s="9" t="s">
         <v>10</v>
@@ -2940,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>152</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="12" t="s">
@@ -2968,7 +2968,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>156</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="H71" s="10"/>
       <c r="M71" s="5"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72" s="2" t="s">
         <v>52</v>
@@ -2988,7 +2988,7 @@
       <c r="D72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:14" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="12" t="s">
@@ -3008,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="34" t="s">
         <v>164</v>
       </c>
@@ -3022,7 +3022,7 @@
       <c r="H74" s="34"/>
       <c r="M74" s="35"/>
     </row>
-    <row r="75" spans="1:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="34"/>
       <c r="C75" s="34"/>
       <c r="D75" s="34" t="s">
@@ -3039,15 +3039,12 @@
       <c r="I75" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="L75" s="33" t="s">
-        <v>395</v>
-      </c>
       <c r="M75" s="35"/>
       <c r="N75" s="34" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="34" t="s">
         <v>50</v>
       </c>
@@ -3061,7 +3058,7 @@
       <c r="H76" s="34"/>
       <c r="M76" s="35"/>
     </row>
-    <row r="77" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="34" t="s">
         <v>51</v>
       </c>
@@ -3073,7 +3070,7 @@
       <c r="H77" s="34"/>
       <c r="M77" s="35"/>
     </row>
-    <row r="78" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="34"/>
       <c r="C78" s="34"/>
       <c r="D78" s="34" t="s">
@@ -3089,7 +3086,7 @@
       <c r="H78" s="34"/>
       <c r="M78" s="35"/>
     </row>
-    <row r="79" spans="1:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
       <c r="D79" s="34" t="s">
@@ -3111,7 +3108,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="34"/>
       <c r="C80" s="34"/>
       <c r="D80" s="34" t="s">
@@ -3132,7 +3129,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="81" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C81" s="34"/>
       <c r="D81" s="34" t="s">
         <v>10</v>
@@ -3152,19 +3149,19 @@
         <v>292</v>
       </c>
     </row>
-    <row r="82" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="33" t="s">
         <v>52</v>
       </c>
       <c r="M82" s="35"/>
     </row>
-    <row r="83" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="33" t="s">
         <v>53</v>
       </c>
       <c r="M83" s="35"/>
     </row>
-    <row r="84" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="34" t="s">
         <v>50</v>
       </c>
@@ -3178,13 +3175,13 @@
       <c r="H84" s="34"/>
       <c r="M84" s="35"/>
     </row>
-    <row r="85" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="33" t="s">
         <v>51</v>
       </c>
       <c r="M85" s="35"/>
     </row>
-    <row r="86" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D86" s="33" t="s">
         <v>61</v>
       </c>
@@ -3196,7 +3193,7 @@
       </c>
       <c r="M86" s="35"/>
     </row>
-    <row r="87" spans="2:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
       <c r="D87" s="34" t="s">
@@ -3218,7 +3215,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
       <c r="D88" s="34" t="s">
@@ -3239,7 +3236,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C89" s="34"/>
       <c r="D89" s="34" t="s">
         <v>10</v>
@@ -3259,19 +3256,19 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="33" t="s">
         <v>52</v>
       </c>
       <c r="M90" s="35"/>
     </row>
-    <row r="91" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="33" t="s">
         <v>53</v>
       </c>
       <c r="M91" s="35"/>
     </row>
-    <row r="92" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="34" t="s">
         <v>50</v>
       </c>
@@ -3285,13 +3282,13 @@
       <c r="H92" s="34"/>
       <c r="M92" s="35"/>
     </row>
-    <row r="93" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="33" t="s">
         <v>51</v>
       </c>
       <c r="M93" s="35"/>
     </row>
-    <row r="94" spans="2:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D94" s="33" t="s">
         <v>61</v>
       </c>
@@ -3303,7 +3300,7 @@
       </c>
       <c r="M94" s="35"/>
     </row>
-    <row r="95" spans="2:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:14" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
       <c r="D95" s="34" t="s">
@@ -3325,7 +3322,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
       <c r="D96" s="34" t="s">
@@ -3346,7 +3343,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C97" s="34"/>
       <c r="D97" s="34" t="s">
         <v>10</v>
@@ -3366,7 +3363,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="33" t="s">
         <v>52</v>
       </c>
@@ -3379,13 +3376,13 @@
       <c r="M98" s="35"/>
       <c r="N98" s="34"/>
     </row>
-    <row r="99" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="33" t="s">
         <v>53</v>
       </c>
       <c r="M99" s="35"/>
     </row>
-    <row r="100" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="34" t="s">
         <v>50</v>
       </c>
@@ -3399,13 +3396,13 @@
       <c r="H100" s="34"/>
       <c r="M100" s="35"/>
     </row>
-    <row r="101" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="33" t="s">
         <v>51</v>
       </c>
       <c r="M101" s="35"/>
     </row>
-    <row r="102" spans="2:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D102" s="33" t="s">
         <v>61</v>
       </c>
@@ -3414,7 +3411,7 @@
       </c>
       <c r="M102" s="35"/>
     </row>
-    <row r="103" spans="2:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
       <c r="D103" s="34" t="s">
@@ -3436,7 +3433,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="104" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="34"/>
       <c r="C104" s="34"/>
       <c r="D104" s="34" t="s">
@@ -3457,7 +3454,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="105" spans="2:23" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:23" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C105" s="34"/>
       <c r="D105" s="34" t="s">
         <v>10</v>
@@ -3477,7 +3474,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="34" t="s">
         <v>52</v>
       </c>
@@ -3489,16 +3486,16 @@
       <c r="H106" s="34"/>
       <c r="M106" s="35"/>
     </row>
-    <row r="107" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="33" t="s">
         <v>53</v>
       </c>
       <c r="M107" s="35"/>
     </row>
-    <row r="108" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M108" s="35"/>
     </row>
-    <row r="109" spans="2:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:23" s="33" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B109" s="34" t="s">
         <v>167</v>
       </c>
@@ -3510,7 +3507,7 @@
       <c r="H109" s="34"/>
       <c r="M109" s="35"/>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>51</v>
       </c>
@@ -3521,7 +3518,7 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="8" t="s">
@@ -3546,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="12" t="s">
@@ -3561,7 +3558,7 @@
       </c>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="12" t="s">
@@ -3579,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:23" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="12" t="s">
@@ -3605,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="12" t="s">
@@ -3625,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
         <v>50</v>
       </c>
@@ -3636,7 +3633,7 @@
       <c r="E116" s="8"/>
       <c r="F116" s="9"/>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D117" s="8" t="s">
         <v>169</v>
       </c>
@@ -3651,7 +3648,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="118" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B118" s="2" t="s">
         <v>53</v>
       </c>
@@ -3659,7 +3656,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="9"/>
     </row>
-    <row r="119" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B119" s="2" t="s">
         <v>52</v>
       </c>
@@ -3667,12 +3664,12 @@
       <c r="E119" s="8"/>
       <c r="F119" s="9"/>
     </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="9"/>
     </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B121" s="19" t="s">
         <v>51</v>
       </c>
@@ -3683,7 +3680,7 @@
       <c r="G121" s="19"/>
       <c r="H121" s="19"/>
     </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
       <c r="D122" s="8" t="s">
@@ -3710,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:23" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="123" spans="2:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
       <c r="D123" s="13" t="s">
@@ -3725,7 +3722,7 @@
       </c>
       <c r="H123" s="19"/>
     </row>
-    <row r="124" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
       <c r="D124" s="13" t="s">
@@ -3743,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:23" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="125" spans="2:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
       <c r="D125" s="13" t="s">
@@ -3769,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
       <c r="D126" s="13" t="s">
@@ -3789,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
         <v>50</v>
       </c>
@@ -3800,7 +3797,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D128" s="8" t="s">
         <v>169</v>
       </c>
@@ -3812,7 +3809,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="2" t="s">
         <v>53</v>
       </c>
@@ -3823,7 +3820,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="2" t="s">
         <v>52</v>
       </c>
@@ -3831,12 +3828,12 @@
       <c r="E130" s="8"/>
       <c r="F130" s="9"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.5">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="9"/>
     </row>
-    <row r="132" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="132" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
       <c r="D132" s="13" t="s">
@@ -3856,9 +3853,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="133" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B133" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C133" s="30" t="s">
         <v>379</v>
@@ -3870,7 +3867,7 @@
       <c r="H133" s="30"/>
       <c r="M133" s="31"/>
     </row>
-    <row r="134" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="134" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="30" t="s">
         <v>380</v>
       </c>
@@ -3882,7 +3879,7 @@
       <c r="H134" s="30"/>
       <c r="M134" s="31"/>
     </row>
-    <row r="135" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="135" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="30"/>
       <c r="C135" s="30"/>
       <c r="D135" s="30"/>
@@ -3892,9 +3889,9 @@
       <c r="H135" s="30"/>
       <c r="M135" s="31"/>
     </row>
-    <row r="136" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="136" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B136" s="30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C136" s="30"/>
       <c r="D136" s="30"/>
@@ -3904,7 +3901,7 @@
       <c r="H136" s="30"/>
       <c r="M136" s="31"/>
     </row>
-    <row r="137" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="137" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="30"/>
       <c r="C137" s="30"/>
       <c r="D137" s="30"/>
@@ -3914,7 +3911,7 @@
       <c r="H137" s="30"/>
       <c r="M137" s="31"/>
     </row>
-    <row r="138" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="138" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="30" t="s">
         <v>51</v>
       </c>
@@ -3926,7 +3923,7 @@
       <c r="H138" s="30"/>
       <c r="M138" s="31"/>
     </row>
-    <row r="139" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="139" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B139" s="30"/>
       <c r="C139" s="30"/>
       <c r="D139" s="30" t="s">
@@ -3942,7 +3939,7 @@
       <c r="H139" s="30"/>
       <c r="M139" s="31"/>
     </row>
-    <row r="140" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="140" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="30"/>
       <c r="C140" s="30"/>
       <c r="D140" s="30" t="s">
@@ -3958,10 +3955,10 @@
       <c r="H140" s="30"/>
       <c r="M140" s="31"/>
       <c r="N140" s="30" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="30"/>
       <c r="C141" s="30"/>
       <c r="D141" s="30" t="s">
@@ -3983,10 +3980,10 @@
       </c>
       <c r="M141" s="31"/>
       <c r="N141" s="30" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="30"/>
       <c r="C142" s="30"/>
       <c r="D142" s="30" t="s">
@@ -4002,10 +3999,10 @@
       <c r="H142" s="30"/>
       <c r="M142" s="31"/>
       <c r="N142" s="30" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="30"/>
       <c r="C143" s="30"/>
       <c r="D143" s="30" t="s">
@@ -4021,10 +4018,10 @@
       <c r="H143" s="30"/>
       <c r="M143" s="31"/>
       <c r="N143" s="30" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="30"/>
       <c r="C144" s="30"/>
       <c r="D144" s="30" t="s">
@@ -4042,10 +4039,10 @@
       <c r="H144" s="30"/>
       <c r="M144" s="31"/>
       <c r="N144" s="30" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="29" t="s">
         <v>50</v>
       </c>
@@ -4054,10 +4051,10 @@
       </c>
       <c r="M145" s="31"/>
       <c r="N145" s="30" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D146" s="29" t="s">
         <v>169</v>
       </c>
@@ -4069,7 +4066,7 @@
       </c>
       <c r="M146" s="31"/>
     </row>
-    <row r="147" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="147" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="29" t="s">
         <v>53</v>
       </c>
@@ -4078,16 +4075,16 @@
         <v>326</v>
       </c>
     </row>
-    <row r="148" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="148" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="29" t="s">
         <v>52</v>
       </c>
       <c r="M148" s="31"/>
     </row>
-    <row r="149" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="149" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M149" s="31"/>
     </row>
-    <row r="150" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="150" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="29" t="s">
         <v>50</v>
       </c>
@@ -4096,7 +4093,7 @@
       </c>
       <c r="M150" s="31"/>
     </row>
-    <row r="151" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="151" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D151" s="29" t="s">
         <v>61</v>
       </c>
@@ -4114,16 +4111,16 @@
       </c>
       <c r="M151" s="31"/>
     </row>
-    <row r="152" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="152" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="29" t="s">
         <v>53</v>
       </c>
       <c r="M152" s="31"/>
     </row>
-    <row r="153" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="153" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M153" s="31"/>
     </row>
-    <row r="154" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="154" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D154" s="29" t="s">
         <v>10</v>
       </c>
@@ -4138,10 +4135,10 @@
       </c>
       <c r="M154" s="31"/>
       <c r="N154" s="30" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="29" t="s">
         <v>50</v>
       </c>
@@ -4150,24 +4147,24 @@
       </c>
       <c r="M155" s="31"/>
     </row>
-    <row r="156" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="156" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="29" t="s">
         <v>380</v>
       </c>
       <c r="M156" s="31"/>
     </row>
-    <row r="157" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="157" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="29" t="s">
         <v>382</v>
       </c>
       <c r="M157" s="31"/>
     </row>
-    <row r="158" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="158" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="159" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D159" s="32" t="s">
         <v>58</v>
       </c>
@@ -4178,10 +4175,10 @@
         <v>315</v>
       </c>
       <c r="N159" s="30" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D160" s="32" t="s">
         <v>63</v>
       </c>
@@ -4198,10 +4195,10 @@
         <v>2020</v>
       </c>
       <c r="N160" s="30" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D161" s="32" t="s">
         <v>169</v>
       </c>
@@ -4212,10 +4209,10 @@
         <v>170</v>
       </c>
       <c r="N161" s="30" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D162" s="32" t="s">
         <v>4</v>
       </c>
@@ -4226,10 +4223,10 @@
         <v>316</v>
       </c>
       <c r="N162" s="30" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="163" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D163" s="32" t="s">
         <v>10</v>
       </c>
@@ -4243,10 +4240,10 @@
         <v>172</v>
       </c>
       <c r="N163" s="30" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="164" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B164" s="32" t="s">
         <v>50</v>
       </c>
@@ -4254,7 +4251,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="165" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="165" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D165" s="32" t="s">
         <v>169</v>
       </c>
@@ -4268,18 +4265,18 @@
         <v>338</v>
       </c>
     </row>
-    <row r="166" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="166" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="167" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="167" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="169" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="168" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="32" t="s">
         <v>50</v>
       </c>
@@ -4287,7 +4284,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="170" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="170" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D170" s="32" t="s">
         <v>61</v>
       </c>
@@ -4304,15 +4301,15 @@
         <v>342</v>
       </c>
     </row>
-    <row r="171" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="171" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="172" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M172" s="31"/>
     </row>
-    <row r="173" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="173" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D173" s="29" t="s">
         <v>10</v>
       </c>
@@ -4327,10 +4324,10 @@
       </c>
       <c r="M173" s="31"/>
       <c r="N173" s="30" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="174" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="29" t="s">
         <v>50</v>
       </c>
@@ -4339,30 +4336,30 @@
       </c>
       <c r="M174" s="31"/>
     </row>
-    <row r="175" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="175" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B175" s="29" t="s">
         <v>380</v>
       </c>
       <c r="M175" s="31"/>
     </row>
-    <row r="176" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="29" t="s">
         <v>382</v>
       </c>
       <c r="M176" s="31"/>
     </row>
-    <row r="177" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="177" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M177" s="31"/>
     </row>
-    <row r="178" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="178" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M178" s="31"/>
     </row>
-    <row r="179" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="179" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B179" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="180" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D180" s="32" t="s">
         <v>58</v>
       </c>
@@ -4373,10 +4370,10 @@
         <v>315</v>
       </c>
       <c r="N180" s="30" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="181" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D181" s="32" t="s">
         <v>63</v>
       </c>
@@ -4393,10 +4390,10 @@
         <v>2020</v>
       </c>
       <c r="N181" s="30" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D182" s="32" t="s">
         <v>169</v>
       </c>
@@ -4407,10 +4404,10 @@
         <v>170</v>
       </c>
       <c r="N182" s="30" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D183" s="32" t="s">
         <v>4</v>
       </c>
@@ -4421,10 +4418,10 @@
         <v>316</v>
       </c>
       <c r="N183" s="30" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="184" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D184" s="32" t="s">
         <v>10</v>
       </c>
@@ -4438,10 +4435,10 @@
         <v>172</v>
       </c>
       <c r="N184" s="30" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="185" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B185" s="32" t="s">
         <v>50</v>
       </c>
@@ -4449,7 +4446,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="186" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="186" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D186" s="32" t="s">
         <v>169</v>
       </c>
@@ -4463,18 +4460,18 @@
         <v>357</v>
       </c>
     </row>
-    <row r="187" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="187" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B187" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="188" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="188" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B188" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="189" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="190" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="189" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B190" s="32" t="s">
         <v>50</v>
       </c>
@@ -4482,7 +4479,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="191" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="191" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D191" s="32" t="s">
         <v>61</v>
       </c>
@@ -4499,13 +4496,13 @@
         <v>360</v>
       </c>
     </row>
-    <row r="192" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="192" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B192" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="193" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="194" spans="2:14" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="193" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="2:14" s="29" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D194" s="29" t="s">
         <v>10</v>
       </c>
@@ -4520,10 +4517,10 @@
       </c>
       <c r="M194" s="31"/>
       <c r="N194" s="30" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="195" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="29" t="s">
         <v>50</v>
       </c>
@@ -4532,26 +4529,26 @@
       </c>
       <c r="M195" s="31"/>
     </row>
-    <row r="196" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="196" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B196" s="29" t="s">
         <v>380</v>
       </c>
       <c r="M196" s="31"/>
     </row>
-    <row r="197" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="197" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B197" s="29" t="s">
         <v>382</v>
       </c>
       <c r="M197" s="31"/>
     </row>
-    <row r="198" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="199" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="200" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="198" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B200" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="201" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D201" s="32" t="s">
         <v>58</v>
       </c>
@@ -4562,10 +4559,10 @@
         <v>315</v>
       </c>
       <c r="N201" s="30" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="202" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D202" s="32" t="s">
         <v>63</v>
       </c>
@@ -4582,10 +4579,10 @@
         <v>2020</v>
       </c>
       <c r="N202" s="30" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="203" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D203" s="32" t="s">
         <v>169</v>
       </c>
@@ -4596,10 +4593,10 @@
         <v>170</v>
       </c>
       <c r="N203" s="30" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="204" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D204" s="32" t="s">
         <v>4</v>
       </c>
@@ -4610,10 +4607,10 @@
         <v>316</v>
       </c>
       <c r="N204" s="30" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="205" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D205" s="32" t="s">
         <v>10</v>
       </c>
@@ -4627,10 +4624,10 @@
         <v>172</v>
       </c>
       <c r="N205" s="30" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="206" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B206" s="32" t="s">
         <v>50</v>
       </c>
@@ -4638,7 +4635,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="207" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="207" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D207" s="32" t="s">
         <v>169</v>
       </c>
@@ -4652,18 +4649,18 @@
         <v>366</v>
       </c>
     </row>
-    <row r="208" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="208" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B208" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="209" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B209" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="210" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="211" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B211" s="32" t="s">
         <v>50</v>
       </c>
@@ -4671,7 +4668,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="212" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D212" s="32" t="s">
         <v>61</v>
       </c>
@@ -4688,15 +4685,15 @@
         <v>370</v>
       </c>
     </row>
-    <row r="213" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B213" s="32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="214" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M214" s="31"/>
     </row>
-    <row r="215" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B215" s="30"/>
       <c r="C215" s="30"/>
       <c r="D215" s="30"/>
@@ -4706,7 +4703,7 @@
       <c r="H215" s="30"/>
       <c r="M215" s="31"/>
     </row>
-    <row r="216" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B216" s="30" t="s">
         <v>53</v>
       </c>
@@ -4718,7 +4715,7 @@
       <c r="H216" s="30"/>
       <c r="M216" s="31"/>
     </row>
-    <row r="217" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B217" s="30" t="s">
         <v>53</v>
       </c>
@@ -4730,7 +4727,7 @@
       <c r="H217" s="30"/>
       <c r="M217" s="31"/>
     </row>
-    <row r="218" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B218" s="30" t="s">
         <v>53</v>
       </c>
@@ -4742,9 +4739,9 @@
       <c r="H218" s="30"/>
       <c r="M218" s="31"/>
     </row>
-    <row r="219" spans="1:13" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:13" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B219" s="30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C219" s="30"/>
       <c r="D219" s="30"/>
@@ -4754,7 +4751,7 @@
       <c r="H219" s="30"/>
       <c r="M219" s="31"/>
     </row>
-    <row r="220" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B220" s="30"/>
       <c r="C220" s="30"/>
       <c r="D220" s="30"/>
@@ -4764,12 +4761,12 @@
       <c r="H220" s="30"/>
       <c r="M220" s="31"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C221" s="8"/>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>381</v>
       </c>
@@ -4777,7 +4774,7 @@
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B223" s="2" t="s">
         <v>51</v>
       </c>
@@ -4785,12 +4782,12 @@
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C224" s="8"/>
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
     </row>
-    <row r="225" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="225" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C225" s="8"/>
       <c r="D225" s="9" t="s">
         <v>61</v>
@@ -4803,7 +4800,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="226" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="226" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B226" s="19"/>
       <c r="C226" s="19"/>
       <c r="D226" s="13"/>
@@ -4812,7 +4809,7 @@
       <c r="G226" s="19"/>
       <c r="H226" s="19"/>
     </row>
-    <row r="227" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="227" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C227" s="9"/>
       <c r="D227" s="9" t="s">
         <v>61</v>
@@ -4826,7 +4823,7 @@
       </c>
       <c r="N227" s="8"/>
     </row>
-    <row r="228" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="228" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D228" s="9" t="s">
         <v>61</v>
       </c>
@@ -4837,7 +4834,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="229" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="229" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D229" s="8" t="s">
         <v>10</v>
       </c>
@@ -4851,7 +4848,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="230" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="230" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B230" s="19" t="s">
         <v>52</v>
       </c>
@@ -4862,7 +4859,7 @@
       <c r="G230" s="19"/>
       <c r="H230" s="19"/>
     </row>
-    <row r="231" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="231" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D231" s="8" t="s">
         <v>264</v>
       </c>
@@ -4877,12 +4874,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="232" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
       <c r="F232" s="9"/>
     </row>
-    <row r="233" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="233" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D233" s="8" t="s">
         <v>4</v>
       </c>
@@ -4894,7 +4891,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="234" spans="2:23" x14ac:dyDescent="0.5">
+    <row r="234" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
       <c r="F234" s="9"/>
@@ -4920,7 +4917,7 @@
       <selection activeCell="A72" sqref="A72:XFD75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -4928,7 +4925,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4945,7 +4942,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4956,7 +4953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -4967,7 +4964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
@@ -4978,7 +4975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
@@ -4989,11 +4986,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -5004,7 +5001,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -5015,11 +5012,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>391</v>
       </c>
@@ -5030,7 +5027,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>391</v>
       </c>
@@ -5041,7 +5038,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>391</v>
       </c>
@@ -5052,15 +5049,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -5071,7 +5068,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -5082,10 +5079,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
@@ -5099,7 +5096,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -5113,21 +5110,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="D21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>78</v>
       </c>
@@ -5141,21 +5138,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="D23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
@@ -5169,14 +5166,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>85</v>
       </c>
@@ -5187,7 +5184,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>85</v>
       </c>
@@ -5198,7 +5195,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -5209,15 +5206,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -5228,7 +5225,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
@@ -5239,7 +5236,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>94</v>
       </c>
@@ -5250,17 +5247,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>99</v>
       </c>
@@ -5271,7 +5268,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>99</v>
       </c>
@@ -5282,7 +5279,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>99</v>
       </c>
@@ -5293,14 +5290,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
@@ -5311,7 +5308,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>107</v>
       </c>
@@ -5322,7 +5319,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>107</v>
       </c>
@@ -5333,7 +5330,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>107</v>
       </c>
@@ -5344,15 +5341,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>162</v>
       </c>
@@ -5363,7 +5360,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>162</v>
       </c>
@@ -5374,7 +5371,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>162</v>
       </c>
@@ -5385,7 +5382,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>162</v>
       </c>
@@ -5396,10 +5393,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>132</v>
       </c>
@@ -5410,7 +5407,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>132</v>
       </c>
@@ -5421,7 +5418,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>132</v>
       </c>
@@ -5432,7 +5429,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>132</v>
       </c>
@@ -5443,10 +5440,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>143</v>
       </c>
@@ -5457,7 +5454,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>143</v>
       </c>
@@ -5468,7 +5465,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>143</v>
       </c>
@@ -5479,7 +5476,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>143</v>
       </c>
@@ -5490,10 +5487,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>175</v>
       </c>
@@ -5504,7 +5501,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>175</v>
       </c>
@@ -5515,13 +5512,13 @@
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>184</v>
       </c>
@@ -5532,7 +5529,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>184</v>
       </c>
@@ -5543,13 +5540,13 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>286</v>
       </c>
@@ -5560,7 +5557,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>286</v>
       </c>
@@ -5571,7 +5568,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>286</v>
       </c>
@@ -5582,326 +5579,326 @@
         <v>394</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
@@ -5926,7 +5923,7 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.875" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -5939,7 +5936,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>43</v>
       </c>
@@ -5974,7 +5971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="173.25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>242</v>
       </c>
@@ -6003,14 +6000,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>55</v>
       </c>
@@ -6024,7 +6021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -6038,7 +6035,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -6059,19 +6056,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -6079,7 +6076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>276</v>
       </c>
@@ -6087,196 +6084,204 @@
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>278</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>254</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>261</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B17" s="28" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B22" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B26" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B30" t="s">
         <v>413</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B29" t="s">
-        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -6293,13 +6298,13 @@
       <selection activeCell="A117" sqref="A117:XFD121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6307,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>63</v>
       </c>
@@ -6315,7 +6320,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
@@ -6323,7 +6328,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>10</v>
       </c>
@@ -6331,7 +6336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
@@ -6339,7 +6344,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>4</v>
       </c>
@@ -6347,7 +6352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>10</v>
       </c>
@@ -6355,7 +6360,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>63</v>
       </c>
@@ -6363,7 +6368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>5</v>
       </c>
@@ -6371,7 +6376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>5</v>
       </c>
@@ -6379,7 +6384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>10</v>
       </c>
@@ -6387,7 +6392,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>88</v>
       </c>
@@ -6395,7 +6400,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>10</v>
       </c>
@@ -6403,7 +6408,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>10</v>
       </c>
@@ -6411,7 +6416,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>10</v>
       </c>
@@ -6419,7 +6424,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>10</v>
       </c>
@@ -6427,7 +6432,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>10</v>
       </c>
@@ -6435,7 +6440,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>10</v>
       </c>
@@ -6443,7 +6448,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>4</v>
       </c>
@@ -6451,7 +6456,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>61</v>
       </c>
@@ -6459,7 +6464,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>10</v>
       </c>
@@ -6467,7 +6472,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>61</v>
       </c>
@@ -6475,7 +6480,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>5</v>
       </c>
@@ -6483,7 +6488,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>58</v>
       </c>
@@ -6491,7 +6496,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>10</v>
       </c>
@@ -6499,7 +6504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>88</v>
       </c>
@@ -6507,7 +6512,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>88</v>
       </c>
@@ -6515,7 +6520,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>10</v>
       </c>
@@ -6523,7 +6528,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>58</v>
       </c>
@@ -6531,7 +6536,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>58</v>
       </c>
@@ -6539,7 +6544,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>5</v>
       </c>
@@ -6547,7 +6552,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>58</v>
       </c>
@@ -6555,7 +6560,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>5</v>
       </c>
@@ -6563,7 +6568,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>58</v>
       </c>
@@ -6571,7 +6576,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>5</v>
       </c>
@@ -6579,7 +6584,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>58</v>
       </c>
@@ -6587,7 +6592,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>58</v>
       </c>
@@ -6595,7 +6600,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>4</v>
       </c>
@@ -6603,7 +6608,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>10</v>
       </c>
@@ -6611,7 +6616,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>10</v>
       </c>
@@ -6619,7 +6624,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>10</v>
       </c>
@@ -6627,7 +6632,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>10</v>
       </c>
@@ -6635,7 +6640,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>10</v>
       </c>
@@ -6643,7 +6648,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>10</v>
       </c>
@@ -6651,7 +6656,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>10</v>
       </c>
@@ -6659,7 +6664,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>10</v>
       </c>
@@ -6667,7 +6672,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>10</v>
       </c>
@@ -6675,7 +6680,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>10</v>
       </c>
@@ -6683,7 +6688,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>4</v>
       </c>
@@ -6691,7 +6696,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>10</v>
       </c>
@@ -6699,7 +6704,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>63</v>
       </c>
@@ -6707,7 +6712,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>169</v>
       </c>
@@ -6715,7 +6720,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>10</v>
       </c>
@@ -6723,7 +6728,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>10</v>
       </c>
@@ -6731,7 +6736,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>169</v>
       </c>
@@ -6739,7 +6744,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>63</v>
       </c>
@@ -6747,7 +6752,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>169</v>
       </c>
@@ -6755,7 +6760,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>10</v>
       </c>
@@ -6763,7 +6768,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>10</v>
       </c>
@@ -6771,7 +6776,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>169</v>
       </c>
@@ -6779,7 +6784,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>10</v>
       </c>
@@ -6787,7 +6792,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>61</v>
       </c>
@@ -6795,7 +6800,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
         <v>10</v>
       </c>
@@ -6803,7 +6808,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>10</v>
       </c>
@@ -6811,7 +6816,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>4</v>
       </c>
@@ -6819,7 +6824,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>264</v>
       </c>
@@ -6827,7 +6832,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>264</v>
       </c>
@@ -6835,7 +6840,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>58</v>
       </c>
@@ -6843,7 +6848,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -6851,7 +6856,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>58</v>
       </c>
@@ -6859,7 +6864,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -6867,7 +6872,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -6875,7 +6880,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -6883,7 +6888,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -6891,7 +6896,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -6899,7 +6904,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>58</v>
       </c>
@@ -6907,7 +6912,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -6915,7 +6920,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -6923,7 +6928,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -6931,7 +6936,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -6939,7 +6944,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -6947,7 +6952,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>58</v>
       </c>
@@ -6955,7 +6960,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>63</v>
       </c>
@@ -6963,7 +6968,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>169</v>
       </c>
@@ -6971,7 +6976,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>88</v>
       </c>
@@ -6979,7 +6984,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -6987,7 +6992,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>169</v>
       </c>
@@ -6995,7 +7000,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -7003,7 +7008,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>58</v>
       </c>
@@ -7011,7 +7016,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>63</v>
       </c>
@@ -7019,7 +7024,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>169</v>
       </c>
@@ -7027,7 +7032,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -7035,7 +7040,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -7043,7 +7048,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>169</v>
       </c>
@@ -7051,7 +7056,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -7059,7 +7064,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>58</v>
       </c>
@@ -7067,7 +7072,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>63</v>
       </c>
@@ -7075,7 +7080,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>169</v>
       </c>
@@ -7083,7 +7088,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -7091,7 +7096,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -7099,7 +7104,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>169</v>
       </c>
@@ -7107,7 +7112,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -7115,7 +7120,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>58</v>
       </c>
@@ -7123,7 +7128,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>63</v>
       </c>
@@ -7131,7 +7136,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>169</v>
       </c>
@@ -7139,7 +7144,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -7147,7 +7152,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -7155,7 +7160,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>169</v>
       </c>

--- a/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
+++ b/app/config/tables/inclusao/forms/inclusao/inclusao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\inclusao\forms\inclusao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7A5BEE-EEDE-4EF4-BF26-ACBA5ED85A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5A3CF7-B985-47B0-9A8F-1DE55F23ECB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="414">
   <si>
     <t>type</t>
   </si>
@@ -812,9 +812,6 @@
     } 
     })
 .value()</t>
-  </si>
-  <si>
-    <t>""+ data('id_estudo') + "X" + calculates.visita_id()</t>
   </si>
   <si>
     <t>nota_id_lamina</t>
@@ -2090,11 +2087,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y234"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H75" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="M201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L75" sqref="L75"/>
+      <selection pane="bottomRight" activeCell="P231" sqref="P231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2233,11 +2230,11 @@
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P5" t="s">
         <v>223</v>
@@ -2298,7 +2295,7 @@
         <v>207</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N12" s="8"/>
     </row>
@@ -2347,19 +2344,19 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="M20" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -2375,10 +2372,10 @@
         <v>106</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M21" s="6" t="s">
         <v>232</v>
@@ -2491,7 +2488,7 @@
         <v>119</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>240</v>
@@ -2529,10 +2526,10 @@
         <v>119</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M33" s="6" t="s">
         <v>231</v>
@@ -2577,10 +2574,10 @@
         <v>119</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M36" s="6" t="s">
         <v>231</v>
@@ -2613,7 +2610,7 @@
         <v>50</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="9"/>
@@ -2625,10 +2622,10 @@
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
@@ -2723,7 +2720,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>209</v>
@@ -2910,7 +2907,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>147</v>
@@ -2928,7 +2925,7 @@
         <v>10</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>150</v>
@@ -2995,7 +2992,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>163</v>
@@ -3030,14 +3027,14 @@
       </c>
       <c r="E75" s="34"/>
       <c r="F75" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G75" s="34" t="s">
         <v>166</v>
       </c>
       <c r="H75" s="34"/>
       <c r="I75" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M75" s="35"/>
       <c r="N75" s="34" t="s">
@@ -3049,7 +3046,7 @@
         <v>50</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D76" s="34"/>
       <c r="E76" s="34"/>
@@ -3078,10 +3075,10 @@
       </c>
       <c r="E78" s="34"/>
       <c r="F78" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G78" s="34" t="s">
         <v>305</v>
-      </c>
-      <c r="G78" s="34" t="s">
-        <v>306</v>
       </c>
       <c r="H78" s="34"/>
       <c r="M78" s="35"/>
@@ -3094,18 +3091,18 @@
       </c>
       <c r="E79" s="34"/>
       <c r="F79" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G79" s="34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H79" s="34"/>
       <c r="I79" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M79" s="35"/>
       <c r="N79" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3118,15 +3115,15 @@
         <v>47</v>
       </c>
       <c r="F80" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G80" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H80" s="34"/>
       <c r="M80" s="35"/>
       <c r="N80" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3135,18 +3132,18 @@
         <v>10</v>
       </c>
       <c r="E81" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="G81" s="34" t="s">
         <v>286</v>
-      </c>
-      <c r="F81" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="G81" s="34" t="s">
-        <v>287</v>
       </c>
       <c r="H81" s="34"/>
       <c r="M81" s="35"/>
       <c r="N81" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3166,7 +3163,7 @@
         <v>50</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D84" s="34"/>
       <c r="E84" s="34"/>
@@ -3186,10 +3183,10 @@
         <v>61</v>
       </c>
       <c r="F86" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="G86" s="33" t="s">
         <v>308</v>
-      </c>
-      <c r="G86" s="33" t="s">
-        <v>309</v>
       </c>
       <c r="M86" s="35"/>
     </row>
@@ -3201,18 +3198,18 @@
       </c>
       <c r="E87" s="34"/>
       <c r="F87" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G87" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H87" s="34"/>
       <c r="I87" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M87" s="35"/>
       <c r="N87" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3225,15 +3222,15 @@
         <v>47</v>
       </c>
       <c r="F88" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G88" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H88" s="34"/>
       <c r="M88" s="35"/>
       <c r="N88" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3242,18 +3239,18 @@
         <v>10</v>
       </c>
       <c r="E89" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G89" s="34" t="s">
         <v>286</v>
-      </c>
-      <c r="F89" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="G89" s="34" t="s">
-        <v>287</v>
       </c>
       <c r="H89" s="34"/>
       <c r="M89" s="35"/>
       <c r="N89" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3273,7 +3270,7 @@
         <v>50</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D92" s="34"/>
       <c r="E92" s="34"/>
@@ -3293,10 +3290,10 @@
         <v>61</v>
       </c>
       <c r="F94" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="G94" s="33" t="s">
         <v>310</v>
-      </c>
-      <c r="G94" s="33" t="s">
-        <v>311</v>
       </c>
       <c r="M94" s="35"/>
     </row>
@@ -3308,18 +3305,18 @@
       </c>
       <c r="E95" s="34"/>
       <c r="F95" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G95" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H95" s="34"/>
       <c r="I95" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M95" s="35"/>
       <c r="N95" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3332,15 +3329,15 @@
         <v>47</v>
       </c>
       <c r="F96" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H96" s="34"/>
       <c r="M96" s="35"/>
       <c r="N96" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3349,18 +3346,18 @@
         <v>10</v>
       </c>
       <c r="E97" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F97" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="G97" s="34" t="s">
         <v>286</v>
-      </c>
-      <c r="F97" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="G97" s="34" t="s">
-        <v>287</v>
       </c>
       <c r="H97" s="34"/>
       <c r="M97" s="35"/>
       <c r="N97" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3387,7 +3384,7 @@
         <v>50</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D100" s="34"/>
       <c r="E100" s="34"/>
@@ -3407,7 +3404,7 @@
         <v>61</v>
       </c>
       <c r="G102" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M102" s="35"/>
     </row>
@@ -3419,18 +3416,18 @@
       </c>
       <c r="E103" s="34"/>
       <c r="F103" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G103" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H103" s="34"/>
       <c r="I103" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M103" s="35"/>
       <c r="N103" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3443,15 +3440,15 @@
         <v>47</v>
       </c>
       <c r="F104" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G104" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H104" s="34"/>
       <c r="M104" s="35"/>
       <c r="N104" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="2:23" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3460,18 +3457,18 @@
         <v>10</v>
       </c>
       <c r="E105" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="F105" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G105" s="34" t="s">
         <v>286</v>
-      </c>
-      <c r="F105" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="G105" s="34" t="s">
-        <v>287</v>
       </c>
       <c r="H105" s="34"/>
       <c r="M105" s="35"/>
       <c r="N105" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="2:23" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3522,7 +3519,7 @@
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E111" s="10"/>
       <c r="F111" s="13" t="s">
@@ -3537,7 +3534,7 @@
         <v>2020</v>
       </c>
       <c r="P111" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W111" s="2" t="b">
         <v>1</v>
@@ -3554,7 +3551,7 @@
         <v>181</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H112" s="10"/>
     </row>
@@ -3684,7 +3681,7 @@
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
       <c r="D122" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E122" s="19"/>
       <c r="F122" s="13" t="s">
@@ -3701,7 +3698,7 @@
         <v>2020</v>
       </c>
       <c r="P122" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="W122" s="2" t="b">
         <v>1</v>
@@ -3718,7 +3715,7 @@
         <v>182</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H123" s="19"/>
     </row>
@@ -3843,7 +3840,7 @@
         <v>47</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G132" s="19" t="s">
         <v>193</v>
@@ -3855,10 +3852,10 @@
     </row>
     <row r="133" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B133" s="30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D133" s="30"/>
       <c r="E133" s="30"/>
@@ -3869,7 +3866,7 @@
     </row>
     <row r="134" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C134" s="30"/>
       <c r="D134" s="30"/>
@@ -3891,7 +3888,7 @@
     </row>
     <row r="136" spans="2:14" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B136" s="30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C136" s="30"/>
       <c r="D136" s="30"/>
@@ -3947,15 +3944,15 @@
       </c>
       <c r="E140" s="30"/>
       <c r="F140" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G140" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H140" s="30"/>
       <c r="M140" s="31"/>
       <c r="N140" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="141" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -3966,7 +3963,7 @@
       </c>
       <c r="E141" s="30"/>
       <c r="F141" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G141" s="30" t="s">
         <v>168</v>
@@ -3980,7 +3977,7 @@
       </c>
       <c r="M141" s="31"/>
       <c r="N141" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="142" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -3991,7 +3988,7 @@
       </c>
       <c r="E142" s="30"/>
       <c r="F142" s="30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G142" s="30" t="s">
         <v>170</v>
@@ -3999,7 +3996,7 @@
       <c r="H142" s="30"/>
       <c r="M142" s="31"/>
       <c r="N142" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="143" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -4010,15 +4007,15 @@
       </c>
       <c r="E143" s="30"/>
       <c r="F143" s="30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G143" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H143" s="30"/>
       <c r="M143" s="31"/>
       <c r="N143" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="144" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -4031,7 +4028,7 @@
         <v>47</v>
       </c>
       <c r="F144" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G144" s="30" t="s">
         <v>172</v>
@@ -4039,7 +4036,7 @@
       <c r="H144" s="30"/>
       <c r="M144" s="31"/>
       <c r="N144" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="145" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -4047,11 +4044,11 @@
         <v>50</v>
       </c>
       <c r="C145" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M145" s="31"/>
       <c r="N145" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="146" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -4059,7 +4056,7 @@
         <v>169</v>
       </c>
       <c r="F146" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G146" s="29" t="s">
         <v>174</v>
@@ -4072,7 +4069,7 @@
       </c>
       <c r="M147" s="31"/>
       <c r="N147" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="148" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -4089,7 +4086,7 @@
         <v>50</v>
       </c>
       <c r="C150" s="29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M150" s="31"/>
     </row>
@@ -4098,16 +4095,16 @@
         <v>61</v>
       </c>
       <c r="F151" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G151" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="I151" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="I151" s="29" t="s">
-        <v>318</v>
-      </c>
       <c r="L151" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M151" s="31"/>
     </row>
@@ -4128,14 +4125,14 @@
         <v>47</v>
       </c>
       <c r="F154" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G154" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M154" s="31"/>
       <c r="N154" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="155" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -4143,19 +4140,19 @@
         <v>50</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M155" s="31"/>
     </row>
     <row r="156" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M156" s="31"/>
     </row>
     <row r="157" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M157" s="31"/>
     </row>
@@ -4169,13 +4166,13 @@
         <v>58</v>
       </c>
       <c r="F159" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N159" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4183,7 +4180,7 @@
         <v>63</v>
       </c>
       <c r="F160" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G160" s="32" t="s">
         <v>168</v>
@@ -4195,7 +4192,7 @@
         <v>2020</v>
       </c>
       <c r="N160" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="161" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4203,13 +4200,13 @@
         <v>169</v>
       </c>
       <c r="F161" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G161" s="32" t="s">
         <v>170</v>
       </c>
       <c r="N161" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="162" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4217,13 +4214,13 @@
         <v>4</v>
       </c>
       <c r="F162" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N162" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="163" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4234,13 +4231,13 @@
         <v>47</v>
       </c>
       <c r="F163" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G163" s="32" t="s">
         <v>172</v>
       </c>
       <c r="N163" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="164" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4248,7 +4245,7 @@
         <v>50</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="165" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4256,13 +4253,13 @@
         <v>169</v>
       </c>
       <c r="F165" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G165" s="32" t="s">
         <v>174</v>
       </c>
       <c r="N165" s="32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="166" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4281,7 +4278,7 @@
         <v>50</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="170" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4289,16 +4286,16 @@
         <v>61</v>
       </c>
       <c r="F170" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="G170" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="I170" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="L170" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="G170" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="I170" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="L170" s="32" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="171" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4317,14 +4314,14 @@
         <v>47</v>
       </c>
       <c r="F173" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G173" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M173" s="31"/>
       <c r="N173" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="174" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -4332,19 +4329,19 @@
         <v>50</v>
       </c>
       <c r="C174" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M174" s="31"/>
     </row>
     <row r="175" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B175" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M175" s="31"/>
     </row>
     <row r="176" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M176" s="31"/>
     </row>
@@ -4364,13 +4361,13 @@
         <v>58</v>
       </c>
       <c r="F180" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G180" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N180" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="181" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4378,7 +4375,7 @@
         <v>63</v>
       </c>
       <c r="F181" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G181" s="32" t="s">
         <v>168</v>
@@ -4390,7 +4387,7 @@
         <v>2020</v>
       </c>
       <c r="N181" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="182" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4398,13 +4395,13 @@
         <v>169</v>
       </c>
       <c r="F182" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G182" s="32" t="s">
         <v>170</v>
       </c>
       <c r="N182" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="183" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4412,13 +4409,13 @@
         <v>4</v>
       </c>
       <c r="F183" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G183" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N183" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="184" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4429,13 +4426,13 @@
         <v>47</v>
       </c>
       <c r="F184" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G184" s="32" t="s">
         <v>172</v>
       </c>
       <c r="N184" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="185" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4443,7 +4440,7 @@
         <v>50</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="186" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4451,13 +4448,13 @@
         <v>169</v>
       </c>
       <c r="F186" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G186" s="32" t="s">
         <v>174</v>
       </c>
       <c r="N186" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="187" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4476,7 +4473,7 @@
         <v>50</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="191" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4484,16 +4481,16 @@
         <v>61</v>
       </c>
       <c r="F191" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G191" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="I191" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="I191" s="32" t="s">
-        <v>318</v>
-      </c>
       <c r="L191" s="32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="192" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4510,14 +4507,14 @@
         <v>47</v>
       </c>
       <c r="F194" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G194" s="29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M194" s="31"/>
       <c r="N194" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="195" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -4525,19 +4522,19 @@
         <v>50</v>
       </c>
       <c r="C195" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M195" s="31"/>
     </row>
     <row r="196" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B196" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M196" s="31"/>
     </row>
     <row r="197" spans="2:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B197" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M197" s="31"/>
     </row>
@@ -4553,13 +4550,13 @@
         <v>58</v>
       </c>
       <c r="F201" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G201" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N201" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="202" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4567,7 +4564,7 @@
         <v>63</v>
       </c>
       <c r="F202" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G202" s="32" t="s">
         <v>168</v>
@@ -4579,7 +4576,7 @@
         <v>2020</v>
       </c>
       <c r="N202" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="203" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4587,13 +4584,13 @@
         <v>169</v>
       </c>
       <c r="F203" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G203" s="32" t="s">
         <v>170</v>
       </c>
       <c r="N203" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="204" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4601,13 +4598,13 @@
         <v>4</v>
       </c>
       <c r="F204" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G204" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N204" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="205" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4618,13 +4615,13 @@
         <v>47</v>
       </c>
       <c r="F205" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G205" s="32" t="s">
         <v>172</v>
       </c>
       <c r="N205" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="206" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4632,7 +4629,7 @@
         <v>50</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="207" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4640,13 +4637,13 @@
         <v>169</v>
       </c>
       <c r="F207" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G207" s="32" t="s">
         <v>174</v>
       </c>
       <c r="N207" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="208" spans="2:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4665,7 +4662,7 @@
         <v>50</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="212" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4673,16 +4670,16 @@
         <v>61</v>
       </c>
       <c r="F212" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="G212" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="I212" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="L212" s="32" t="s">
         <v>369</v>
-      </c>
-      <c r="G212" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="I212" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="L212" s="32" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="213" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -4741,7 +4738,7 @@
     </row>
     <row r="219" spans="1:13" s="29" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B219" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C219" s="30"/>
       <c r="D219" s="30"/>
@@ -4768,7 +4765,7 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C222" s="8"/>
       <c r="E222" s="9"/>
@@ -4794,10 +4791,10 @@
       </c>
       <c r="E225" s="9"/>
       <c r="F225" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="226" spans="2:23" x14ac:dyDescent="0.25">
@@ -4819,7 +4816,7 @@
         <v>233</v>
       </c>
       <c r="G227" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="N227" s="8"/>
     </row>
@@ -4828,10 +4825,10 @@
         <v>61</v>
       </c>
       <c r="F228" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G228" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="229" spans="2:23" x14ac:dyDescent="0.25">
@@ -4861,14 +4858,14 @@
     </row>
     <row r="231" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D231" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E231" s="8"/>
       <c r="F231" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P231" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="W231" s="2" t="b">
         <v>1</v>
@@ -4885,10 +4882,10 @@
       </c>
       <c r="E233" s="8"/>
       <c r="F233" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G233" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="G233" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="234" spans="2:23" x14ac:dyDescent="0.25">
@@ -5018,7 +5015,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -5029,7 +5026,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -5040,13 +5037,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B13" s="2">
         <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5115,10 +5112,10 @@
         <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="D21" t="s">
         <v>73</v>
@@ -5143,10 +5140,10 @@
         <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="D23" t="s">
         <v>74</v>
@@ -5390,7 +5387,7 @@
         <v>88</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5437,7 +5434,7 @@
         <v>88</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5484,7 +5481,7 @@
         <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -5548,35 +5545,35 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B74" s="2">
         <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B75" s="2">
         <v>3</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -6058,8 +6055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6078,26 +6075,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
         <v>278</v>
-      </c>
-      <c r="B4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6145,143 +6142,143 @@
         <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" t="s">
         <v>258</v>
-      </c>
-      <c r="B11" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>329</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>345</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="28" t="s">
         <v>349</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B29" s="28" t="s">
         <v>373</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -6509,7 +6506,7 @@
         <v>88</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -6826,18 +6823,18 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -6845,7 +6842,7 @@
         <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6853,7 +6850,7 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -6861,7 +6858,7 @@
         <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -6869,7 +6866,7 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -6877,7 +6874,7 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -6885,7 +6882,7 @@
         <v>58</v>
       </c>
       <c r="B81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -6893,7 +6890,7 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -6901,7 +6898,7 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -6909,7 +6906,7 @@
         <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -6917,7 +6914,7 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -6925,7 +6922,7 @@
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -6933,7 +6930,7 @@
         <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -6941,7 +6938,7 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -6949,7 +6946,7 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -6957,7 +6954,7 @@
         <v>58</v>
       </c>
       <c r="B90" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -6965,7 +6962,7 @@
         <v>63</v>
       </c>
       <c r="B91" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -6973,7 +6970,7 @@
         <v>169</v>
       </c>
       <c r="B92" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -6981,7 +6978,7 @@
         <v>88</v>
       </c>
       <c r="B93" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -6989,7 +6986,7 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -6997,7 +6994,7 @@
         <v>169</v>
       </c>
       <c r="B95" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -7005,7 +7002,7 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -7013,7 +7010,7 @@
         <v>58</v>
       </c>
       <c r="B97" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -7021,7 +7018,7 @@
         <v>63</v>
       </c>
       <c r="B98" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -7029,7 +7026,7 @@
         <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -7037,7 +7034,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -7045,7 +7042,7 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -7053,7 +7050,7 @@
         <v>169</v>
       </c>
       <c r="B102" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -7061,7 +7058,7 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -7069,7 +7066,7 @@
         <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -7077,7 +7074,7 @@
         <v>63</v>
       </c>
       <c r="B105" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -7085,7 +7082,7 @@
         <v>169</v>
       </c>
       <c r="B106" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -7093,7 +7090,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -7101,7 +7098,7 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -7109,7 +7106,7 @@
         <v>169</v>
       </c>
       <c r="B109" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -7117,7 +7114,7 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -7125,7 +7122,7 @@
         <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -7133,7 +7130,7 @@
         <v>63</v>
       </c>
       <c r="B112" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -7141,7 +7138,7 @@
         <v>169</v>
       </c>
       <c r="B113" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -7149,7 +7146,7 @@
         <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -7157,7 +7154,7 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -7165,7 +7162,7 @@
         <v>169</v>
       </c>
       <c r="B116" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
